--- a/news_data/2019_01.xlsx
+++ b/news_data/2019_01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,64 +22,214 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도, 설연휴 2∼6일 관광종합상황실 운영</t>
+  </si>
+  <si>
+    <t>제주도, 전통·불교문화 관광 자원화 나서</t>
+  </si>
+  <si>
+    <t>롯데관광개발, 제주도 리조트에 카지노 확장 이전 금지 추진에 약세</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '도쿄 이벤트 박람회'서 제주 콘텐츠 홍보</t>
+  </si>
+  <si>
+    <t>롯데관광개발 “광화문시대 접고 본사 제주도로 이전”</t>
+  </si>
+  <si>
+    <t>[S포토] 제주글로벌여행 이태화, '아름다운 제주도 소개~' (2019 국내관광 설...</t>
+  </si>
+  <si>
+    <t>설 연휴, 후회없는 '제주도 관광' 원한다면?…관광지도 참고해 특별한 여행코...</t>
+  </si>
+  <si>
+    <t>제주도, 관광분야에 774억원 투입…“명품 휴양도시 만들 것”</t>
+  </si>
+  <si>
+    <t>[한국관광 100선] 봄이 가장 빨리 오는 제주도 여행지 9곳</t>
+  </si>
+  <si>
+    <t>[S포토] 김종문-이정환-KCM-권태인-황인경, '수도권 관광객 동해-울진-울릉도...</t>
+  </si>
+  <si>
+    <t>2월 제주도 관광 10선....'힙한 제주스러움 뉴트로' 명소는?</t>
+  </si>
+  <si>
+    <t>제주도, 내국인 관광객 14년 만에 줄었다</t>
+  </si>
+  <si>
+    <t>제주도 영주산,비양도,제주민속촌 등 2월에 가볼만한 곳 10선 추천! 산방산과...</t>
+  </si>
+  <si>
+    <t>‘효리네 민박’ 제주도 관광 100만명 증가 효과</t>
+  </si>
+  <si>
+    <t>수려한 자연경관이 살아있는 '제주도', 다가오는 황금 설 연휴에 제주도 관광...</t>
+  </si>
+  <si>
+    <t>"제주도의 주인공은 관광객, 그 안에 도민은 없다"</t>
+  </si>
+  <si>
+    <t>씨커스, 제주도 관광지서 가상화폐 결제 지원</t>
+  </si>
+  <si>
+    <t>토러스증권 “롯데관광개발, 제주도 드림타워 카지노 사업 수혜”</t>
+  </si>
+  <si>
+    <t>제주도, 관광개발사업자에 하수도 원인자부담금 26.2% 인상</t>
+  </si>
+  <si>
+    <t>제주도 '무장애 관광도시'로 조성 10대정책 제안</t>
+  </si>
+  <si>
+    <t>황금돼지의 해, 제주도를 찾은 첫 국내외 관광객은?</t>
+  </si>
+  <si>
+    <t>제주도게스트하우스 '메르블루', 제주 구좌읍 동쪽여행 관광객들이 선택한 숙...</t>
+  </si>
+  <si>
+    <t>"제주도 관광객 불편신고건수, 1년 새 2배 증가"</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 1월 골프동호회 개최</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 새해 입도 관광객 맞이 환영행사 개최</t>
+  </si>
+  <si>
+    <t>제주도, 투자유치·관광개발 역점 추진…지역경제 활성화 기대</t>
+  </si>
+  <si>
+    <t>겨울 제주도 맛집 찾는 관광객을 사로잡은 ‘제주 오성’, 비결 공개</t>
+  </si>
+  <si>
+    <t>제주도 우수관광사업체 블루렌트카, 2019년 맞이 신차 특가 진행</t>
+  </si>
+  <si>
+    <t>[인사] 제주도관광협회</t>
+  </si>
+  <si>
+    <t>동해ㆍ울진ㆍ울릉도ㆍ제주도 ‘제2회 2019 국내관광 설명회’ 개최</t>
+  </si>
+  <si>
     <t>제주도관광협회, 새해 입도 관광객 맞이 환영행사</t>
   </si>
   <si>
-    <t>겨울 제주도 맛집 찾는 관광객을 사로잡은 ‘제주 오성’, 비결 공개</t>
-  </si>
-  <si>
-    <t>제주도 우수관광사업체 블루렌트카, 2019년 맞이 신차 특가 진행</t>
-  </si>
-  <si>
-    <t>[인사] 제주도관광협회</t>
-  </si>
-  <si>
     <t>제주도관광협회 새해 입도 관광객 맞이 환영행사</t>
   </si>
   <si>
-    <t>동해ㆍ울진ㆍ울릉도ㆍ제주도 ‘제2회 2019 국내관광 설명회’ 개최</t>
-  </si>
-  <si>
     <t>'관광지 된' 이효리♥︎이상순 부부, 제주도 집 결국 이사 결정까지 하게 된 ...</t>
   </si>
   <si>
+    <t>'효리네 민박' 방송에…제주도 관광객 100만명 더 늘었다</t>
+  </si>
+  <si>
     <t>JTBC '효리네민박' 이후 제주도 관광객 급증! 맛집과 카페 많은 애월해안도로...</t>
   </si>
   <si>
-    <t>'효리네 민박' 방송에…제주도 관광객 100만명 더 늘었다</t>
-  </si>
-  <si>
     <t>2019년 기해년 새해, 일출 명소에 관광객 북적…제주도 제외 전국서 해돋이 관...</t>
   </si>
   <si>
-    <t>제주도관광협회, 새해 입도 관광객 맞이 환영행사 &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 새해 입도 관광객 맞이 환영행사 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 제주도관광협회, 새해 입도 관광객 맞이 환영행사 기자명 문서현 기자 입력 2019.01.02 10:57 수정 2019.01.02 11:03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 제주도관광협회(회장 김영진)는 2019년 기해년(己亥年) 새해 첫날을 맞이해 제주를 방문하는 국내·외 관광객을 대상으로 입도 환영행사를 개최했다.1일 제주국제공항 제주연안여객터미널에서 건강과 행복을 기원하고 제주방문 감사의 마음을 담아 진행했다.제주공항 국내선을 이용해 새해 처음 제주에 입도한 김성주씨(서울시), 국제선 왕훈씨(중국)와 제주연안여객터미널 첫 입항객 김남희씨(광주광역시 광산구)에게 제주여행 상품권, 꽃다발 등의 기념품을 증정했다.새해 첫날 제주를 방문한 관광객과 도민들을 대상으로 환영현수막 게첩, 삼다수, 기념품(복주머니)를 제공하며 환영 메세지를 전달했다.특히 제주공항 국내선 도착 게이트에서 “기해년 새해 첫 행운을 잡아라” 이벤트존을 운영하여 관광객들이 직접 참여하여 각종 게임 등을 즐기며 제주 특산품을 받아가는 즐거운 분위기가 이어졌다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+    <t>제주도, 설연휴 2∼6일 관광종합상황실 운영 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 설연휴 2∼6일 관광종합상황실 운영 등록 2019.01.30 10:17:44 작게 크게 【제주=뉴시스】지난 설 연휴 명절을 지내기 위해 제주공항 비행기 트랩을 내리는 귀성객들.(뉴시스 DB)【제주=뉴시스】강정만 기자 =  제주특별자치도는 설 연휴 동안 도·행정시·유관기관 합동 관광대책 종합상황실을 운영한다고 29일 밝혔다. 이 종합상황실은 설 연휴인 2월2일부터 6일까지  제주국제공항과 여객터미널, 제주관광정보센터 등에서 귀성객과 관광객을 대상으로 관광불편신고 접수·처리 등 각종 편의를 제공한다. 종합상황실 내 종합상황반에서는 내·외국인 등 관광객 내도현황 파악, 관광지 불편신고 사항 접수·처리, 기상이변 시 공항 체류객 종합관리 등을 추진한다. 제주관광공사에서 운영하는 관광정보센터(콜센터 740-6000)에서는 관광객 교통편·숙박, 관광지 안내와 관광불편사항을 접수·처리하고, 각 행정시(관광진흥과)에서도 이를 위해 관광지 안내소별로 상황반을 운영한다. 도 관광협회에서는 제주국제공항과 제주항여객터미널 2부두와 7부두를 중심으로 관광객 불편사항 해소를 지원한다. 특히 관광객 맞이 친절·질서 분위기 조성을 위해 2월2일 공항과 여객터미널에서 환영 행사를 연다. 도 카지노감독과를 중심으로 운영하는 카지노반은 카지노업체 현장 지도·감독, 이용객 불편사항신고 접수·처리 등을 추진한다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 울산시교육청, 사립유치원 42개원 종합 지도·점검 창원시, 150억 규모 동읍 농촌중심지 활성화 사업 추진 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 전통·불교문화 관광 자원화 나서 &lt; 불교 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 11:37 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 전통·불교문화 관광 자원화 나서 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 불교 제주도, 전통·불교문화 관광 자원화 나서 기자명 황민호 기자 입력 2019.01.30 10:14 수정 2019.01.30 10:27 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ‘2019년 템플스테이 운영 지원 사업’ 추진 제주 관음사제주도가 우리 전통문화와 불교문화의 관광 자원화에 적극 나섭니다.도는 도민과 국내·외 관광객을 대상으로 ‘2019년 템플스테이 운영 지원 사업’을 추진할 계획이라고 오늘(30일) 밝혔습니다.템플스테이는 내·외국인 모두에게 큰 호응을 얻고 있는 문화관광 상품으로 운영 사찰은 한국불교문화사업단이 심사를 통해 지정하며 제주도에는 관음사, 약천사, 백제사, 금룡사가 지정돼 운영되고 있습니다.지난해(2018년) 도내 템플스테이 참여자는 7천800여명이며 참선과 명상 등 다양한 체험의 기회를 가졌습니다.특히, 관음사는 다문화가정 대상 프로그램과 도박 중독, 우울증관리 프로그램 등 특화프로그램을, 약천사는 외국인 대상 템플스테이 프로그램을 운영했습니다.제주도 조상범 문화체육대외협력국장은 “제주의 수려한 자연 환경 속에서 자연과 동화돼 심리적 안정감을 찾아 자신의 삶을 되돌아보는 시간을 갖게 되기를 기대 한다”고 전했습니다. 황민호 기자 acemino@bbsi.co.kr 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 [코로나19]신규확진 1만명대...오늘부터 개량백신 접종 시작 최신뉴스 국제 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 전국 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 지방사 인터뷰 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 사회 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 경제 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 포토뉴스 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 3 무주 일가족 사상사고...보일러 배기관 막혀 4 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 7 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 8 은해사 창건 1213주년, 해인사 창건 1220주년.....개산 기념 문화 행사 풍성 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>롯데관광개발, 제주도 리조트에 카지노 확장 이전 금지 추진에 약세 : 서울경제 주 메뉴 바로가기 본문내용 바로가기 시그널 디센터 라이프점프 서울경제TV 미주한국일보 서울경제골프 전종목시세 e-Paper 구독안내 마이페이지 로그인 이전 다음 전체메뉴 검색 전체메뉴 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 서경 TV·방송 영화 가요 포토 검색 닫기 검색 #송현동 부지, 시민 품으로 #취득세 쇼크 #가장 쎈 독감 온다 #여가부 폐지 #벼랑 끝 이준석 #눈 먼 돈 된 태양광 대출 #실외 마스크 전면 해제 #노벨상 #김정은 딸 김주애 #어썸머니 닫기 전체서비스 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 카드뉴스 서경스타 TV·방송 영화 가요 포토 회사소개 회사소개 CEO 인사말 서울경제가 걸어온 길 행사 및 시상 약도 및 연락처 업무문의 구독안내 광고안내 이용안내 개인정보취급방침 이용약관 청소년 보호정책 고충처리인 제보 이메일 뉴스레터 텔레그램 뉴스채널 소식 공지사항 이벤트 알립니다 스페셜 컨텐츠 All Headline Awesome Money 기자채널 이슈 연재 e-Paper 뉴스아카이브 전체기사 스타즈 클럽 백상경제연구원 아웃링크 서경골프 이달의과학기술인상 서울포럼 존경받는 기업·기업인 대상 구독 l Subscription 구독신청 이용약관과 개인정보취급방침을 읽었으며, 이에 동의합니다. (필수) 이메일을 통한 서울경제의 서비스 및 이벤트 정보 수신에 동의합니다. (선택) 팝업창 닫기 공유하기 facebook twitter kakao email 복사 이메일보내기 종목·투자전략 urlhttps://www.sedaily.com/NewsView/1VE84UCHVN 보내는 사람 받는 사람 ※ 여러명에게 보낼 경우 콤마(,)로 구분하세요. 확인 취소 홈 증권 종목·투자전략 롯데관광개발, 제주도 리조트에 카지노 확장 이전 금지 추진에 약세 입력2019-01-29 09:48:35 수정 2019.01.29 09:48:35 박경훈 기자 facebook 공유 twitter kakao email 복사 뉴스듣기 가 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 기사저장 저장된기사목록 기사프린트 제주도에서 롯데관광개발(032350) 재무분석차트영역상세보기이 중국 기업과 함께 짓고 있는 리조트 내 카지노의 확장 이전을 사실상 막는 입법이 추진되고 있다는 소식에 이 회사 주가가 29일 장 초반 하락세를 나타내고 있다. 이날 오전 9시 46분 기준 유가증권시장에서 롯데관광개발은 전날보다 6.03% 떨어진 1만4,800원에 거래되고 있다. 최근 더불어민주당 소속 제주도의회 이상봉 의원은 기존 카지노를 매입한 뒤 장소를 이전하려면 신규 허가와 동일한 절차를 거치도록 하는 ‘제주도 카지노업 관리 및 감독에 관한 조례’ 일부 개정안을 발의했다. 개정안이 통과되면 롯데관광개발과 중국 뤼디그룹이 제주시 노형동에 건설 중인 제주 최고층 빌딩 드림타워에 카지노가 들어올 수 없게 된다. 롯데관광개발은 지난해 파라다이스그룹에서 인수한 ‘파라다이스 제주롯데 카지노’를 드림타워로 확장 이전하는 방안을 추진 중이다. /박경훈기자 socool@sedaily.com &lt; 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지 &gt; ※ 본 사이트에 게재되는 정보는 오류 및 지연이 있을 수 있으며, 그 이용에 따르는 책임은 이용자 본인에게 있습니다. 구독 박경훈 기자 건설부동산부 socool@sedaily.com 인구감소지역 창업·이전 기업에 세금 감면…지방세 관계법률 정부안 확정 지하철·버스 통합 정기권 도입…정부 혁신 전략·과제 발표 기자채널로 이동 오늘의 핫토픽 # 송현동 부지, 시민 품으로 # 취득세 쇼크 # 가장 쎈 독감 온다 # 여가부 폐지 # 벼랑 끝 이준석 오늘의 이슈 #이준석 추가 징계 나경원 "국민의힘 지지층 7주 연속 1등은 나" #국감 초점 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #감사원 '文 서면조사' 논란 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #마약민국 묻지마 폭행하고 "마약 했다"는 남성…경찰이 돌려보냈다 #尹, 비속어 논란 홍준표, 또 유승민 직격…"배신 경력 있는 사람은 가라" 이시간 주요 뉴스 영상 뉴스 '컴백홈' 지금의 날 만들어 준 고향, 구수하고 정겹다 도로 위 '모세의 기적'…경찰·택시기사, 환자 생명 구했다 한미, 北 대응 사격중 미사일 오발…강릉서 '폭발 화재' 넷상 초밀착 웹드라마 '밈의 생활화', 손우민♥김도림 커플 싸움 직관…결말은? "인도네시아 축구장 난동으로 최소 129명 사망"…무슨일 코스피 코스닥 10.11 12:39:01 개인 외국인 기관 (억원) 10.11 12:39:01 개인 외국인 기관 (억원) 인기 포토 뉴진스 목격! 든든하軍 심장에 한 발! 양조위의 화양연화 샤넬♥제니 저항하라 부산 찾은 스타들 프로스트! 오늘의 연재 한입뉴스 CU×미래에셋페이 ‘편털’ 이벤트 진짜 ‘편털’에 조기종료[한입뉴스] 주식 초고수는 지금 저가 매수 나선 개미들…삼성전자·NAVER 줍줍 뒷북비즈 4C 덫에 걸린 K반도체…“국가대항전서 낙오될 수도” [뒷북비즈] 인더뷰 대리·과장부터 임원까지 '3조' 채용 시장 노리는 리멤버[인더뷰] 서경 디지털 38개의 포토 든든하軍 23개의 포토 양조위의 화양연화 18개의 포토 저항하라 76개의 포토 샤넬♥제니 EBITDA 마진율 회계기준에 따른 차이를 제거한 현금기준 실질 수익성 판단 지표로, 매출을 통해 어느정도의 현금이익을 창출 했는가를 의미한다. 즉, EBITDA마진율은 매출액 대비 현금창출능력으로 볼 수 있으며, 일반적으로 마진율이 높을수록 기업의 수익성이 좋다고 판단할 수 있다. EBITDA마진율 = (EBITDA ÷ 매출액)*100% 1. 코주부 코인, 주식, 부동산 투자 정보만 쏙쏙! 코주부와 성투해요. 2. 지구 나랑 상관 있는 친환경 뉴스. 매주 화·목요일에 만나요. 3. Daily Brief 매일 아침, 데일리브리프가 핵심 경제 뉴스를 전해드립니다. 4. 연재기사 서울경제의 모든 연재기사를 메일함에서 받아보실 수 있습니다. 5. 스타기자 서울경제의 스타기자를 구독하세요. 기사가 출고되면 이메일로 알려드려요. 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 오피니언 사설 사내칼럼 사외칼럼 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 사회 사회일반 전국 사회이슈 피플 영상 · 포토 영상 포토 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 서경스타 TV·방송 영화 가요 포토 공지 [알립니다] 서울경제 개인정보취급방침 변경 공지 회사소개 광고안내 개인정보취급방침 이용약관 청소년보호정책 제보 고충처리인 초판보기 전체기사 뉴스아카이브 관련사이트 미주한국일보 서울경제TV 시그널 레이디스클래식 디센터 라이프점프 더폴리틱스 서울경제골프 백상경제연구원 이달의 과학기술인상 서울포럼 주소 : 서울특별시 종로구 율곡로 6 트윈트리타워 B동 14~16층 대표전화 : 02) 724-8600 상호 : 서울경제신문사업자번호 : 208-81-10310대표자 : 이종환등록번호 : 서울 가 00224등록일자 : 1988.05.13발행 ·편집인 : 이종환 인터넷신문 등록번호 : 서울 아04065 등록일자 : 2016.04.26발행일자 : 2016.04.01 서울경제의 모든 콘텐트는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright ⓒ Sedaily, All right reserved 서울경제를 팔로우하세요! 서울경제신문 텔레그램 뉴스채널 서울경제 어썸머니 모바일 버전 보기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, ‘도쿄 이벤트 박람회’서 제주 콘텐츠 홍보 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회, ‘도쿄 이벤트 박람회’서 제주 콘텐츠 홍보 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, ‘도쿄 이벤트 박람회’서 제주 콘텐츠 홍보 문유미 기자 승인 2019.01.30 15:37 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 김영진)는 지난 29일부터 30일까지 이틀간 일본에서 열린 ‘2019 도쿄 이벤트 박람회’에 참가해 제주 지능형관광콘텐츠의 우수성을 홍보했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>롯데관광개발 “광화문시대 접고 본사 제주도로 이전” - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 롯데관광개발 “광화문시대 접고 본사 제주도로 이전” 파이낸셜뉴스입력 2019.01.27 11:16수정 2019.01.27 20:09 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 관련종목▶롯데관광개발(032350) 제주드림타워 복합리조트 연내 완공, 6월 이전 추진 신규 일자리 3100개 신규 창출…1등 향토기업 다짐 국내외 관광객 유치, 지역경제 활성화 큰 활력 기대 제주드림타워 복합리조트 건설 현장 [제주=좌승훈 기자] 연내 제주드림타워 복합리조트 완공을 앞둔 롯데관광개발㈜(회장 김기병)이 서울 광화문시대를 접고 본사를 오는 6월부터 순차적으로 제주도로 이전할 계획이어서 국내외 관광객 유치에 큰 활력이 될 것으로 기대된다. 롯데관광개발은 국내 대표 종합관광기업이다. 1971년 5월 설립된 것으로 여행사업(롯데관광)과 부동산 개발·빌딩관리 사업(동화투자개발), 면세점사업(동화면세점), 교육사업(미림학원), 국내 유일의 여성 관악 오케스트라단인 K.W.W.O(Korea Women's Wind Orchestra) 등을 운용하고 있다. 최대주주는 김기병 회장이며, 보유 지분은 43.55%다. 특히 롯데관광개발이 중국 최대 부동산개발사인 녹지그룹과 공동 개발하고 있는 제주드림타워는 국내 유일의 도심형 복합리조트다. 63빌딩의 1.8배 규모이며, 제주도내에서 가장 높은 38층 건물로 지역 랜드마크로 자리잡게 된다. 제주 드림타워 복합리조트는 제주의 명동으로 불리는 제주시 노형오거리에 있다. 이곳에는 호텔 750실, 호텔레지던스 850실, 제주 최대 규모의 K-Fashion 쇼핑몰과 11개 레스토랑과 바, 전망대, 외국인 전용 카지노 등이 들어선다. 리조트 내 모든 객실은 지상 62m 이상에 있어 한라산과 제주바다를 볼 수 있다. 제주드림타워 복합리조트의 호텔 브랜드는 그랜드 하얏트 제주(GRAND HYATT JEJU)로 확정됐다. 하얏트그룹은 전 세계 55개국에서 약 750개 호텔을 운영하고 있으며 그랜드 하얏트를 포함해 14개의 프리미엄 호텔 브랜드를 갖고 있다. 1600개 올 스위트 객실과 11개 레스토랑을 보유한 그랜드 하얏트 제주는 세계에서 두 번째로 큰 하얏트 호텔이다. 제주드림타워 복합리조트 연내 완공과 함께, 롯데관광개발의 본사 제주 이전으로 국내외 관광객 유치 활성화에도 크게 기여할 것으로 기대된다. 김기병 회장은 "제주드림타워 복합리조트가 본격 가동되면, 제주에서 평균 임금이 가장 높은 고급 일자리 3100개가 신규로 창출될 것"이라며 "본사를 제주로 옮겨 세금도 가장 많이 내는 1등 향토기업이 되겠다"고 포부를 밝힌 바 있다. 한편 롯데관광개발은 최근 한국노동조합총연맹이 제기한 하도급업체 공사비 체불 문제에 대해 “기성(旣成)이 확정된 공사대금 중 미지급분 325억원이 전액 해결돼 사실상 드림타워와 관련된 임금 체불건은 모두 완결됐다”고 밝혔다. 또 “현재 제주드림타워 복합리조트는 외장과 인테리어 공사를 포함한 모든 공정의 공사가 원활하게 진행되는 가운데 코어 부분은 28층, 객실 부분은 23층까지 위용을 갖춰가는 등 연말 완공 목표를 향해 순항하고 있다"고 덧붙였다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>[S포토] 제주글로벌여행 이태화, '아름다운 제주도 소개~' (2019 국내관광 설명회) :: 스타데일리뉴스 PR Newswire 엔터테인먼트 방송 음악 영화 공연 스포츠 패션 · 뷰티 패션 뷰티 문화 · 생활 문화 생활 피플 피플 파워 인터뷰 사회 사회 경제 엔터 이코노미 칼럼 칼럼 만평 만평 카드뉴스 카드뉴스 HD포토 HD포토 스타데일리뉴스TV 스타데일리뉴스TV 한류뉴스 한류뉴스 페이스북 트위터 RSS 기사검색 처음으로로그인회원가입 전체기사 홈 &gt; 뉴스 &gt; 포토 · 동영상 &gt; 포토 ☞모바일에서 기사보기 [S포토] 제주글로벌여행 이태화, '아름다운 제주도 소개~' (2019 국내관광 설명회) 2019년 01월 29일 (화) 14:07:42 백진욱 기자 news@stardailynews.co.kr ▲ 제주글로벌여행 이태화 실장 ⓒ스타데일리뉴스 [스타데일리뉴스=백진욱 기자] 29일 오전 서울 마포구 베스트웨스턴 프리미어 서울가든호텔에서 한국관광협동조합 주최로 제2회 '2019 국내관광설명회'가 열렸다. 이날 행사에 참석한 제주글로벌여행 이태화 실장이 제주도 관광자원을 소개하고 있다. 한편 '2019 국내관광설명회'는 강원도 동해시, 경상북도 울진군, 한국드림관광, 제주글로벌 여행이 지역 관광명소와 관광인프라 등을 소개했다. ☞모바일에서 기사보기 기사제보 및 보도자료 news@stardailynews.co.kr copyrightⓒ스타데일리뉴스.무단 전재 &amp; 재배포 금지 스타데일리뉴스 사진 영상 외 [기사콘텐츠 구매] 바로가기 스마트 폰에서 만나는 스타데일리뉴스 [모바일 페이지] 바로가기 종합인터넷신문 스타데일리뉴스 SNS [페이스북] [페이스북 페이지][트위터][네이버 포스트] 바로가기 ⓒ 스타데일리뉴스(http://www.stardailynews.co.kr) 무단전재 및 재배포금지 | 저작권문의 [단독] 배우 장기용, 육군 창작 [단독] 백봉기, 본인 사칭 투자 [단독] 가수 권인하, 유튜브 채 [단독] 조은숙, 오늘(24일) [단독] 곽도원, 영화 '소방관' [단독] 강하늘♥이태은, 2년째 [단독] '이동준 아들' 이일민, [단독] '거리의 시인' 노현태 PREV NEXT [단독] 배우 장기용, 육군 창작뮤지컬 ‘메이사의 노래’로 3월 전격 컴백 PREV NEXT [S포토] NCT DREAM, '마무으리' (2022 더팩트 뮤직 어워즈) [S포토] 왕빛나, '빛나' (삼남매가 용감하게) [S영상] 엔믹스(NMIXX) '엔트워프(ENTWURF)' 컴백 쇼케이스 무대 기사공유하기 페이스북 트위터 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버 밴드 네이버 블로그 네이버 폴라 핀터레스트 URL 복사 x 신문사소개 | 콘텐츠 구매 | 기사제보 | 광고안내 | 제휴안내 | 개인정보취급방침 | 청소년보호정책 | 이메일주소무단수집거부 법인명 : 주식회사 뉴스미디어그룹 | 등록일자:2011.1.18 | 제호:스타데일리뉴스 | 등록번호 : 서울 아1478 | 사업자등록번호 : 120-87-63595 발행인 : 황정현 | 편집인 : 황정현 | 청소년보호책임자 : 박병준 | 서울특별시 서초구 내곡동 341-10 4층 409호 | Tel : 02-552-5088 | Fax : 02-6442-9234 Copyright ⓒ 스타데일리뉴스. All rights reserved. mail to 보도자료 수신처 news@stardailynews.co.kr</t>
+  </si>
+  <si>
+    <t>설 연휴, 후회없는 '제주도 관광' 원한다면?…관광지도 참고해 특별한 여행코스 알아보자 &lt; 사회 &lt; 기사본문 - 내외경제TV 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 기사제보 2022-10-11 12:18 (화) facebook naver post 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 설 연휴, 후회없는 '제주도 관광' 원한다면?…관광지도 참고해 특별한 여행코스 알아보자 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 설 연휴, 후회없는 '제주도 관광' 원한다면?…관광지도 참고해 특별한 여행코스 알아보자 기자명 김지은 기자 입력 2019.01.29 15:00 수정 2020.03.12 00:46 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 얼마남지 않은 설 연휴 유럽여행이나 동남아여행 등의 해외여행을 미리 예약하지 못해 많이 실망하였다면 국내여행으로 아쉬움을 달래보자. 부산이나 순천, 평창 등의 국내여행지 중 가장 으뜸으로 꼽히는 제주도는 해외 휴양지 못지않은 아름다운 자연과 추운 겨울에도 따스함을 간직해 국민뿐 아니라 외국인들 사이에서도 많이 찾고 있는 관광명소다. 뿐만 아니라, 제주도는 교통이 편리하고 관광지도 많기 때문에 맛집 및 놀거리, 볼거리가 충분하며 단기 또는 장기 여행에도 적합하다. 이에 제주도 관광을 계획 중이라면 제주도 관광명소를 한 눈에 볼 수 있는 제주도 관광지도를 미리 준비하여 다가오는 황금 설 연휴 즐겁게 보내보자. ▲외국인도 많이 찾은 제주도 가볼만한곳 '섭지코지' (사진=ⓒGetty Images Bank) 제주도 관광지 '섭지코지'제주도 관광명소로 가장 유명해 제주도 여행 시 빼놓을 수 없는 필수 코스인 섭지코지는 일출과 일몰 모두 감상하기에 좋은 명소로 꼽힌다. 섭지코지는 제주도의 대표적인 관광명소 답게 접근성이 매우 뛰어나 방문하기 쉬울뿐더러 성산일출봉과 우도 사이로 떠오르는 일출이 명물이다. '바다에서 튀어나온 좁은 곶'을 뜻하는 섭지코지답게 사방이 모두 바다로 둘러싸여 있어탁 트인 겨울바다의 절경을 원 없이 감상할 수 있다. 때문에 가족 혹은 친구, 연인과 제주도 여행 가볼만한곳으로 계속해서 사랑받고 있다. ▲제주도 가볼만한곳으로 동아시아 최대 온실 크기를 자랑하는 '여미지 식물원' (사진=ⓒGetty Images Bank)제주도 관광지 '제주 여미지 식물원'제주도에서 깨끗한 공기를 담으며 천천히 산책하고 싶다면 제주 여미지 식물원을 추천한다. 제주 여미지 식물원은 부모님과 함께 여행하기 좋은 코스로 동아시아 최대 온실 크기를 자랑한다. 때문에 화목류, 짚은 향기를 자랑하는 아름다운 꽃을 비롯해 전 세계 각지의 특이한 식물들을 감상할 수 있다. '아름다운 땅'이라는 뜻을 가진 '여미지' 식물원에서 이국적이고 다양한 정원을 감상해보자.▲환상적인 풍경을 자랑하는 제주도 가볼만한곳 '제주 한림공원' (사진=ⓒGetty Images Bank)제주도 관광지 '제주 한림공원'제주 한림공원은 제주도 관광지 중 제주의 푸른 하늘과 어울리고, 우리에게 잘 알려진 제주 관광명소인 천연기념물 협재굴과 쌍요굴을 볼 수 있는 곳이다. 1971년 제암 송봉규 선생이 황무지 모래밭에 야자수 씨앗을 뿌려 완성된 한림공원은 야자수 길가를 비롯해 9가지 콘셉트의 환상적인 풍경을 자랑한다. 다양한 식물들을 공원처럼 꾸며놓아 협재굴과 쌍용굴을 둘러보며 부모님이나 아이들과 함께 힐링하고 싶다면 제주 한림공원을 추천한다. 김지은 기자 nbtvrepoteam@gmail.com 다른기사 보기 저작권자 © 내외경제TV 무단전재 및 재배포 금지 당신만 안 본 뉴스 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" '나는 솔로' 9기 옥순 인스타, 수영복 패션에 정숙 "언니, 너무 섹시" '나는 솔로' 9기 정숙 인스타 "이렇게 단아하니 협찬 모델" '나는 솔로' 9기 영자 인스타, "선 넘네" 악플에 경고장? '나는 솔로' 옥순 완전체 결성되나 "7, 10기 옥순님들 들어와" '나는 솔로' 10기 영숙 인스타, 꿀피부 자랑…골프 협찬 모델 예고? '나는 솔로' 10기 현숙 인스타 "포00에서 뭐 하나" 협찬 모델 예고 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 '부모찬스' 미성년 임대인···최근 5년간 임대소득만 2548억 원 최신뉴스 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 포토뉴스 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 인기뉴스 1 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 2 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 3 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 4 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 5 '부모찬스' 미성년 임대인···최근 5년간 임대소득만 2548억 원 6 최근 3년간 불량 요소수 최소 300만 리터 이상 유통…일 평균사용량의 5배 7 식칼·망치로 위협당하는 국민연금 직원들...고독사·자살 현장 목격도 8 [UP! START] 에스테이트클라우드, 우대빵으로 부동산 중개시장 변혁 예고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 rss 매체정보 서울특별시 금천구 가산디지털1로 168, C동 12층 1209-1호(가산동, 우림라이온스밸리) 대표전화 : 070-4252-5497 청소년보호책임자 : 정동진 법인명 : (주)내외경제미디어 제호 : 내외경제TV 등록번호 : 서울 아 02225 등록일 : 2012-08-06 발행일 : 2012-08-06 발행·편집인 : 정동진 내외경제TV 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 내외경제TV. All rights reserved. mail to msn06s@nbntv.co.kr 위로 전체메뉴 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광분야에 774억원 투입…“명품 휴양도시 만들 것” :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 관광분야에 774억원 투입…“명품 휴양도시 만들 것” 등록 2019.01.21 13:28:17 작게 크게 【제주=뉴시스】제주국제공항 입국장에 들어서는 중국인 관광객. (사진=뉴시스DB) 【제주=뉴시스】배상철 기자 = 제주도는 2019년도 관광분야 정책 목표를 ‘도민과 함께 질적 성장을 통한 명품 휴양도시 제주 실현’으로 정하고 5대 핵심과제에 774억원을 투입할 계획이라고 21일 밝혔다. 5대 핵심 과제는 ▲지역관광 활성화를 통한 공정관광 기반 조성 ▲개별여행 트렌드에 맞춘 관광산업 체질개선 ▲세계인이 선호하는 MICE 목적지 조성 ▲오프라인에서 온라인 마케팅으로 정책전환 및 시장다변화 ▲도민의 관광정보 공유를 위한 관광통계 DB 구축 등이다. 이를 위해 지역관광 벤처사업을 발굴하는 한편 창업을 지원해 관광 산업에서의 일자리 창출을 도모한다. 개별 여행객 수용을 위해선 제주관광정보센터의 상담 언어를 8개 국어로 확대하고 다양한 욕구에 맞는 콘텐츠를 개발하는 데 힘쓸 예정이다. 전시산업 육성을 위해 음식과 낚시 등 특화 전시상품을 개발하고 도내 사업체의 경쟁력을 강화하기 위한 지원책을 마련하고 관련 인센티브도 지원한다는 방침이다. 마케팅 정책은 기존 오프라인 위주에서 온라인 중심으로 전환한다는 구상이다. 소셜네트워크를 주 채널로 소통하는 개별 여행객을 겨냥해 전방위의 온라인 홍보에 집중하고 해외시장 다면화 및 내국인 관광객 유치도 강화한다. 양질의 관광정보 제공을 위해 빅데이터에 기반한 관광 통계 데이터베이스도 구축한다. 양기철 도 관광국장은 “관광객으로 인한 도민 체감도 및 관광객 만족도를 높여 제주관광의 경쟁력을 높여 나가겠다”며 “이를 위해 제주관광진흥 전략회의를 종합 컨트롤타워 기능으로 정례화할 것”이라고 말했다. bsc@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 울산시교육청, 사립유치원 42개원 종합 지도·점검 창원시, 150억 규모 동읍 농촌중심지 활성화 사업 추진 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>[한국관광 100선] 봄이 가장 빨리 오는 제주도 여행지 9곳-디지틀조선일보(디조닷컴 dizzo.com) 국내여행 [한국관광 100선] 봄이 가장 빨리 오는 제주도 여행지 9곳 박해진 hi21hi@chosun.com 기사입력 2019.01.28 16:21 "주말에 나들이 갈만한 곳은?""커피를 좋아하면 '강릉 커피거리'는 어때?"여행이나 나들이 계획을 잡을 때 가장 먼저 고려하는 것은 장소이다. 장소를 정할 때는 예산과 시간을 고려하거나 친구·지인이 추천한 곳을 잡기도 한다. 이번 여행 장소를 잡을 때는 문화체육관광부와 한국관광공사가 선정한 '한국인이 꼭 가봐야 할 관광지 100선'을 참고하면 어떨까? '한국 관광지 100선'은 수도권 26곳, 강원권 13곳, 충청권 10곳, 전라권 14곳, 경상권 28곳, 제주권 9곳이다. 먼저 봄이 가장 빨리 찾아오는 곳 제주도의 관광지 9곳을 만나보자. 한국관광 100선 - 제주편 01CNN도 인정한 해돋이 명소 '성산일출봉' ▲ www.picpen.chosun.com 회원 'Newspaper'님 사진(위 사진), '제주리뷰'님 사진 제주에서 일출 명소는 어디일까? 한라산, 섭지코지, 광치기해변 등 여러 곳이 있지만 '성산일출봉'을 빼놓을 수 없다. 매년 연말·연초에 성산일출축제도 열린다. 해돋이를 위한 정상 정복이 아니더라도 분화구가 있는 꼭대기에 오르면 푸른 바다와 제주를 한눈에 내려다 볼 수 있다. 미국 뉴스 전문채널인 CNN의 웹사이트에서 공개한 '한국에서 가봐야 할 아름다운 50곳' 중 첫 번째로 꼽은 곳이 성산일출봉이다. 매표소에서 전망대까지는 걸어서 25분 걸린다. ☞  [관련 기사] CNN &lt;50 beautiful places to visit in South Korea&gt; 보기* 성산일출봉 온라인 사이트 바로가기 * 운영 시간 : 3월~9월: 07:00~20:00 (매표 마감 19:00)10월~2월: 07:30~19:00 (매표 마감 17:50)* 이용 요금: 성인 2000원 / 청소년, 군인, 어린이 1000원* 위치 : 제주 서귀포시 성산읍 성산리 1 02유채꽃 활짝 필 때 가고 싶은 '섭지코지' ▲ www.picpen.chosun.com 회원 '無頂'님 사진, '山길나그네'님 사진 유채꽃 활짝 피는 봄에 제주를 간다면, 섭지코지를 가보자. 3월~4월 언덕 위 하얀 등대에 서면 노란 유채꽃과 푸른 바다, 해안절벽이 어우러져 장관을 이룬다. 배우 송혜교와 이병헌이 주인공으로 나온 드라마 '올인'의 촬영지이기도 하다. 풍경만 보고 떠나기 아쉽다면, 세계적인 건축가 '안도 타다오'가 설계한 '글라스하우스'와 '유민미술관'을 가는 것도 좋다. 글라스하우스 1층은 지포(Zippo) 뮤지엄이고, 2층은 레스토랑이다. 유민미술관에서는 유리공예 전시를 볼 수 있다.* 섭지코지 온라인 사이트 바로 가기* 운영시간 : 연중 무휴* 이용 요금 : 무료* 위치 : 제주 서귀포시 성산읍 고성리 03버스투어도, 캠핑도 가능한 '우도' ▲ www.picpen.chosun.com 회원 'Newspaper'님 사진(위 사진), '제주리뷰'님 사진 성산일출봉의 남쪽 바다에 떠 있는 우도는 여의도 3배 크기로 '작은 제주도'라 불린다. 성산포에서 3.8km, 여객선으로 15분이면 닿는 거리에 있다. 우도에선 버스 투어를 하거나 자전거·미니전기차를 빌려 둘러봐도 좋다. 섬에서 가장 높은 봉우리인 '우도봉'에 오르면 사방이 탁 트여 마을 곳곳을 볼 수 있고 바다 건너 성산일출봉과 한라산까지 눈에 들어온다. 우도의 바다 산호해수욕장, 검멀레해수욕장, 하고수동해수욕장도 빼놓을 수 없다. 산호해수욕장 근처에는 한국에선 유일한 '빨간머리 앤' 전용 전시관이 있다. 캠핑을 즐기는 당신이라면 '비양도'를 추천한다. 이곳에 캠핑장이 있어 파도 소리 들으며 잠들고 깰 수 있다. 또한 해질녘 노을 진 바다는 일몰 명소이다.* 우도 소개 온라인 사이트 바로 가기 * 우도 가는 배 운항 시간 및 요금 안내 바로 가기* 위치 : 제주 제주시 우도면 04타임머신 없이도 과거로 갈 수 있는 '성읍민속마을' ▲ 성읍마을 온라인 사이트 제주 성읍민속마을의 초가집은 특별하다. 제주 전통 초가집엔 마을 주민이 실제로 살고 있다. 초가집 돌담을 따라 마을을 천천히 걸으면 도심의 답답함을 날려 버릴 수 있다. 성읍마을의 '오메기술 체험장'에서는 제주 전통술인 오메기술 빚기와 시음도 가능하다.(오메기술 전통 체험장의 이용 시간은 오전 10시~오후 5시) 성읍민속마을을 구경만 하고 떠나기 아쉽다면 여행객을 위한 초가집에서 하룻밤 묵을 수도 있다. 일일 숙박비는 5만원부터 8만원까지(2인기준) 다양하다. * 성읍마을 소개 온라인 사이트 보기 * 초가집 소개 및 숙박 예약 사이트 보기 * 입장료 무료* 관람시간 연중무휴* 위치 : 제주 서귀포시 표선면 성읍정의현로 19 05볼거리 먹을거리 다 있는 '매일올레 시장' ▲ www.picpen.chosun.com 회원 '제주리뷰'님 사진 눈과 입이 즐거운 곳이 시장이다. 오메기떡, 흑돼지꼬치, 귤하르방 빵, 한라봉주스… 이름만 들어도 알 수 있는 제주의 먹거리들이다. 서귀포에서 제일 큰 시장인 '서귀포 매일올레 시장'에 가면 맛볼 수 있다. 시장에서 배를 채웠다면 근처 천지연폭포, 정방폭포, 이중섭거리 등 유명 관광지도 둘러 보면 좋다.* 서귀포매일올레시장 온라인 사이트 보기   * 운영 시간 : 07:00 ~ 21:00 (연중 무휴)* 위치 : 제주특별자치도 서귀포시 중정로73번길 22 06대한민국서 하늘과 가장 가까운 곳, '한라산' ▲ www.picpen.chosun.com 회원 '북한산'님 사진(사진 위), '트레발변'님 사진 '은하수를 잡을 수 있을 만큼 높은 산'이란 뜻의 한라산(漢拏山)은 높이 1,947m로 대한민국에서 가장 높은 산이다. 2002년에는 유네스코 생물권보전지역으로 지정됐고, 2007년에는 유네스코 세계자연유산으로 등재되었다.한라산을 오를 수 있는 등산로가 여럿 있지만, 정상인 백록담까지 갈 수 있는 길은 '성판악 탐방로'와 '관음사 탐방로'이다. 동절기와 하절기에 따라 입산 마감 시간이 다르므로, 한라산국립 공원 온라인 사이트에서 미리 확인하자.* 한라산 탐방로 자세한 안내 보기* 한라산 탐방로별 입산·하산 시간 보기  * 입장료 무료* 위치 : 제주 서귀포시 상효동 산220-1 07산림욕으로 스트레스를 풀 수 있는 '비자림' ▲ www.picpen.chosun.com 회원 '뽕'님 사진 제주에 처음 생긴 산림욕장인 '바자림'은 500∼800년생 비자나무 2,800여 그루가 있다. 비자림에 들어서면 푸른 나무와 은은한 나무향으로 기분까지 좋아진다. 청정 자연에서 휴식을 취하며 정신적 스트레스와 육체적 피로를 풀 수 있다. 날이 맑으면 맑은 대로, 비가 오면 비가 오는 대로 좋은 곳이 '바자림'이다. 비 오는 날엔 나무향이 더 진해져 숲의 향기를 만끽할 수 있다.* 비자림 소개 온라인 사이트 보기 * 운영 시간 : 09:00~18:00* 입장료 : 일반 3,000원 / 청소년·어린이 1,500원* 위치 : 제주 제주시 구좌읍 비자숲길 55 08가족과 함께 걷기 좋은 '절물자연 휴양림' ▲ www.picpen.chosun.com 회원 '無頂'님 사진 절물자연 휴양림은 면적 300만㎡에 수령 30년 이상의 삼나무들이 울창한 숲을 이루고 있다. 하늘로 쭉쭉 뻗은 삼나무와 새소리를 들으면 마음까지 편안해진다. 휴양림 내에는 산책로, 약수터, 폭포, 연못, 잔디광장, 목공예체험장, 운동시설, 어린이 놀이시설, 숙박시설 등이 갖춰져 있어 가족 모두가 즐기기에도 좋다. 휴양림 가운데 자리 잡은 절물오름 정상에 오르면 제주시와 한라산을 볼 수 있다.* 절물자연 휴양림 소개 온라인 사이트 보기 * 입장시간 : 07:00~18:00 (숙박이용 시간 입실 15:00~퇴실 12:00)* 이용요금 : 어른 1,000원 / 청소년 600원 / 어린이 300원* 위치 : 제주시 명림로 584 09뚜벅뚜벅 도보여행가를 위한 '올레길' ▲ www.picpen.chosun.com 회원 '선화'님 사진(사진 위), '자청 권정식'님 사진 '올레'는 제주 방언으로 차가 다니지 않는 길로 도로에서 집 앞까지 이어지는 작은 길을 뜻한다. 해안길, 산길, 들길 등 걷기 좋을 산책로로  '올레 1코스'부터 '올레 21코스'까지 제주 일주가 가능하다. 두 발로 바닷가도 걷고, 오름(산봉우리의 제주 방언)도 오르며 제주의 구석구석을 느낄 수 있다. 도보여행이 아니더라도, 숙소에서 가까운 올레길을 걷는 것도 좋다. * 제주 올레길 온라인 사이트 보기 * 위치: 제주 전역 박해진 hi21hi@chosun.com 관련뉴스 [한국관광 100선] 마음이 통하는 사람과 함께 떠나는 서울 여행지 5곳 [한국관광 100선] 바다를 즐기는 색다른 방법, '부산' 여행지 6곳 [한국관광 100선] 하늘이 내린 정원과 산이 있는 전라남도 여행지 9곳 [한국관광 100선] 보석 같은 경상북도 여행지 4곳 [한국관광 100선] 색다른 경험, 그 섬에 가고 싶다! 경상남도 여행지 4곳 [한국관광 100선] 새벽부터 밤까지 매력 뽐내는 경상남도 여행지 5곳 [한국관광 100선] 야(夜)한 여정의 매력, 대구 여행지 4곳 [한국관광 100선] '산 중턱', '강 한가운데' 있어 특별한 강원도 여행지 6곳 [한국관광 100선] 마음 속에 저장하고픈 강원도 여행지 7곳 [한국관광 100선] '바다의 기적' '멋진 야경' 볼 수 있는 경기도 여행지 6곳 [한국관광 100선] 하늘이 주신 자연에 인간의 손을 더한 경기도 여행지 6곳 [한국관광 100선] 해가 져도 멋진 인천 여행지 4곳 [한국관광 100선] 과거로 시간여행 가능한 전라북도 여행지 5곳 [한국관광 100선] 천혜의 자연 품은 충청도 여행지 10곳 [한국관광 100선] 산, 바다 그리고 먹거리까지 놓칠 수 없는 경상북도 여행지 5곳 [한국관광 100선] 우리의 밤은 어느 때보다 아름다워… 서울 여행지 5곳 최신뉴스 Copyright ⓒ 디지틀조선일보&amp;dizzo.com</t>
+  </si>
+  <si>
+    <t>[S포토] 김종문-이정환-KCM-권태인-황인경, '수도권 관광객 동해-울진-울릉도-제주도 많이 찾아주세요~' (2019 국내관광 설명회) :: 스타데일리뉴스 PR Newswire 엔터테인먼트 방송 음악 영화 공연 스포츠 패션 · 뷰티 패션 뷰티 문화 · 생활 문화 생활 피플 피플 파워 인터뷰 사회 사회 경제 엔터 이코노미 칼럼 칼럼 만평 만평 카드뉴스 카드뉴스 HD포토 HD포토 스타데일리뉴스TV 스타데일리뉴스TV 한류뉴스 한류뉴스 페이스북 트위터 RSS 기사검색 처음으로로그인회원가입 전체기사 홈 &gt; 뉴스 &gt; 포토 · 동영상 &gt; 포토 ☞모바일에서 기사보기 [S포토] 김종문-이정환-KCM-권태인-황인경, '수도권 관광객 동해-울진-울릉도-제주도 많이 찾아주세요~' (2019 국내관광 설명회) 2019년 01월 29일 (화) 13:55:44 백진욱 기자 news@stardailynews.co.kr ▲ 김종문-이정환-KCM-권태인-황인경 ⓒ스타데일리뉴스 [스타데일리뉴스=백진욱 기자] 29일 오전 서울 마포구 베스트웨스턴 프리미어 서울가든호텔에서 한국관광협동조합 주최로 제2회 '2019 국내관광설명회'가 열렸다. 이날 행사에 참석한 김종문-이정환-KCM-권태인-황인경이 포토타임을 가지고 있다. 한편 '2019 국내관광설명회'는 강원도 동해시, 경상북도 울진군, 한국드림관광, 제주글로벌 여행이 지역 관광명소와 관광인프라 등을 소개했다. ☞모바일에서 기사보기 기사제보 및 보도자료 news@stardailynews.co.kr copyrightⓒ스타데일리뉴스.무단 전재 &amp; 재배포 금지 스타데일리뉴스 사진 영상 외 [기사콘텐츠 구매] 바로가기 스마트 폰에서 만나는 스타데일리뉴스 [모바일 페이지] 바로가기 종합인터넷신문 스타데일리뉴스 SNS [페이스북] [페이스북 페이지][트위터][네이버 포스트] 바로가기 ⓒ 스타데일리뉴스(http://www.stardailynews.co.kr) 무단전재 및 재배포금지 | 저작권문의 [단독] 배우 장기용, 육군 창작 [단독] 백봉기, 본인 사칭 투자 [단독] 가수 권인하, 유튜브 채 [단독] 조은숙, 오늘(24일) [단독] 곽도원, 영화 '소방관' [단독] 강하늘♥이태은, 2년째 [단독] '이동준 아들' 이일민, [단독] '거리의 시인' 노현태 PREV NEXT [단독] 배우 장기용, 육군 창작뮤지컬 ‘메이사의 노래’로 3월 전격 컴백 PREV NEXT [S포토] NCT DREAM, '마무으리' (2022 더팩트 뮤직 어워즈) [S포토] 왕빛나, '빛나' (삼남매가 용감하게) [S영상] 엔믹스(NMIXX) '엔트워프(ENTWURF)' 컴백 쇼케이스 무대 기사공유하기 페이스북 트위터 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버 밴드 네이버 블로그 네이버 폴라 핀터레스트 URL 복사 x 신문사소개 | 콘텐츠 구매 | 기사제보 | 광고안내 | 제휴안내 | 개인정보취급방침 | 청소년보호정책 | 이메일주소무단수집거부 법인명 : 주식회사 뉴스미디어그룹 | 등록일자:2011.1.18 | 제호:스타데일리뉴스 | 등록번호 : 서울 아1478 | 사업자등록번호 : 120-87-63595 발행인 : 황정현 | 편집인 : 황정현 | 청소년보호책임자 : 박병준 | 서울특별시 서초구 내곡동 341-10 4층 409호 | Tel : 02-552-5088 | Fax : 02-6442-9234 Copyright ⓒ 스타데일리뉴스. All rights reserved. mail to 보도자료 수신처 news@stardailynews.co.kr</t>
+  </si>
+  <si>
+    <t>2월 제주도 관광 10선....'힙한 제주스러움 뉴트로' 명소는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 2월 제주도 관광 10선....'힙한 제주스러움 뉴트로' 명소는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 2월 제주도 관광 10선....'힙한 제주스러움 뉴트로' 명소는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2019.01.21 11:55 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사, '힙한 제주스러움 뉴트로 제주를 찾아서'발표 제주관광공사(사장 박홍배)는 21일 ‘힙한 제주스러움 뉴트로 뉴트로(New-tro) 제주를 찾아서’라는 테마를 주제로 관광지, 자연, 체험, 축제, 음식 등 다양한 분야에서 놓치지 말아야 할 2019년 2월 제주 관광 추천 10선을 발표했다. 1. 제주에서 ‘까치까치 설날’을 흥겹게 맞는 법– 제주민속촌&amp;제주목 관아 ‘설맞이 민속행사’ 설 연휴, 가족과 추억을 쌓고 전통의 의미를 되새길만한 곳을 찾는다면? 표선면의 제주민속촌에서는 설 연휴를 민속 행사로 채운다. 관아 행사장에서 윷놀이, 제기차기 등 민속놀이를 즐기고 가오리연, 대나무 바람개비를 만들 수 있다는 사실. 풍물패의 신명나는 리듬에 어깨가 절로 들썩이고 가슴은 쿵쿵 울릴 것이다. 이밖에도 지름떡, 달고나 만들기 등 입을 즐겁게 할 체험도 준비되어 있다. 한복을 입고 가면 50% 가격에 입장할 수 있으니 참고하시라. 설을 맞아 제주목 관아는 그야말로 놀이마당으로 변신한다. 굴렁쇠, 투호, 널뛰기 등 민속놀이를 자유롭게 체험하도록 도구를 비치할 예정. 새해에는 가족과 시간을 더 많이 보내리라 다짐했다면 음력 1월1일을 그 시작점으로 삼으면 어떨까. 웃으며 즐길 활동이 제주 곳곳에 준비되어 있으니 말이다.▸ 제주민속촌 : 서귀포시 표선면 민속해안로 631-34▸ 제주목 관아 : 제주 제주시 관덕로 252. 감성 온기로 다시금 채워진 나의 어린 시절– 제주 폐교의 변신 제주에는 천진난만한 아이들의 웃음소리로 북적거려야 할 학교가 잠들어있다. 그런데 얼마 전부터 학교에 깔린 짙은 적막이 걷히고, 핫플레이스로 거듭나고 있다는 희소식이 곳곳에서 들린다. 제주의 색을 더하고, 넓은 공간을 활용해 카페와 갤러리 등으로 변신을 꾀한 제주의 폐교들. 한림읍에 위치한 명월국민학교는 최대한 옛날 학교의 모습을 살려 카페와 소품샵으로 단장했다. 넓은 운동장이 있어 애견 동반이 가능하고, 아이들도 안전하게 뛰어놓기 좋다. 야외 테이블이 있는 학교 주변은 산책 삼아 걷다보면 어릴 적 추억이 새록새록 떠오른다. 표선면의 자연사랑미술관은 가시리초등학교를 활용한 사진갤러리. 사진가 서재철의 작품을 통해 제주의 사계절을 언제든 감상할 수 있고, 학교의 옛 모습을 담은 사진 전시로 폐교의 역사까지 품어내 더욱 의미가 깊다.▸ 명월국민학교 : 제주시 한림읍 명월로 48▸ 포토갤러리 자연사랑미술관 : 서귀포시 표선면 1920-23. 흑과 백이 빚어낸 추억의 한 조각– 흑백사진관 in 제주 빛나는 인생의 한 순간을 오래도록 기억하고 싶은 마음. 그 예쁜 소망을 담아 우리는 사진을 남긴다. 선명한 색감의 사진을 스마트폰에서 쉽게 확인할 수 있는 요즘. 잊혀져가던 흑백사진이 사람들의 감성을 터치하고 있다. 특히 제주의 풍경은 굳이 색감을 넣지 않아도 제주만의 느낌이 묻어나기에 흑백사진에 생기가 돈다. 동문시장에 위치한 선우스타일은 인물과 표정에 집중한 단정하고 깨끗한 흑백사진 스타일이 특징. 곱은달사진관과 보통청춘기록실 청춘사진관에서는 각 사진관의 개성이 듬뿍 담긴 제주스러운 배경 앞에서 흑백사진을 남길 수 있다. 세 곳 모두 예약제로 진행되니 사전 연락이 필수. 제주에서 인생의 한 페이지를 특별하게 기록하고 싶다면 흑백사진 전문 사진관으로 향해보는 건 어떨까. 제주와 아날로그의 만남은 꽤나 매력적이다.▸ 선우스타일 : 제주시 동문로 16 동문시장 2층▸ 곱은달사진관 : 제주시 조천읍 곱은달길 24▸ 보통청춘기록실 청춘사진관 : 제주시 한림읍 귀덕 11길 14. 응답하라, 그 시절! 타임슬립 제주– 선녀와 나무꾼&amp;두맹이 골목 레트로, 즉 복고 열풍이 불고 있다. 경험해보지 못한 과거를 느끼고픈 열망과 지나온 세월에 대한 향수가 시너지 효과를 나타나고 있는 것. 아직까지 먼 옛날부터 근현대의 모습을 그대로 간직하고 있는 제주는 레트로를 경험하기에 최고의 공간이 아닐까. 복고 테마파크, 선녀와 나무꾼은 2,30년 전 동네와 학교 그리고 제주의 전통마을을 구현해 관광객을 과거로 데려간다. 곳곳에 포토존이 마련되어 있고, 대부분 실내 전시이기 때문에 아이들과 어르신들이 추위를 피하면서 즐기기에 좋다. 개장시간은 오전 8시 반부터 일몰시까지. 원도심 두맹이 골목으로 가면 좀 더 살아있는 제주의 과거 모습을 경험할 수 있다. 제주를 꼭 닮은 벽화로 채워진 주택 골목 사이사이를 걷다보면 그 시절 제주로 타임슬립한 느낌. 더불어 나만의 촬영 포인트를 찾아보는 재미도 쏠쏠하다.▸ 선녀와 나무꾼 : 제주시 조천읍 선교로 267▸ 두맹이골목 : 제주시 일도2동 두맹이골목5. 아득한 계단 너머 천국으로 닿는 산– 영주산 누구나 천국을 꿈꾼다. 천국에 어떤 의미를 부여하느냐에 따라 천국은 어디에나 있고, 어디에도 없는 법. 일상에서 잠시 벗어나 느끼는 작은 천국이야 말로 고된 생을 살아가는 큰 힘이 된다. 서귀포시 표선에 자리한 영주산에서도 천국을 만날 수 있다. 신선이 살았던 산이라는 뜻의 영주산은 해발 326m의 기생화산. 생각보다 경사가 있어 숨이 가빠오지만 산 중턱에 다다르면 발 아래로 동쪽 제주의 풍광이 펼쳐진다. 드넓은 대지 위에 솟아있는 수많은 오름과 멀리서도 빛을 내는 푸른 바다가 보이고, 등 뒤로는 한라산이 그 위용을 뽐낸다. 3분의 2정도 올랐을 때 영주산의 하이라이트, 천국의 계단이 시작된다. 끝없이 이어지는 계단을 포기하지 않고 올라보자. 포기하고 싶을 때쯤 도착하는 정상에서 맛보는 천국은 꿀같이 달콤할 것이다.▸ 영주산 : 서귀포시 표선면 성읍1리 영주산6. 켜켜이 쌓여 다시 태어난 제주의 시공간– 대정현역사자료전시관&amp;반석탕 길고 깊은 세월의 흔적이 묻은 건물은 그 자체로 살아있는 공간이다. 동네의 발자취를 몸에 새긴 오래된 건물이 주는 아늑함을 떠올려보면 자연스레 입가엔 웃음이 번진다. 제주민의 일상 속에 숨 쉬던 건물이었으나 이제는 잊혀져가는 두 건물이 마을의 역사와 제주만의 감성으로 채워져 다시 태어났다. 남제주 구 대정면사무소를 활용한 ‘대정현역사자료전시관’은 대정현의 역사와 현재를 기록하고 미래를 꿈꾸는 전시로 꾸며졌고, 40여 년간 남성마을주민의 피로를 풀어준 대중목욕탕 ‘반석탕’은 젊은 문화기획자의 손길을 거쳐 반석탕과 남성마을의 역사를 감각적으로 풀어낸 문화공간이 되었다. 대정현역사자료전시관은 월요일 휴무를 제외한 9:00~17:00까지 상시 운영하고, 반석탕은 현재 진행 중인 전시의 경우 2월 6일까지 관람가능한데, 그 이후에는 다른 전시로 꾸며질 예정이다. ▸ 대정현역사자료전시관 : 서귀포시 대정읍 상모리 3862-1▸ 반석탕 : 제주시 남성로 158-67. 12폭 병풍화보다 아름다운 섬마을– 비양도 협재 앞바다에서 손 뻗으면 닿을만한 거리에 자리한 비양도. 조용한 어촌마을이지만 구석구석을 살펴보면 병풍화 못지않은 유려한 풍경들로 가득 차있다. 이곳에선 제주의 드넓은 바다가 시야에서 멀어지지 않는다. 해안가를 따라 둘러진 길에서는 새들의 안식처가 되는 코끼리 바위와 영험하다는 애기 업은 돌을 만난다. 섬의 뒤편의 우리나라 유일의 염습지인 팔랑못은 이 섬에 신비로움을 더하고, 찰랑거리는 얕은 연못 위로 유유히 나는 새를 보노라면 저절로 안온해진다. 마지막으로 비양봉에 올라 파노라마처럼 펼쳐진 협재해변과 한라산을 감상해보자. 제주 속의 섬을 가장 빠르게 만날 수 있는 아름다운 섬마을은 한림항도선대합실에서 약 20여분이면 도착한다. 병풍 속 한 장면의 주인공이 되고 싶다면, 비양도행 배에 몸을 실어보는 건 어떨까.▸ 비양도 : 제주시 한림읍 한림해안로 1478. 눈으로, 입으로 즐기는 뉴트로– 제주 빈티지 식당 빛바랜 간판, 촌스러운 상호를 단 조그만 가게의 문을 열면 무엇이 있을까. 허름한 외관과는 정반대의 트렌디한 음식을 먹을 수 있는 곳, 제주의 옛날 가게의 외관을 그대로 살린 빈티지 식당이다. 눈으로는 제주의 아날로그 감성을 느끼고, 입으로는 스타일리쉬한 요리를 맛볼 수 있어 뉴트로한 제주를 만나는 최적의 장소로 떠오르고 있다. 제주 곳곳에서 빈티지 식당이 성업 중인데 소바만 판매하는 ‘오로라식품’은 제주침시술소 간판을, 함박스테이크가 유명한 ‘부자식당’은 같은 이름의 간판을 그대로 사용하고 있고, 수제버거 전문 ‘양가형제’는 청수리 평화동 회관을 리모델링했다. 각 식당의 운영시간과 휴무일을 꼭 확인하고 찾아가는 것이 좋다. 제주의 옛 모습을 간직하면서 새로운 시도가 빛나는 제주의 빈티지 식당. 업그레이드 된 제주스러움을 꼭 만나보자.▸ 오로라식품(제주침시술소바) : 제주시 동광로 12▸ 부자식당 : 제주시 서광로 5길 9▸ 양가형제 : 제주시 한경면 청수동 8길 39. 톡톡! 봄을 깨우는 꽃망울이 번진다– 매화축제 기세 높던 한겨울 추위가 사그라지면, 나뭇가지에 쌓인 새하얀 눈을 헤치고 꽃망울이 톡톡 피어난다. 향기로운 내음과 핑크빛이 도는 꽃잎으로 잠들어 있는 봄의 정령을 깨워 제주에 온기를 가져오라고 손짓하는 꽃, 매화. 겨울과 봄 사이, 제주에 봄의 색을 입히는 홍매화와 백매화의 매력은 2월에서 3월초에 절정을 이룬다. 서귀포에 위치한 예래생태체험관과 걸매생태공원에서 만개한 매화를 만날 수 있다. 산책길 양옆으로 피어난 꽃들이 추위를 무릅쓰고 찾아온 당신을 반긴다. 예래생태체험관과 걸매생태공원은 입장료를 받지 않아 부담 없이 제주 매화의 아름다움을 충분히 즐길 수 있다. 화려하진 않지만 어떤 꽃보다 부지런한 매화를 보려면 서둘러 제주를 찾아오길. ▸ 예래생태체험관 : 서귀포시 예래로 213 예래생태체험관▸ 걸매생태공원 : 서귀포시 서흥로 4-4210. 겨울 보양간식, 꿩엿으로 에너지 충전!– 꿩엿 먹을 것이 부족했던 옛 제주에서 꿩은 단백질을 보충할 수 있는 귀한 식재료였다. 날이 쌀쌀해지기 시작하면 제주 어머니들은 꿩엿을 고았는데, 이 시기에 꿩의 살이 통통하게 오르기 때문이었다. 꿩엿은 전통적인 조청을 만드는 방법과 같은데, 조청을 만들어 삶은 꿩고기를 넣으면 완성된다. 조청의 달달한 맛과 입안에서 씹히는 쫄깃한 꿩고기의 식감이 어우러져 익숙하면서도 색다른 맛이 입안에 번진다. 겨울철 기력을 보하고, 감기를 예방하는데 효과가 있는 꿩엿. 면역력이 약한 노인과 어린이의 보양식으로도 좋다. 꿩엿을 제조하는 공장이나 마을에서 꿩엿 만들기 체험을 진행하고 꿩엿도 판매하고 있으니, 관심이 있다면 방문해보는 것을 추천한다. 오랜 제주민의 소울푸드 꿩엿, 그 명맥이 오래도록 이어지길 바란다.제주관광공사 관계자는 "2019년 2월 윗세대에게는 추억을 아랫세대에게는 신선함을 줄 수 제주의 옛것을 테마로 기획했다"며 "옛것이 주는 촌스러움과 따듯함으로 제주를 새롭게 즐겨보시라"고 말했다. 제주관광공사의 2019년 2월 추천 관광 10선은 제주관광정보 사이트(www.visitjeju.net)에서 자세히 볼 수 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>[스마트여행] 영주산,비양도,제주민속촌 등 2월에 가볼만한 곳으로 추천 - 스포츠Q(큐) × 전체기사 스포츠일반 전체 아마스포츠 농구 배구 골프 e스포츠‧게임 당구 테니스 격투기 경마·승마 미식축구 장애인스포츠 야구 전체 프로야구 해외야구 아마야구 리틀야구 축구 전체 K리그 대표팀 해외축구 아마축구 스포츠산업 전체 스포츠포럼 스포츠경영 스포츠정책 엔터테인먼트 전체 영화·드라마 가요 예능 방송·TV 문화일반 핫&amp;쿨Q 라이프 전체 식품‧음료 패션‧뷰티 유통‧물류 가전‧리빙 교육‧육아 의료‧건강 여행‧레저 금융·부동산 IT·자동차 대회·행사 산업일반 뉴스&amp;이슈 전체 시사Q 이코노Q 토픽세상 오피니언 포토 전체 야구 축구 스포츠일반 스포츠산업 컬처Q 글쓰는 사진기자 tvQ 전체 민기홍의 머니뭐니 랭킹 겸 차트 혹은 밸붕방지톡 UPDATED. 2022-10-11 12:44 (화) 기사검색 검색 스포츠 아마스포츠 농구 배구 골프 테니스 미식축구 격투기 장애인스포츠 e스포츠 경마 당구 야구 프로야구 해외야구 아마야구 리틀야구 축구 K리그 대표팀 해외축구 아마축구 스포츠산업 스포츠포럼 스포츠경영 스포츠정책 엔터 영화·드라마 가요 예능 방송·TV 문화일반 핫&amp;쿨Q 라이프 식품‧음료 패션‧뷰티 유통‧물류 가전‧리빙 교육‧육아 의료‧건강 재테크·주거 대회·행사 뉴스&amp;이슈 시사Q 이코노Q 토픽세상 오피니언 포토 야구 축구 스포츠일반 스포츠산업 컬처Q 글쓰는 사진기자 로그인 회원가입 RSS SNS 트위터 페이스북 블로그 스포츠Q 포스트 카카오스토리 플러스친구 매거진SQ 포스트 유튜브 네이버TV 이전 다음 [스마트여행] 영주산,비양도,제주민속촌 등 2월에 가볼만한 곳으로 추천 페이스북 트위터 카카오스토리 기사공유하기 상태바 HOME 라이프 [스마트여행] 영주산,비양도,제주민속촌 등 2월에 가볼만한 곳으로 추천 이두영 기자 승인 2019.01.30 01:37 댓글 0 기사공유하기 페이스북 트위터 카카오스토리 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [스포츠Q(큐) 이두영 기자] 제주도는 지금 동백꽃이 만발한 가운데 매화꽃,유채꽃이 한창 개화하고 있다. 제주관광공사는봄꽃 명소 외에 잘 알려지지 않은 자연경관과 갤러리 등 ‘2월에 놓치지 말아야 할 제주 관광 10선’을 추천했다.해당 장소들과 근처의 가볼만한 곳들을 살펴본다.먼저 음력 1월1일 설날에 갈만한 여행지로 제주민속촌과 제주목 관아가 꼽혔다. 토속적 가옥형태와 전통적 일상문화를 엿볼 수 있는 곳으로 각종 민속놀이를 즐길 수 있다. 협재해수욕장과 비양도.표선해수욕장에 인접해 있어서 경관이 확 트여 있다. 제주해비치리조트 등 숙소를 끼고 있다. 포구쪽에 흑돼지제주정, 다솔돌솥밥 등 맛집들이 있다. 근처에는 요즘 동백꽃 군락지로 관광객 발길이 끊이지 않는 제주허브동산도 있다.여기서 한라산 중턱으로 20분만 가면 제주성읍민속마을이 나온다. 바로 근처에는 해발 323.3m로 많이 높지는 않지만 주변 전망이 대단히 웅장한 영주산이 있다.이번에 추천한 10곳은 대부분 사라져가는 옛 모습을 엿볼 수 있는 곳으로 채워졌다. 카페와 소품가게로 새로 태어난 제주시 한림읍의 명월초등학교 등 폐교들도 명함을 내민다. 표선면 가시리초등학교도 포토갤러리 ‘자연사랑미술관’으로 바뀌어 제주 홍보 여행지 목록에 올랐다. 영주산. [사진=뉴시스]선우스타일, 곱은달사진관, 보통청춘기록실 청춘사진관 등 흑백사진을 찍어주는 곳들도 특별한 추억을 주는 곳으로 눈길을 끈다. 건물 겉모습부터 개성이 넘친다. 또 달동네,주막,허름한 골목 등의 분위기를 풍기는 제주시 조천읍의 ‘선녀와 나무꾼’, 제주시 동문로 16길의 ‘두맹이골목’도 아련한 옛 시절이 떠오르게 하는 복고 여행지로 관심을 끈다.동사무소를 개조한 서귀포시 대정읍의 대정현 역사자료 전시관에도 돌, 바람, 여자가 많은 섬 제주의 한적한 어촌마을의 옛 모습을 품고 있다.비양도는 우도,마라도와 함께 제주도에서 꼭 가봐야 할 섬으로 꼽힌다. 한림항에서 배로 20분 만에 갈 수 있는 비양도는 화산섬의 특징을 보여주는 다채로운 지질형태가 나타나 있고, 해변을 따라 아름다운 걷기코스가 마련돼 있고 염습지인 팔랑못까지 있다.매화꽃을 보려면 서귀포 소재 예래생태체험관과 걸매생태공원도 가볼만하다. 3월초까지 홍매화와 백매화가 핀다. 휴애리자연생활공원, 노리매매화공원, 한림공원 등 기존 매화명소들도 매화축제가 열려 관광객이 몰린다. 예래생태마을은 중문관광단지에 인접해 있어서 접근성도 편리하다. 여미지식물원,테디베어뮤지엄, 중문색달해수욕장, 천제연폭포, 대포주상절리, 아프리카박물관을 근방에서 둘러볼 수 있다. 봄날 유채꽃이 흐드러지게 피는 산방산 자락과 기암이 엿가락처럼 형성된 용머리해안과 하멜장선전시관, 송악산도 최대 30여분 거리에 있다. 환상적인 해안 드라이브 코스인 송악산 근처 해안도로에서는 형제섬 일출을 감상할 수 있다. Tag #제주도가볼만한곳 #2월가볼만한곳 #제주도카페 #제주도맛집 #산방산 #매화축제 #제주유채꽃 #비양도 #2월여행지추천 #제주리조트 도전과 열정, 위로와 영감 그리고 스포츠큐(Q) 저작권자 © 스포츠Q(큐) 무단전재 및 재배포 금지 트윗하기 이두영 기자 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기 인기기사 채팅 만남 男에게 수면제 먹이고 코인 빼돌린 간큰 女 대통령의 관심사, 토르티야 가격 내년 건강보험료율 인상, 직장인 얼마나 더 내나 지구는 대체 얼마나 아픈 걸까? 기후변화 심각 'TV 필수'라 생각하는 국민 비율 얼마나 될까 관련기사 [스마트여행]자장매로 유명한 경남 양산시 통도사 홍매화 개화해 가볼만한 곳으로 유혹! [스마트여행]경기도 이천서경들마을, 농촌체험 휴양마을로 꼽혀 겨울여행지로 눈길 끌어 [스마트여행]전남 담양 메타세콰이어길, 요즘 사진촬영 여행지로 굿! [스마트여행]제주도 서귀포 휴애리자연생활공원 2월8일~3월3일 매화축제 열려 [스마트여행]태백산 등산코스와 천제단에는 인파로 북적이고 당골광장은 노래소리 시끌시끌 설날 가족과 가볼만한 곳은 사천바다케이블카, 하동최참판댁, 통영미륵산의 루지 등, 봉명산 다솔사 야생차밭과 남일대해변 코끼리바위, 선진리성 벚꽃도 추천할만한 여행지 시기는 겨울인데 마음은 봄! 울산 태화강의 울산생태관광센터와 십리대밭, 롯데월드 어드벤처, 남이섬겨울축제,인제빙어축제, 남당항 새조개축제 등 볼거리·먹거리·체험거리 풍성 서귀포시 제주허브동산과 충남 태안 천리포수목원 등 설날에 가볼만한 곳 황금돼지 보물찾기 등 이벤트 풍성! 경기도 용인 한국민속촌과 대전오월드 등 가족나들이명소도 볼거리 늘려 지금은 매화꽃이 개화하는 시기, 전남 순천 매곡동 탐매마을·금둔사와 양산 통도사 등에 납매·홍매화가 활짝 피어 사진가들에게 가볼만한 곳으로 눈길 경남 통영미륵도 달아길, 동백꽃 개화시기에 가볼만한 곳 엄지척! 고급휴양 숙박지인 클럽 이에스리조트, 통영국제음악당, 루지, 동피랑벽화마을 등 추천여행지와 맛집도 즐비 스파월드와 호텔 등을 갖춘 덕구온천리조트와 한화리조트 백암온천은 2월의 경북 울진 가볼만한 곳으로 으뜸! 죽변항 대게 맛집과 후포항도 동해안 여행코스에 추천할만 주요기사 이대호라서... 이런 은퇴식 또 있을까? 이대호라서... 이런 은퇴식 또 있을까? '오재원 땡큐', 두산 팬들 간절한 소망 [SQ현장] '오재원 땡큐', 두산 팬들 간절한 소망 [SQ현장] 최국희 감독이 밝힌 '인생은 아름다워' 비하인드 [인터뷰Q] 최국희 감독이 밝힌 '인생은 아름다워' 비하인드 [인터뷰Q] 김광현+노경은, 완벽했던 신구조화 [랜더스 우승] 김광현+노경은, 완벽했던 신구조화 [랜더스 우승] [랜더스 우승] 정용진+인천팬, 퍼펙트 2022 [랜더스 우승] 정용진+인천팬, 퍼펙트 2022 염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 포토Q [포토Q] 최진혁 '논란 후 첫 공식 석상' [포토Q] 최진혁 '논란 후 첫 공식 석상' [포토Q] 영탁 '품격있는 인사' [포토Q] 영탁 '품격있는 인사' [포토Q] 나나 '시선 끄는 타투' [포토Q] 나나 '시선 끄는 타투' [포토Q] 영탁 '댄스 퍼포먼스 슬쩍' [포토Q] 영탁 '댄스 퍼포먼스 슬쩍' [포토Q] 아이유 '여의도 뜬 국힙원탑' [포토Q] 아이유 '여의도 뜬 국힙원탑' [포토Q] 드라마 '옷소매 붉은 끝동' 함께한 이월연 PD-정지인 감독 [포토Q] 드라마 '옷소매 붉은 끝동' 함께한 이월연 PD-정지인 감독 오늘의 인기기사 스포츠 연예 라이프 1'피겨왕자' 차준환, 챌린저 쇼트 1위보다 기쁜 건? 21픽 신호진, OK금융이 그리는 미래는? [프로배구] 3넥슨 '블루 아카이브' 아트북, 일본 아마존 도서 흥행 돌풍 4엔씨소프트, '2022 글로벌 리크루팅' 온라인 설명회 진행 5넷마블, 2022년 3분기 '대한민국 100대 브랜드' 선정 6컴투스 '서머너즈 워' 뉴욕 코믹콘 출격, 글로벌 팬 만난다 7위메이드 'Gold Club' 온보딩 계약, 위믹스 생태계 확장 본격화 8위메이드, 단기 금융거래 플랫폼 CLST 전략적 시드 투자 9우즈 오버랩 김주형, 얼마나 대단하냐면 [PGA] 10컴투스 글로벌 콘텐츠문학상, 선호 장르-대세 주제는? 1염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 2정직한후보2, 김진태 도지사 글 때문에 '난감' 3남궁민 '치트키', 천원짜리 변호사 OTT도 1위! 4지코, '새삥'으로 음원차트 독주 시작 [Q차트] 5세븐틴 이어 블랙핑크도… '더블 밀리언셀러' 시대 온다 6평창·강릉 다음은 부천? 사라지는 지역영화제 7예능·드라마 공세…디즈니+, 구독자 몰이 나선다 8당당함 무기로, '4세대 걸그룹' 10월 컴백 대전 9'경북대 축제 논란' 아이브, 전말 밝혀졌다 10"안 할 이유 없었다" 김혜수는 왜 '슈룹'을 택했을까 [SQ현장] 1광양 아파트 분양, 용강지구 푸르지오 센터파크 2슈퍼주니어 이특·신동, 쿠팡라이브 출연…제품 개발 참여까지 3롯데건설, 지능형 스마트 계측기술 개발한다 4CJ올리브영 '즐거운 동행', K뷰티 유망주 찾는다 5"미래성장동력 육성" 콜마그룹, 2500억원 투자 펀드 참여 6배스킨라빈스 플래그십 스토어, 부산행 7식품업계 트렌드, 가심비 잡는 프리미엄화 8교원그룹 '데모데이' 성료, 유망 스타트업 8곳 소개 9'백해무익' 담배, 태워서 발생하는 문제점은? 10BBQ, 오클라호마 진출... 미국 20번째 주 최신뉴스 작은 아씨들→글리치, 워맨스 릴레이ing 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 [포토Q] 인사말 전하는 이기훈 회장 [포토Q] 파퀴아오-DK YOO 매치 성사시킨 이건애 대표 [포토Q] 파퀴아오-DK YOO 매치 성사시킨 이건애 대표 [포토Q] 디케이 유 '훈남 무술가' [포토Q] 디케이 유 '훈남 무술가' [포토Q] 파퀴아오 '여유 넘치는 필리핀 영웅' [포토Q] 파퀴아오 '여유 넘치는 필리핀 영웅' 포토뉴스 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 회사소개 취재요청 독자투고 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 금천구 서부샛길 606 (대성디폴리스지식산업센터) A-1702호 대표전화 : 02-6959-1222 청소년보호책임자 : 이두영 법인명 : (주)와이케이미디어 제호 : 스포츠Q(큐) 등록번호 : 서울 아 02891 등록일 : 2013-11-18 발행일 : 2013-11-18 발행·편집인 : 이두영 스포츠Q(큐) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 스포츠Q(큐). All rights reserved. 기사문의 · 제보 : webmaster@sportsq.co.kr 광고문의 : biz@sportsq.co.kr 위로</t>
+  </si>
+  <si>
+    <t>‘효리네 민박’ 제주도 관광 100만명 증가 효과 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS ‘효리네 민박’ 제주도 관광 100만명 증가 효과 입력 : 2019-01-08 20:52:36 수정 : 2019-01-08 21:33:54 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 한국은행 제주본부 보고서 / 촬영지 애월읍 중심 명소 떠올라 / 생산유발 효과도 6200여억 달해 이효리·이상순 부부가 출연한 ‘효리네 민박’ 프로그램이 제주도 관광객을 100만명가량 늘리고 6000억여원의 생산유발 효과를 가져온 것으로 추산됐다. 8일 한국은행 제주본부의 ‘제주거주 유명인 방송 노출이 제주 관광에 미치는 영향’ 보고서에 따르면 2017년 3분기부터 2018년 2분기까지 ‘효리네 민박’ 방송 기간 중 제주 관광객은 100만7000명가량 증가했다. 이 기간 제주를 찾은 내국인 관광객의 7.4%에 해당하는 수치다. 특히 시즌 1 종료 직후인 2017년 4분기에는 34만명 늘어 방송 효과가 가장 크게 나타났다. ‘효리네 민박’에서 소개된 관광지에 대한 인지도도 크게 상승했다. ‘한담해안산책로’는 방송 직후 검색빈도가 급증했다. ‘궷물오름’과 ‘금오름’은 과거 인지도가 매우 낮았지만 방송 직후 검색빈도가 급증해 전국적으로 인지도가 크게 상승했다. 생산유발 효과는 6251억원으로 제주 연간 총산출액(30조3000억원, 2016년 기준)의 2.1%를 차지했다. 부가가치유발 효과는 3034억원으로 제주 연간 총부가가치(16조4000억원, 2017년 기준)의 1.8%, 취업유발 효과는 8693명으로 제주 연간 취업자(37만4000명, 2017년 기준)의 2.3% 수준이다. 업종별로는 음식업, 주점업, 숙박업에 미치는 영향이 가장 컸다. 주요 촬영지인 제주시 애월읍을 중심으로 서부지역이 방송에 자주 노출되고 인지도가 크게 상승하는 등 기존 동남부 중심의 제주관광영역이 서부지역으로도 확대했다는 평가를 받고 있다. 보고서는 ‘효리네 민박’이 제주에서의 일상생활과 예능이 결합된 스토리 텔링 방식에 기반해 제주에 대한 긍정적 이미지를 재창조하고 숨겨진 지역 명소를 발굴해 제주만의 독특한 관광적 가치를 성공적으로 부각했다고 평가했다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20190108003922 0101070100000 0 2019-01-08 21:35:4 2019-01-08 21:33:54 0 ‘효리네 민박’ 제주도 관광 100만명 증가 효과 세계일보 임성준 0028f8cc-c883-4815-9315-2c6633fff652 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>수려한 자연경관이 살아있는 '제주도', 다가오는 황금 설 연휴에 제주도 관광지를 추천한다면? &lt; 사회 &lt; 기사본문 - 내외경제TV 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 기사제보 2022-10-11 12:18 (화) facebook naver post 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 수려한 자연경관이 살아있는 '제주도', 다가오는 황금 설 연휴에 제주도 관광지를 추천한다면? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 수려한 자연경관이 살아있는 '제주도', 다가오는 황금 설 연휴에 제주도 관광지를 추천한다면? 기자명 김지은 기자 입력 2019.01.23 12:30 수정 2020.03.12 00:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲섭지코지는 국내뿐 아니라 해외에서도 많은 여행자들에게 유명한 여행 코스다.(사진=ⓒGetty Images Bank) 다가오는 황금 설 연휴를 위해 많은 사람들이 국내 여행 및 해외 여행에 많은 관심을 보이고 있다. 이 중 국내 NO.1 여행지이자 '효리네 민박'으로 더 유명해진 제주도 관광을 계획하고 있는 사람들도 많을 것이다. 제주는 부담 없이 떠날 수 있는 국내여행지로 해외 휴양지 못지않은 아름다운 자연과 추운 겨울에도 따스함을 간직해 국민뿐 아니라 외국인들 사이에서도 선호도가 높다. 또한 교통이 편리하고 관광지도 많기 때문에 놀거리와 볼거리가 충분하며 단기는 장기 여행에도 적합하다는 평이 많다. 이에 제주도 관광지를 살펴보며 4년마다 찾아오는 황금 설 연휴를 뜻깊게 보내보자.제주 감귤박물관 제주도하면 먼저 '감귤'이 떠오를 것이다. 이에 서귀포시 지역특화 작물인 감귤의 역사, 종류 등 세계감귤의 면면을 한눈에 볼 수 있는 '제주 감귤박물관'이 제주도 가볼만한곳 중 하나로 꼽힌다. 향긋한 귤빛 추억을 만들어 주는 공간인 제주 박물관은 제주를 대표하는 감귤을 주제로 제주감귤의 역사와 우수성을 알 수 있으며, 각종 감귤 체험이 가능한 체험형 이색 박물관이다. 따라서 맛있는 감귤과 함께 제주도의 로컬 감성을 있는 그대로 느끼기 좋은 곳이다.섭지코지이미 해외에서도 많은 여행자들에게 유명한 섭지코지는 일출과 일몰 모두 감상하기에 좋은 명소로 꼽힌다. 접근성이 매우 뛰어나기 때문에 방문하기 쉬울뿐더러 성산일출봉과 우도 사이로 떠오르는 일출이 명물이라 불린다. 일출을 놓쳤다고 해도 제주도 동쪽을 여행하다가 잠시 들러 일몰을 감상하기에 아주 좋은 곳이기도 하다. 본래, 섭지코지란 이름은 '바다에서 튀어나온 좁은 곶'을 말한다. 때문에 사방이 모두 바다로 둘러싸여 있다. 섭지코지는 바다 너머 성산일출봉과 우도를 볼 수 있고 탁 트인 겨울바다의 절경을 원 없이 감상할 수 있다는 점에서 많은 이들의 여행코스에 반드시 추가되는 곳이기도 하다. 특히, 섭지코지는 일몰시간에 마치 영화의 한 장면처럼 드라마틱한 풍경을 연출해 낸다고 한다. 따라서 이번 황금 설 연휴, 섭지코지에서 드라마 속 주인공이 되어 보는 건 어떨까. 제주 브릭캠퍼스박보검이 출현한 '효리네 민박2'에 나와 알려진 브릭캠퍼스는 최근 SBS '런닝맨'에서도 방영되면서 많은 젊은이들 사이에서 제주도 가볼만한곳으로 각광받고 있다. 아이들의 창의력 발달에 도움을 주는 '브릭캠퍼스'에서는 직접 작품을 만들고 전시하는 플레이존에서 창의적인 체험이 가능하다. 또한, 브릭 초상화, 캐릭터 모자이크, 브릭 자동차 경주, 브릭에 이름을 새겨 키링으로 간직할 수 있는 마이브릭코너 등 아이는 물론 어른들까지 동심의 세계로 빠질 수 있게 돕는다.뿐만 아니라, 세계 최초 브릭 아트 테마파크로 다양한 체험 공간은 물론 300여 점 이상의 브릭 작품 감상까지 할 수 있는 복합 전시 공간으로 500여 평의 야외 정원까지 갖추고 있다. 브릭캠퍼스는 모든 공간에서 사진 찍는 것이 가능하며, 제주도 자연을 배경으로 한 넓은 정원은 아름다운 호수와 브릭으로 만든 말풍선, 돌하루방 작품 등의 포토존이 곳곳에 마련되어 있어 사진찍기 좋은 명소 중 하나로도 손꼽힌다. 이러한 브릭캠퍼스 방문 시 네이버에서 티켓을 예약하면 20% 할인을 받을 수 있으니 참고하는 것이 좋다. 김지은 기자 nbtvrepoteam@gmail.com 다른기사 보기 저작권자 © 내외경제TV 무단전재 및 재배포 금지 당신만 안 본 뉴스 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" '나는 솔로' 9기 옥순 인스타, 수영복 패션에 정숙 "언니, 너무 섹시" '나는 솔로' 9기 정숙 인스타 "이렇게 단아하니 협찬 모델" '나는 솔로' 9기 영자 인스타, "선 넘네" 악플에 경고장? '나는 솔로' 옥순 완전체 결성되나 "7, 10기 옥순님들 들어와" '나는 솔로' 10기 영숙 인스타, 꿀피부 자랑…골프 협찬 모델 예고? '나는 솔로' 10기 현숙 인스타 "포00에서 뭐 하나" 협찬 모델 예고 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 '부모찬스' 미성년 임대인···최근 5년간 임대소득만 2548억 원 최신뉴스 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 포토뉴스 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 인기뉴스 1 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 2 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 3 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 4 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 5 '부모찬스' 미성년 임대인···최근 5년간 임대소득만 2548억 원 6 최근 3년간 불량 요소수 최소 300만 리터 이상 유통…일 평균사용량의 5배 7 식칼·망치로 위협당하는 국민연금 직원들...고독사·자살 현장 목격도 8 [UP! START] 에스테이트클라우드, 우대빵으로 부동산 중개시장 변혁 예고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 rss 매체정보 서울특별시 금천구 가산디지털1로 168, C동 12층 1209-1호(가산동, 우림라이온스밸리) 대표전화 : 070-4252-5497 청소년보호책임자 : 정동진 법인명 : (주)내외경제미디어 제호 : 내외경제TV 등록번호 : 서울 아 02225 등록일 : 2012-08-06 발행일 : 2012-08-06 발행·편집인 : 정동진 내외경제TV 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 내외경제TV. All rights reserved. mail to msn06s@nbntv.co.kr 위로 전체메뉴 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N4 이전 다음 “제주도의 주인공은 관광객, 그 안에 도민은 없다” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 문화 “제주도의 주인공은 관광객, 그 안에 도민은 없다” 김은애 기자 승인 2019.01.19 19:29 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 있는 그대로의 제주 지키기 위한 문화제 -관광객으로 삶의 터전에서 밀려난 도민 -제주 원형 지키기 위해 도민이 나서야... 1월 19일, 설문대여성문화센터에서 &lt;제주, 그대로가 아름다워&gt; 문화제가 열렸다. [미디어제주 김은애 기자] 제주가 앓는다. 하수처리장은 수용량을 넘어 똥물이 바다로 흐르고, 아름다운 오름은 수많은 발걸음에 땅이 움푹 꺼져 쓰레기가 넘친다. 어느새 제주의 주인공은 이곳에서 살아가는 도민이 아니다. 관광객 혹은 제주에 돈을 투자하는 그 누군가가 주인이 된 것만 같다. 출퇴근 시간마다 도로변을 가득 채우는 렌터카들 때문에 도민들은 혼잡한 교통에서 비롯한 불편을 감수해야 한다. 공실이 넘쳐나는데도 집값은 내릴 줄 모르고, 새 건물은 계속 지어진다. 투기성 부동산이 줄을 잇고, 개발 때문에 누군가는 삶의 터전을 빼앗기기도 한다. 이러한 제주의 현실에 안타까워하며, 불평만 늘어놓기는 이제 그만. “제주에 사는 우리가 직접 행동할 때”라며 전국 각지에서 사람들이 모였다. 1월 19일 쌀쌀한 겨울 날씨를 녹이는 가랑비가 내린 토요일 오후 4시. 제주 설문대여성문화센터에서 &lt;제주, 그대로가 아름다워&gt; 문화제가 열렸다. 문화제는 사물놀이 ‘마로’와 제주어 가수 ‘양정원’의 공연으로 시작됐다. ‘제주다움’이 무엇인지, 소리와 음악으로 신명 나게 표현한 두 무대가 끝난 뒤, 본격적인 토크쇼가 이어졌다. 토크쇼의 진행은 전 국회의원 장하나씨가 맡았고, 패널로는 제주 생태문화여행 고제량 기획자, 이매진피스 임영신씨, 육지사는 제주사름 박찬식 대표가 자리를 빛냈다. 1년에 다섯 번 이상 제주를 찾는다는 이매진피스 임영신 대표는 “어제(18일) 제2공항이 들어설 성산을 방문했는데, 늘어난 리조트의 풍경을 바라보니 마음이 아프더라”며 운을 뗐다. 이매진피스 임영신 대표는 이미 섬의 수용력을 넘어서 자연이 무너지는 제주의 상황을 안타까워했다. 임 대표는 “사는 사람을 위한 제주가 아니라, 오는 사람을 위한 제주로 변하며, 제주가 망가지고 있다”라며 안타까움을 드러냈다. 그는 “여행 오는 사람은 리조트 앞에서 바다만 보니까 모른다. 리조트 뒤편에는 마을 사람들의 터전이 있고, 제주 사람들의 삶이 있다는 사실을. 올레길을 만들어가는 아름다운 강정에 해군기지를 만들어 마을을 파괴하고, 선흘리에 사파리를 만든다고 하는 제주 뉴스를 서울에서 볼 때면 화가 난다”라고 말하며 눈물을 보이기도 했다. 제주 생태문화여행 고제량 기획자는 제주가 고유의 가치를 잃어버리고 있다고 말했다. 고제량 기획자는 선흘1리 동백동산의 사례를 들며, 주민이 주체적으로 나서서 제주를 지켜야 한다고 밝혔다. 고 기획자는 “제주에는 제주만의 것이 분명 있었는데, 최근에 개발 사업이 많이 진행되며 제주다운 것을 잃고, 남의 것을 따라가고 있다”라며 “제주 사람들의 삶, 시민들의 소소한 행복은 뒤로한 채 제주다움을 잃고 있다”라고 말했다. 제주가 제주다움을 잃고 있다는 사실. 이러한 사실은 이미 관광객들 또한 잘 알고 있다. 예전과 같지 않은 풍경, 우후죽순 들어선 대형 건물들, 악취가 나는 바다를 통해서다. 전 국회의원 장하나 진행자는 제주를 올 때마다 변하는 풍경에 마음이 아프다고 했다. 이러한 현실을 들며 장하나 진행자는 “바다를 따라서 걷기만 해도 좋은 게 제주였는데, 이제는 해안 따라 카페, 식당이 줄지어 이어진다”라며 “관광객은 오지 않으면 그만이지만, 사는 우리들은 선택의 여지가 없어 안타깝다”라고 말했다. 육지사는 제주사름 박찬식 대표는 오버투어리즘에 대해 이야기했다. 오버투어리즘이란, 관광객이 너무 많거나, 관광개발이 지역 주민들에게 충분한 혜택은 주지 않으면서 주민의 삶에 부정적인 영향을 주는 상황을 일컫는다. 육지사는 제주사름 박찬식 대표는 제주와 서울을 오가며 생활 중이다. 박 대표는 오버투어리즘이 세계적으로 급속하게 퍼지고 있는 단어라면서, 그만큼 오버투어리즘에 대한 이야기가 급속하게 확대되고 있다고 밝혔다. 제주의 뜨거운 현안, 제2공항에 대한 이야기도 있었다. 장하나 진행자는 “공항이 생기면, 성산일출봉에서 비행기가 뜨고 내리는 모습이 보일 것”이라며 “오름의 풍경이 렌터카 사무실, 숙박업소, 식당 등의 경관으로 바뀌었을 때가 상상이 가질 않는다”라며 우려를 표했다. 임영신 대표는 몰디브의 사례를 들며 제주에 빗대 표현했다. 임 대표는 “몰디브는 35년 동안 관광을 국가제도로 키워온 섬인데, 이곳의 풍경을 보라”면서 사진 한 장을 공개했다. 빽빽하게 들어선 몰디브 섬의 건물들 모습. 제주도 이처럼 될 수 있다. 임 대표는 “현재 몰디브 옆의 한 섬에는 쓰레기가 가득 차 바다로 둥둥 떠내려가고 있다. 그런데도 우리의 삶에 관광이 어떤 영향을 미치는지 아무도 알려주지 않고 있다”라며 문제를 지적했다. 쓰레기 문제, 상하수도 문제 등에 대한 관리 없이 무작정 관광객만 늘어난다면, 몰디브의 쓰레기섬과 같은 현상이 제주에도 생길 수 있다는 우려다. 거대 유람선이 들어오고 있는 베니스 도시의 풍경. 마치 합성 사진처럼 어색한 경관이다. 임 대표에 따르면, 베니스의 경우 거대 유람선이 들어오며 내뿜는 매연에 시민들이 고통받았기도 했다. 이 때문에 ‘관광포비아’들이 생겨나며, 일부 시민들은 ‘우리 마음에 그만 들어오라’는 팻말을 들고 시위를 펼치기도 했다는 것이다. 이어 임 대표는 한 가지 질문을 던졌다. 이날 토론회에 참석한 이들뿐만 아니라 도민과 모든 국민이 생각해 볼 문제다. “20명 정원의 음식점에 2000명이 들이닥쳤다면, 300명 정원의 영화관에 5000명이 들어와 영화를 관람한다면. 과연 우리는 이 상황에서 어떤 반응을 취하게 될까?” 임 대표는 오마이뉴스 기사(베를린 리포트, 신희완 기자) 중 이 문장을 인용한 뒤 “(제주를) 파괴하는 사람도 (개발을 위해) 연구하고, 용역하고 노력하고 있다”라며 “따라서 지키려는 사람도 더 정교하게 노력하지 않으면 (제주를) 지킬 수 없다”라고 거듭 강조했다. 한편, 이번 문화제는 ‘제주 지키기 시민행동’의 김민주씨가 자신의 아버지와 함께 기획한 행사다. 김민주씨는 “제주를 지키려는 목소리가 지금은 미약하지만, 이번 문화제를 매개체로 커지기를 바란다”라면서 ‘제주 지키기 프로젝트에 함께 참여하고, ‘제주 지키기 시민행동’에서 함께할 구성원을 모집한다”고 전했다. 이번 행사가 단순히 일회성에 그치는 것이 아니라는 뜻이다. 문화제를 기획한 김민주씨가 무대에서 인사를 하고 있다. 혼자서 행사 기획, 패널 및 가수 섭외 등 모든 것을 도맡아 한 민주씨는 “다소 서툴지만, 목소리 하나하나가 모인다면 제주를 지킬 수 있을 것”이라고 말했다. 제주를 지키고자 하는 모두를 모아보겠다는 그의 큰 포부가 이번 문화제로 이뤄질 수 있기를 기대해본다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김은애 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>토러스증권 “롯데관광개발, 제주도 드림타워 카지노 사업 수혜” - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 증권 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 증권 &gt; 토러스증권 “롯데관광개발, 제주도 드림타워 카지노 사업 수혜” 파이낸셜뉴스입력 2019.01.15 09:01수정 2019.01.15 09:01 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 관련종목▶롯데관광개발(032350), 파라다이스(034230) 토러스투자증권은 15일 롯데관광개발에 대해 올해 10월 완공 예정인 제주 드림타워 카지노가 제주도 외국인 카지노 가운데 가장 요지에 있어 중국인 관광객의 폭발적인 수요가 예상된다며 내년 최대 실적을 기록할 것으로 예상한다고 밝혔다. 투자의견과 목표주가는 제시하지 않았다. 제주 드림타워 카지노 영업장 면적(9,120m2)에 게임테이블 170개, 슬롯머신 300대를 보유한 외국인 전용 카지노이다. 전상용 토러스투자증권 리서치센터장은 “제주 드림타워는 제주국제공항에서 3km(5분거리)거리인 노형동 오거리에 위치해 있다. 노형동 오거리는 제주도 전 지역을 교차하는 통로이며, 신라면세점, 롯데면세점, 이마 트, 롯데마트가 5~600m내에 위치하고 있는 제주도 교통요지”라며 “5분간격으로 무료리무진 셔틀버스가 운행되고 있어, 중국관광객들의 폭발적인 수요가 예상된다”고 밝혔다. 그러면서 “카지노 이외에 순수 관광객도 많이 방문할 것으로 전망된다”며 “제주도에서 가장 높은 38층의 랜드마크이며, 전체 1600개의 스위트객실은 지상 62m이상에 위치해 한라산과 제주바다를 볼 수 있는 조망권을 지녔다“고 덧붙였다. 토러스투자증권은 내년부터 정상영업을 한다는 가정하에, 총 매출은 약 7010억원 선으로 전망된다고 예상했다. 또 카지노 확장 이전에도 문제없을 것으로 예상했다. 전 센터장은 “제주도 8개 카지노에서 6개가 외국기업 소유인 반면 국내기업 소유 외국인 전용 카지노는 파라다이스와 롯데관광개발의 제주 드림타워뿐”이라며 “기존 파라다이스시티와 신화월드 모두 9배가량 이전과 확장 신청 후 승인을 받은 바 있어 확장 이전 승인은 문제없을 것으로 예상한다”고 내다봤다. kakim@fnnews.com 김경아 기자 키워드#카지노 #토러스투자증권 #롯데관광개발 #제주도드림타워 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 관광개발사업자에 하수도 원인자부담금 26.2% 인상 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 관광개발사업자에 하수도 원인자부담금 26.2% 인상 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 관광개발사업자에 하수도 원인자부담금 26.2% 인상 송고시간2019-01-04 11:12 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 개별건축물 부담금도 19.4% 인상 (제주=연합뉴스) 김호천 기자 = 제주에서 관광개발사업자에 물리는 하수도 원인자부담금이 큰 폭으로 인상됐다. 하수처리장 현장 점검하는 제주도의회 의원들 (제주=연합뉴스) 2018년 7월 제주도의회 환경도시위원회 소속 의원들이 제주시 도두동에 있는 제주하수처리장을 찾아 하수 처리 문제점을 파악하고 현대화 계획 등 개선방안을 점검하고 있다. [연합뉴스 자료사진] 제주도상하수도본부는 하수도 원인자부담금 부과기준을 현재 실정에 맞게 재산정해 부담금을 인상했다고 4일 밝혔다. 하수도 원인자부담금은 하수도법에 따라 건축 등을 신축·증축하거나 용도를 변경해 오수가 하루에 10㎥ 이상 발생하는 건축물 의 건축주에게 부담시키는 공공하수도 개축 비용이다. 광고 도는 이번에 하수 발생량이 많은 관광개발사업과 도시개발사업 등의 하수도 원인자부담금을 1㎥당 357만7천250원으로 인상했다. 이는 종전 단가 283만4천원보다 26.2% 인상된 것이다. 하수도 사용 조례에 따른 개별건축물에 대한 원인자부담금은 종전 1㎥당 141만7천원에서 169만1천300원으로 19.4% 인상했다. 인상분은 지난 2일부터 적용된다. 제주도의 하수도 원인자부담금 인상은 2014년 1월 이후 5년 만이다. 그동안 부과기준을 재산정하지 않고 부과함에 따라 제주도의회와 제주도 감사위원회에서 하수 처리에 문제가 있다며 수차례 재검토를 요구해왔다. 도는 지난해 11월 안정적인 하수 처리를 위한 맞춤형 종합 하수관리체계 구축안을 발표하며 하수도 원인자부담금을 합리적으로 조정하겠다고 밝혔다. 도는 이어 하수도 원인자부담금 단위 단가 산정 연구 용역을 시행해 전국 지방자치단체 사례를 조사하고, 전문가 자문을 거쳐 이번 인상안을 마련했다. 이학승 하수도부장은 "종전에 부과한 하수도 원인자부담금은 전국 평균의 70∼80% 수준이었으나 이번에 물가상승률 등을 고려해 부과기준을 현실화하며 전국 평균보다 조금 높게 인상했다"고 설명했다. 그는 "인구 증가와 관광객 증가에 따라 하수 처리에 큰 문제가 발생하면서 도내 8개 하수처리장 증설 등에 막대한 예산이 투입되고 있으므로 원인자부담금을 인상할 수밖에 없다"고 강조했다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2019/01/04 11:12 송고 #원인자 #부담금 #하수도 #인상 #제주 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 22 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 '무장애 관광도시'로 조성 10대정책 제안 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 '무장애 관광도시'로 조성 10대정책 제안 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도 '무장애 관광도시'로 조성 10대정책 제안 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2019.01.15 17:20 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주연구원, 무장애 관광도시 조성 연구보고서 제주연구원이 제주도를 장애인과 비장애인, 노인과 젊은이 등 누구나 편안하게 여행을 즐길 수 있는 '무장애 관광도시'로 육성하기 위한 10대 정책을 제안했다.제주연구원 신동일 연구위원은 15일 '제주지역 무장애 관광도시 조성 방안' 연구보고서를 통해 제주지역 무장애 관광 실태와 타 지역 사례를 분석하고 제주지역 무장애 관광도시 조성 방안을 제시했다.무장애 관광이 인간의 평등권과 복지의 차원에서 중요한 관광정책으로, 앞으로 고령화 사회와 더불어 더욱 더 그 중요성과 가치가 커져갈 것으로 예상되고 있다.특히 지난해 평창패럴림픽을 계기로 서울과 강원을 비롯한 많은 지자체들이 무장애 관광환경 조성을 주요한 정책과 사업으로 내세우는 상황으로 관광의 질적 성장을 추구하는 제주의 경우 보다 선제적으로 무장애 관광을 육성할 필요성이 큰 실정이다.이에 이번 연구는 무장애 관광의 현황 및 사례분석을 통한 제주지역 무장애 관광에의 시사점을 주기 위해 이뤄졌다.호주는 장애인 서비스법(DSA, Disability Service Act), 일본의 '유니버설 디자인 2020 행동계획'을 수립하는 등 체계적인 무장애 관광 육성을 위한 계획을 수립.시행하고 있는 것으로 조사됐다.또 무장애 새 단장을 실시한 극장 및 음악당 등에 대해서는 고정자산세 및 도시계획세 우대 등 세제혜택 조치를 등 다양한 인센티브 정책을 시행하고 있다. 관광약자들에 대한 배려가 아니라 동등한 기본권 차원 관광약자 체험 프로그램 운영, 관광약자 입장에서 생각해보는 강좌 및 프로그램의 운영 등 통해 동등한 인권을 행사하는 사회적 분위기를 조성하고 있는 것으로 나타났다.단순한 시설 개선뿐만 아니라 관광사업자를 대상으로 하는 업종별 무장애 관광 세미나, 무장애 관광 어드바이저 파견 등 보다 세심하게 수행되고 있다.프랑스의 관광핸디캡 라벨, 일본의 적합증 등 인증제도 또는 마크의 활용으로 관광약자들에게 신뢰할 수 있는 무장애 관광 정보를 제공하고 있음. 신 연구원은 휠체어용 수속 카운터, 보안 검사용 휠체어, 음성 항공권 예약 시스템 등 새로운 관광시장으로서의 무장애 관광에 대한 접근이 필수적으로 생겨날 것이고, 기업 또는 지역의 관광이미지를 획기적으로 변화시키는 요인으로 작용할 것으로 평가했다. 이어 무장애 관광도시 육성을 위한 위한 10가지 정책 과제를 제시했다.먼저 신 연구위원은 제주를 무장애 관광도시로 브랜드화하고 범도민적 참여와 확산을 이끌어내기 위해 '무장애 관광 캠페인(Barrier-free Travel Campaign)을 전개할 것을 제안했다.또 제주지역의 무장애 관광환경 및 자원 데이터베이스를 구축해 관광약자별 맞춤형 무장애 관광자원을 활용할 수 있도록 지속적으로 관리하고, 신체장애인, 정신장애인, 어린이, 노약자 등 다양한 계층의 관광약자들의 무장애 관광 욕구와 선호도 역시 다양한 형태로 나타날 수밖에 없으므로 이에 대한 주기적인 욕구조사를 통해 보다 효과적인 대응책을 마련해야 한다고 강조했다.이와 함께 일본 오키나와의 경우처럼 보다 세분화되고 구체적인 무장애 관광정보 제공과 이에 대한 온라인 홍보를 할 것과, 관광약자접근성안내센터의 기능 강화의 필요성을 제시했다.지난 2013년 5월 만들어진 '제주도 관광약자의 접근가능한 관광환경 조성 조례'에 의한 무장애 관광 품질인증제를 적극적으로 실천하고, 관광진흥기금의 우선 융자 정도의 지원책으로는 큰 효과를 기대하기가 어려움. 따라서 홍보와 마케팅, 고용 지원, 교육 지원 등의 다양한 인센티브 확대의 필요성을 주장했다.또 복지관광자문위원회의 활동 강화를 위해 위원회 소집 요건을 조정해 보다 활발하게 무장애 관광 환경 조성을 위한 활동들을 독려하고, 현재 15인 이내 구성원을 확대해 전문성과 관광 약자들의 목소리를 보다 심도 있게 반영할 수 있는 체제를 갖출 것을 당부했다.이밖에도 복지센터의 기능 강화와 관광 전문 기관을 통한 관련 전문가를 꾸준하게 양성하고, 무장애 관광 자원봉사자 활동 활성화의 필요성을 강조했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>황금돼지의 해, 제주도를 찾은 첫 국내외 관광객은? - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 황금돼지의 해, 제주도를 찾은 첫 국내외 관광객은? 파이낸셜뉴스입력 2019.01.01 12:14수정 2019.01.01 12:14 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주도·제주도관광협회, 1일 관광객 환영행사 진행 [제주=좌승훈 기자] 황금돼지의 해, 기해년 첫 날인 1일 제주국제공항과 제주연안여객터미널을 통해 제주도를 찾은 첫 관광객은 김성주씨(서울시·국내선)·왕훈씨(중국·국제선), 김남희씨(광주시·여객선)로 선정됐다. 제주도와 제주도관광협회(회장 김영진)는 이날 이들을 대상으로 환영행사를 진행해 기념품과 환영메시지를 전달했다. 한편 제주국제공항 국내선 도착 게이트에서는 새해 첫날 제주를 찾는 관광객을 대상으로 게임을 즐기며 제주 특산품을 받아가는 '기해년 새해 첫 행운을 잡아라' 이벤트 존이 마련됐다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도게스트하우스 '메르블루', 제주 구좌읍 동쪽여행 관광객들이 선택한 숙소 - ::: 글로벌 녹색성장 미디어 - 이투뉴스 × 전체기사 이투속보 종합 전체 이슈 분석 단독 인사·동정 포토 행사 정책 전체 정부 국회 지방 정부․국회 일정 NGO 산업 전체 전력 원자력 신재생 가스 집단에너지 석유 자원 수요관리 환경 기업 기후변화 기술.R&amp;D 생태 국제 전체 정책 산업 이슈 기획 전체 특집 인터뷰 탐방 진단 기업 오피니언 전체 사설 칼럼 기고 독자비평 기자수첩 보도자료 고객센터 전체 용어사전 경제속보 전체 재테크/부동산 취업/채용 자동차 경제종합 연예/문화 스포츠 건강/의학 여행/레저 공연/출판 학술 생활/문화 이투뉴스 E2NEWS Only UPDATED. 2022-10-11 11:33 (화) 전체 이투속보 이투뉴스 경제속보 E2 Only 종합 이슈 분석 단독 인사·동정 포토 행사 정책 정부 국회 지방 정부․국회 일정 NGO 산업 전력 원자력 신재생 가스 집단에너지 석유 자원 수요관리 환경 기업 기후변화 기술.R&amp;D 생태 국제 정책 산업 이슈 기획 특집 인터뷰 탐방 진단 기업 오피니언 사설 칼럼 기고 독자비평 기자수첩 로그인 회원가입 종이신문 RSS 스크랩마스터 기사검색 검색 이전 다음 제주도게스트하우스 '메르블루', 제주 구좌읍 동쪽여행 관광객들이 선택한 숙소 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제속보 생활/문화 제주도게스트하우스 '메르블루', 제주 구좌읍 동쪽여행 관광객들이 선택한 숙소 이종도 기자 승인 2019.01.13 11:40 댓글 1 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × 전국에 본격적인 추위가 시작되면서 여행객의 발걸음이 포근한 제주도로 끊이지 않고 있다. 국내 여행지로 꾸준한 인기를 얻고 있는 제주도는 겨울 여행지로도 여전히 많은 관광객들이 방문하는 곳이다. 특별한 겨울 여행을 계획하고 있다면 ‘제주도 동쪽 여행지’를 테마로 삼아서 떠나보자. 지평선 너머로 펼쳐진 겨울의 제주도 동쪽 겨울바다는 그윽하면서도 푸른 물결의 밝음을 느껴볼 수 있다. 제주도 동쪽의 섬 속의 섬 우도는 제주도를 찾은 사람이라면 한번쯤은 가보는 관광 명소다. 에메랄드 빛 바다와 이국적인 해안도로, 소머리오름의 절경 등은 늘 환상적인 풍경을 전한다. 해안도로 순환버스를 이용해 방문할 수 있는 우도의 대표적인 여행 명소로는 산호해변이 있다. 서빈백사라고도 불리는 이곳은 백색의 홍조단괴로 이루어진 자갈해변으로 해안로 서쪽의 하얀 모래 해변을 뜻한다. ‘달이 머무는 곳’이라는 이름의 월정리해 해변은 에메랄드빛 바다를 보며 나른한 시간을 보내고 싶다면 반드시 찾아가 봐야 할 곳이다. 넘실대는 파도와 멀리 보이는 풍력 발전기가 어우러진 백사장의 풍경. 해안도로를 따라 예쁜 카페가 이어지는 월정리 해변은 외국의 휴양지를 찾아온 것 같은 기분을 느낄 수 있는 곳이다. 코발트 빛깔의 맑은 바다가 아름다운 세화해변은 불과 몇 년 전까지만 해도 알려지지 않은 조용한 곳이었다. 최근 들어 많은 사람들이 찾는 곳이 된 세화해변은 아직 자연 그대로의 깨끗한 모습을 간직하고 있다. 제주도에서 가볼만한 곳을 꼽으라면 가장 먼저 떠오르는 곳은 성산일출봉이라고 해도 모자람이 없다. 성산일출봉은 약 5000여 년 전 제주도의 수많은 분화구 중 바닷속에서 수중폭발한 화산체이다. 용암이 물에 섞일 때 일어나는 폭발로 용암은 고운 화산재로 분화구 둘레에 원뿔형으로 쌓여 있다. 푸른 바다 사이에 우뚝 솟은 봉우리 정상에서 맞이하는 일출의 장관은 사람들의 감흥과 탄성을 자아내게 한다. 시시각각으로 변하는 일출은 우리들의 얼굴을 비추기도 하고 때로는 빛내림으로 우리들을 환호하게 만든다. 이렇게 볼거리가 많은 즐거운 제주도 동쪽 여행을 낮에 마치면, 밤에는 신나는 게스트하우스의 파티가 기다린다. 동쪽 지역에서는 구좌읍의 메르블루 게스트하우스가 주목을 받고 있다. 이곳은 일반음식점 허가업체이기 때문에 바비큐 파티도 안전하게 즐길 수 있다. 저녁에는 끊임없이 먹을 수 있는 파티가 있어서 여행객들 간의 소통도 가능하여 어울려서 즐거운 시간을 보낼 수 있다. 숙소에서 여독을 풀고 밤에는 다양한 사람들과 즐거운 시간을 가지면서 많은 여행정보를 얻을 수 있는 것이 ‘메르블루 게스트하우스’ 파티의 매력이다 보니, 소셜미디어를 통해 제주도를 찾는 젊은이들 사이에서 단연 핫한 곳으로 입 소문이 자자하다. 밤마다 찾아오는 여행 속 낭만을 만끽할 수 있는 메르블루 게스트하우스는 인근 토끼섬과 우도가 보이는 오션뷰 신축으로 전 객실 빈티지 모던한 스타일과 철제 프레임 침대, 좋은 촉감을 느낄 수 있는 호텔 침구류와 천연 라텍스침대로 이루어져 있다. 무엇보다 안전한 게스트하우스로 전 객실이 도어록과 24시간 CCTV가 설치돼 마음을 놓이게 한다. . 여성-남성 도미토리룸, 오션 트윈룸 등 도미토리와 2인실로 이루어져 있어 남녀노소 부담 없이 방문할 수 있다. 위치는 성산 10분, 우도선착장 5분, 세화,월정리 해변 10분, 송당오름 10분 거리에 위치하여 관광에도 편리하다. 관계자는 “겨울의 제주도를 찾는 여행객에게 숙소로도 좋은 추억을 안겨줄 수 있는 공간이다”라면서, “많은 여행객들이 제주도 동쪽 여행에서 느낀 여러 가지를 파티를 통해 이야기할 수 있길 바란다”고 전했다. 저작권자 © ::: 글로벌 녹색성장 미디어 - 이투뉴스 무단전재 및 재배포 금지 이종도 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 1 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 김수현 2019-02-18 00:22:34 더보기 삭제하기 여기 제주게하중에 최고입니다 시설 정말깨끗하고 파티 분위기최고에요 뷰도좋아서 담에또갈께요 답글쓰기 0 0 이투뉴스 E2only 1한난 신임 사장 정용기 전 국회의원 유력 2LH 집단에너지사업 매각 스타트 3‘원전 70%’ 佛 전력난…“한국에도 닥칠 문제” 4[이기업, 이사람] 망한 주유소 살리는 미다스의 손 5서울에너지공사, 성북구 지역난방 뚫었다 6[기획좌담회] "재생에너지 7%에 전력망관리 이렇게 밖에 못하나" 7대성에너지, 집단에너지 사업소 비상사태 대응훈련 8美 전기차 인프라 구축에 예산 폭탄 투하 9화재사고 우려로 한전 ESS 111곳 가동정지 10한다-우선이엔씨, 분산형 에너지 융·복합사업 전기공사 MOA 16번 입찰 끝에 마곡열병합 건설업체 가닥 2'집단에너지 큰 그림’ 그리는 GS에너지 3신설 火電, 묻지마 설비용량 ‘뻥튀기’ 4난국에도 'GS파워·나래ES'는 독야청청 5주먹구구 신재생에너지 융복합지원사업 6원전 10기 수명 늘리고 재생에너지 속도조절 7LH 집단에너지사업 매각속도 빨라진다 8국내 석탄화력 48기 '자체 재기동' 못한다 9한난 신임 사장 정용기 전 국회의원 유력 10유명무실 탄소인증제에 국산 모듈價 하락세 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울시 구로구 디지털로27길 36 809-2호(구로동, 이스페이스) 대표전화 : 02-877-4114 팩스 : 02-2038-3749 청소년보호책임자 : 이재욱 편집국장 : 채덕종 편집인 : 이재욱 제호 : ::: 글로벌 녹색성장 미디어 - 이투뉴스 법인명 : (주)에너지환경일보 등록번호 : 서울 다 07637 / 서울 아 00215 등록일 : 2006-06-14 발행일 : 2006-06-14 발행인 : 이재욱 ::: 글로벌 녹색성장 미디어 - 이투뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 ::: 글로벌 녹색성장 미디어 - 이투뉴스. All rights reserved. mail to webmaster@e2news.com 위로</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N3 이전 다음 "제주도 관광객 불편신고건수, 1년 새 2배 증가" 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 사회 "제주도 관광객 불편신고건수, 1년 새 2배 증가" 김은애 기자 승인 2019.01.06 14:48 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도 관광객 민원, 2017년 287건 → 2018년 573건 관광객 수는 줄었지만, 민원 접수는 약 2배 가량 증가 [미디어제주 김은애 기자] 제주도청 홈페이지 내 관광신문고 게시판을 통해 접수된 지난해 관광객 불편사항이 작년과 재작년 대비 대폭 증가한 것으로 밝혀졌다. 2018년 접수된 관광객 불편사항 민원은 총 573건으로,  2017년(287건)에 비해 약 두 배가량 증가했다. 이와 관련, 제주도 관광정책과 관계자는 "인터넷 이용이 활발해지면서 관광신문고 게시판을 이용하는 사용자가 증가한 점"을 이유로 꼽았다. 하지만 그의 말이 성립하려면 관광객 불편신고건수가 년도별 점차적으로 증가하는 모양새를 보여야 하는데, 현실은 그렇지 않다. 년도별 제주도 관광객 불편신고건수는 2015년 252건, 2016년 408건, 2017년 287건, 2018년 573건으로 일정하게 증가하거나 감소하는 모양이 아닌 들쑥날쑥한 모양새다. 그렇다면 혹시 제주도를 방문한 관광객 수가 늘었기 때문에 민원 또한 늘어나는 양상을 보인 것은 아닐까? 이 또한 아니었다. 제주도관광협회에 따르면 2018년 제주도를 방문한 관광객 수는 약 1433만명으로, 2017년 약 1475만명에 비해 오히려 42만명이 감소했다. 이로써 제주도를 찾은 관광객 수는 줄었지만, 민원은 오히려 늘어난 아이러니한 상황이 연출됐다. 한편, 신고사항 중 에서는 교통 관련 민원이 229건으로 가장 높은 수치를 보였다. 분야별로는 교통 229건(40%), 관광지 166건(29%), 기타 74건(13%) 순으로 나타났다. 유형별로는 불친절·서비스결여 180건(31%), 부당요금 101건(17.6%), 시설(안전)상태불량 38건(6.6%) 순으로 집계됐다. 2018년 접수된 제주도 관광객 불편사항 세부 신고 내용 및 조치 사항은 아래와 같다. 1. 관광지 모 박물관 안내데스크 직원의 불친절로 인한 불쾌함 &gt; 직원에 대해 지속적인 친결교육 실시하도록 조치 안내판 오기에 따른 혼란 &gt; 관광지 안내판 관리과에 전달, 해당 오기 부분은 즉각적으로 수정하도록 안내하고 이를 알림 2. 교통 택시요금 카드결제 거부, 불친절 &gt; 택시 운수종사자 친절 및 안전교육 참석 렌트카 계약 시 사전에 충분한 설명 없이 사고 후 과다수리비 청구 &gt; 차량 대여 시 항목별 비용에 대해 고객의 입장에서 안내하토록 행정지도 버스 난폭운전, 폭언 등 불친절, 서비스정신 부족 &gt;운수업체에 안전운전 및 교통서비스 인식개선 교육 실시하도록 행정지도 3. 쇼핑 환불 거부, 현금영수증 미발급 &gt; 해당업체에 환불조치 및 품질관리 등 재발 방지 지도 4. 숙박 숙박시설 예약 취소에 따른 환불 관련 분쟁 &gt; 소비자분쟁해결기준에 의해 환불하도록 중재 5. 음식점 불친절한 서비스, 주문음식 정량 미달 &gt; 식품위생부서를 통해 지속적 점검 조치 6. 해수욕장 해수욕장 호객행위, 부당요금 &gt; 해수욕장 운영을 하고 있는 마을회(청년회)에 호객행위, 부당요금 등 재발방지 위한 현장 지도 제주도 관광정책과 관계자는 "제주도민 친절교육, 환대분위기 조성 캠페인 등을 통해 이러한 불편사례가 재발되지 않도록 하겠다"라면서 "관광업체 종사원에 대한 친절서비스와 관광환경 개선을 위한 교육 및 홍보를 강화해 나갈 계획"임을 밝혔다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김은애 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 1월 골프동호회 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 1월 골프동호회 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, 1월 골프동호회 개최 문유미 기자 승인 2019.01.17 13:54 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회 골프동호회(회장 박주연, 영주말가든 대표)는 지난 16일 블랙스톤 골프&amp;리조트에서 회원 100여 명이 참석한 가운데 1월 친선 골프대회를 진행했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 새해 입도 관광객 맞이 환영행사 개최 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 새해 입도 관광객 맞이 환영행사 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 새해 입도 관광객 맞이 환영행사 개최 기자명 고병수 기자 입력 2019.01.02 10:59 수정 2019.01.02 11:03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 2019년 기해년(己亥年) 새해 첫날을 맞아 제주국제공항, 제주연안여객터미널에서 첫 입도 국내·외 관광객을 대상으로 건강과 행복을 기원하고, 제주방문 감사의 마음을 담은 환영행사를 진행했다.제주공항 국내선을 이용해 새해 처음 제주에 입도한 김성주씨(서울시), 국제선 왕훈씨(중국)와 제주연안여객터미널 첫 입항객 김남희씨(광주광역시 광산구)에게 제주여행 상품권, 꽃다발 등의 기념품이 주어졌다.새해 첫날 제주를 방문한 관광객과 도민들을 대상으로 환영현수막 게첩, 삼다수, 기념품(복주머니)를 제공하며 환영 메세지를 전달했다. 특히 제주공항 국내선 도착 게이트에서 "기해년 새해 첫 행운을 잡아라" 이벤트존을 운영해 관광객들이 직접 참여해 각종 게임 등을 즐기며 제주 특산품을 받아가는 즐거운 분위기가 이어졌다.관계자는 "2019 새해 첫 입도객 환영행사를 시작으로 도, 관광협회, 관광행정기관과 관광업계가 유기적인 협업 관계를 통해 빠르게 변화하는 관광트렌드에 걸맞춘 다양한 컨텐츠 발굴을 위한 전력을 기울일 것"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 투자유치·관광개발 역점 추진…지역경제 활성화 기대 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 투자유치·관광개발 역점 추진…지역경제 활성화 기대 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도, 투자유치·관광개발 역점 추진…지역경제 활성화 기대 기자명 양경익 기자 입력 2019.01.06 14:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 '투자유치 통한 양질의 고용창출 및 개발사업의 지역경제 활성화 정착'에 중점을 두고 2019년도 투자정책을 펼쳐 나갈 계획이라고 6일 밝혔다.이에 따라 도는 양질의 일자리를 창출하고 외국인직접투자(FDI) 2억불 달성을 목표로 투자유치 업종 및 대상 국가를 다변화할 방침이다.우선 도는 IT·BT·CT 산업, 신재생에너지, 블록체인 등 신성장 동력산업을 중점 유치산업으로 선정해 유치에 전력을 다한다.특히 해외 투자유치도 중국 중심에서 벗어나 북미(신재생에너지, EV), 싱가포르(블록체인), 일본(6차산업, BT), 유럽(스마트시티, 화장품) 등 다양한 국가로 확대해 나간다.관광개발사업의 경우 지난해 2월 개정된 조례에 따라 개발사업심의를 강화하고 도민 고용 및 지역 건설업체 참여 등 승인조건 이행여부에 대한 모니터링을 강화한다.이와 함께 투자 및 고용 실적 미진사업장에 대해서는 기간연장 불허 등 패널티를 부여, 엄격한 관리를 통해 실질적인 투자와 고용창출로 경제적 파급효과를 극대화해 나갈 계획이다. 양경익 기자 양경익 기자 yki@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
   </si>
   <si>
     <t>겨울 제주도 맛집 찾는 관광객을 사로잡은 ‘제주 오성’, 비결 공개 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.07.28 (목) 맑음동두천 26.3℃ 구름많음강릉 25.8℃ 맑음서울 28.4℃ 구름많음대전 27.1℃ 구름많음대구 25.2℃ 구름많음울산 24.6℃ 구름많음광주 26.8℃ 구름많음부산 25.3℃ 구름많음고창 26.3℃ 구름조금제주 27.7℃ 구름조금강화 25.2℃ 구름많음보은 25.0℃ 구름조금금산 23.3℃ 구름많음강진군 25.1℃ 구름많음경주시 24.7℃ 구름많음거제 24.8℃ 기상청 제공 회원가입 로그인 검색어를 입력해주세요. 검색하기 정치 청와대 대통령실 국회 정당 정부 선거 통일·외교 경제 경제일반 폴리경제인터뷰 폴리경제이슈 금융·증권 산업·재계 교통·유통·물류 IT·통신 생활경제 건설·부동산 바이오 소상공인 공기업 오피니언·이슈 이슈·기획 정국진단 인터뷰 좌담회 스페셜 인터뷰 칼럼 기고 기자수첩 카드뉴스 여론조사 여론조사 Bank 폴리 여론조사 사회·문화 사회 문화 교육 국제 연예 스포츠 생활 사회·문화 인터뷰 공공지방 지방자치 공공기관 단체장 인터뷰 호남 취재본부 부산·울산·경남 대구·경북 폴리TV 폴리인터뷰 폴리현장 폴리 좌담회 정치를 알려주마 경제브리핑 들어보이소 포토뉴스 직격인터뷰 김능구와이강윤의 여론조사대해부 폴리경제인터뷰 직격인터뷰 기획특집 4.7 재보궐선거 21대 총선 7회 지방선거 19대 대선 한국정당실록60년 상생과통일포럼 18차 금융포럼 창간 21주년 17차 경제산업포럼 16차 경제포럼 15차 경제산업포럼 창간 20주년 14차 경제산업포럼 13차 경제산업포럼 창간 19주년 12차 경제포럼 11차 경제포럼 창간 18주년 10차 경제포럼 8차 경제포럼 창간 17주년 7차 경제포럼 6차 경제포럼 창간 16주년 5차 금융포럼 4차 경제포럼 3차 금융포럼 2차 통일세미나 1차 경제세미나 리더십과정 서비스 알립니다 인사·동정·부고 소상공인 홈 경제 소상공인 겨울 제주도 맛집 찾는 관광객을 사로잡은 ‘제주 오성’, 비결 공개 이정목 기자 jiun897@gmail.com 등록 2019.01.04 14:10:25 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 국내에 있는 섬 중에서 많은 사랑을 받는 섬 제주도는 1년 내내 관광객들의 발걸음이 끊이지 않는다. 비행기를 타고 1시간 내외로 이동이 가능하며, 저가 항공이 생기면서 몇 년 전과 달리 제주도를 여행하는 일은 그리 어려운 일이 아니다. 최근 많은 관광객들이 제주도에 방문하는 만큼, 다양한 즐길 거리와 볼거리, 먹거리 또한 늘어나고 있다. 그중에서도 겨울 제주도 맛집을 찾는 여행객들이 선호하는 음식 중 하나는 제주 통갈치조림으로 알려졌다. 그 가운데, 많은 식당들 사이에서 ‘제주 오성’은 이런 관광객들을 단번에 사로잡아 제주 중문 맛집으로 알려져 눈길을 끌고 있다. 제주 오성은 40년 전통을 이어오는 향토음식 전문점으로, 본 업소는 가성비가 좋으며, 차별화된 맛을 구현했다는 게 관계자의 설명이다. 제주 오성정식으로 구성된 메뉴를 주문할 경우에는 메인 요리뿐만 아니라 전복뚝배기와 성게미역국, 오분자기 돌솥밥 등 구성이 다양하면서 높은 퀄리티의 음식들이 나온다. 메인 요리인 갈치조림은 문어와 가재, 전복 등 싱싱한 해산물이 함께 들어가 있어서 깊은 국물을 느낄 수 있다는 평이다. 방문객들에 의하면 “가성비가 정말 좋다. 여러 메뉴들이 나오는데 전체적으로 음식들이 자극적이지 않아 남녀노소 누구나 맛있게 먹을 수 있다”며 “반찬들마저 뭐하나 버릴 것 없이 맛이 남다르다. 제주 중문 갈치조림집 메뉴 중에서 맛이 깔끔하다”고 밝혔다. 업소 관계자는 “항상 손님들에게 질 좋은 서비스를 대접하려고 노력한다. 반찬 같은 경우는 다 드시면 먼저 찾아가 비어진 부분을 채워주고 있다. 음식 같은 경우도 재료를 신중히 고른다. 또한 부담스럽지 않고 편안하게 손님들이 식사를 하실 수 있도록 매장 내부도 비주얼적으로 신경을 많이 썼다”고 전했다. 관계자에 따르면, 서귀포시 맛집 제주 오성에서는 넓은 주차공간이 확보되어 있으며, 제주도 특산품인 귤 초콜릿을 15개에 9,000원대 가격에 판매를 하고 있다. 아울러 식사를 마친 후 근처 갈치 카페를 이용하면 할인된 가격에 음료를 마실 수 있다는 평이다. 이정목 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 라인 네이버블로그 밴드 네이트온 쪽지 보내기 ⓒ 폴리뉴스(www.polinews.co.kr), 무단전재 및 재배포금지폴리뉴스는 인터넷신문위원회의 인터넷신문 윤리강령을 준수합니다. 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 추천기사 정부 [스페셜 인터뷰] 이용섭 전 광주시장 “국가균형발전 정책, 지역국가(Region State) 개념의 초광역화 전략으로 전면 전환해야” 이준석, 尹 메시지에 “오해 여지없이 정확히 이해” [대정부질문] ‘사실상 청문회’ 박순애 교육장관 “박사학위 논문 중복 게재, 당시 관행” [폴리 7월 좌담회 전문③] “동반 하락하는 여당 지지율, 또 다시 이준석이 구원투수?” [폴리 7월 좌담회 전문④] “어대명 수순의 민주당 전당대회, 무엇을 확인해야 하나” 尹대통령 4차 비상경제민생회의 “바이오헬스, 국가 핵심전략 산업으로 육성” 많이 본 기사 1[이슈] 윤심 드러난 “내부총질 당대표“ 일파만파...‘이준석 징계, 尹개입설’ 재점화 예고 2[알앤써치] 尹대통령 지지율36.8% 1.2%p↑ 반등세 지속, ‘민주38.9%-국민의힘33.4%’ 3[데이터리서치] 민주당 대표 ‘이재명42.4%-박용진19.2%’ 나머지6명 3위 다툼 치열 4[데이터리서치] 尹대통령 지지율33.7% 1달 전 대비 11.6%p↓, 부정61.4% 11%p↑ 5박인 경남도의원, "부울경특별연합은 지역상생 지혜 발휘해야 성공해..." 6박지원, 일방적 경찰개혁 “이상민 탄핵 검토 가능” 尹 문자엔 “이준석 복귀 안된다는 경고” 이슈 더보기 [이슈] 전국 총경회의 자진철회로 정부와 극한갈등 피했지만…본격 여야 정쟁 격화 [폴리뉴스 한지희 기자] 유례없는 주말 ‘전국 14만 총경회의’를 열며 ‘경찰국’ 설치에 항명해오던 경찰이 27일 오전 자진철회를 결정했다. 전날 정부 시행령 개정안이 국무회의에서 통과되고 난 뒤다. 이에 정부와의 대립은 소강 국면에 들었지만 정치권 갈등 긴장은 고조되는 양상이다. 더불어민주당은 대책위 가동으로 ‘이상민 탄핵’과 '경찰국 권한쟁의심판 청구'등 투쟁을 예고 했고, 국민의힘은 논점이 정쟁화됐다고 맞대응하고 있다. 이번 ‘경찰국’ 신설은 문재인 전 정부에서 강행 입법한 ‘검수완박’ 검-경 수사권 조정으로 인해 비대해진 경찰 권한을 통제하려는 취지로 추진되었다. 이에 행안부 산하로 출범되는 ‘경찰국’은 경찰의 인사와 예산권을 거머쥐면서 경찰청 ‘옥상옥’이라는 우려와 동시에 이상민 행안부 장관 지휘권 남용에 관련하여 지적 되고 있다. 그럼에도 이상민 장관이 총경회의를 ’12.12쿠데타’와 비교하거나 ‘대기발령 조치’를 내리는 등 강경 태도를 보이며 시행령 개정으로 일방적 드라이브를 거는 정부에 대해 정치권이나 시민단체가 반발하며 문제 삼고 있다. 설상가상 행안부는 부처별 업무보고에서 ‘경찰국’ 신설에 이어 경찰대 카르텔 문제를 명분으로 ‘경찰대 개혁’ [노회찬 4주기에 부쳐] 정치자금법② 기업·단체의 기부 허용하되, 철저한 관리로 투명성 강화 [이슈] 윤심 드러난 “내부총질 당대표“ 일파만파...‘이준석 징계, 尹개입설’ 재점화 예고 [이슈] 위기의 대한민국 ‘복합경제위기-美中 경제안보갈등-대통령리더십 실종’ [이슈] D-2, 민주당 8.28 전당대회 컷오프…본선 티켓 거머쥘 ’어대명’ 대항마 누구? 인터뷰 더보기 [폴리TV][스페셜 인터뷰]② 이용섭 전 광주시장 “국가균형발전 핵심 정책으로 초광역화 사업 반영돼야” [폴리뉴스 강경우 PD]지역경제발전 일환으로 ‘노사상생 광주형 일자리’를 성공시킨 이용섭 전 당시 광주시장은 4대 원칙을 강조하며 노사 갈등 해결에 중요성을 짚었다. 이는 최근 금속노조, 민주노총 등 전국적으로 확산되었던 대우조선해양 파업 사태에 시사하는 바가 크다. 이 전 광주시장은 25일 열린 &lt;폴리뉴스&gt; 김능구 대표와의 대담을 통해서 “늘 대립과 갈등의 관계였던 노와 사가 모두 만족하는 일자리는 없을까는 질문에 광주가 해결한 것이다”며 노사 상생을 통해 23년 만에 국내 자동차공장을 생산할 수 있던 원동력을 전했다. 그는 “23년만에 처음으로 국내 자동차공장을 건설했고, 이곳에서 첫 양산되고 있는 캐스퍼는 그야말로 대박이 났다”며 “직간접 일자리 1만개 이상을 창출하는 광주형 일자리는 청년들의 일자리 문제 해결과 함께 ‘고비용 저효율’이라는 한국경제의 고질적 문제 해결의 돌파구를 마련했다는 점에서 그 의미가 크다”고 밝혔다. [폴리TV][스페셜 인터뷰]① 이용섭 전 광주시장 “尹정부, 부자감세 비판 면하기 어려워… MB정부 낙수효과 실패 교훈 삼아야” [스페셜 인터뷰] 이용섭 전 광주시장 “국가균형발전 정책, 지역국가(Region State) 개념의 초광역화 전략으로 전면 전환해야” [폴리TV][김능구의 정국진단]이원욱 의원② “윤석열 지지율 20%대까지 떨어질 것…사회적 대타협 국민통합 필요” [김능구의 정국진단] 이원욱 의원② “윤석열 지지율 20%대까지 떨어질 것…사회적 대타협 국민통합 필요” 카드뉴스 더보기 [카드뉴스] KT&amp;G의 '바다 환경'을 지키기 위한 노력을 소개합니다 [폴리뉴스 김상준 기자] "여름철이면 생각나는 바다. 우리 모두가 환경 오염의 심각성을 환기하고 생태계 보호의 중요성을 공감해 환경보호를 실천하도록 KT&amp;G도 함께 노력하겠습니다" 지구 표면 2/3 이상을 차지하며 30만여 종의 생물이 살고 있다는 생명의 보고, 바다! 특히 여름철, 휴가를 갈곳으로 가장 먼저 떠올리곤 합니다. 2015년 세계자연기금(WWF)에서 발표한 자료에 따르면 바다의 자산 가치는 24조달러(2경9000조) 이상입니다. 휴가철에 보는 아름다운 경관뿐만 아니라 경제적 자산으로서도 바다는 매우 소중하고 가치있다고 할 수 있습니다. 하지만 이렇게 소중한 바다가 환경오염으로 인해 심각한 위험에 처해 있습니다. 일회용품 소비가 급증하면서 해양 쓰레기로 인한 생태계 피해가 심각한 수준입니다. 여러 단체가 바다를 위한 노력을 기울이는 가운데, KT&amp;G 역시 '바다환경 지키기'에 적극 동참하고 있습니다. KT&amp;는 2022년해양환경공단, 사단법인, 동아시아바다공동체 오션과 함께 바다를 지키기 위한 업무협약을 체결했습니다. 이 협약은 올해 다양한 해양 환경 활동을 추진하는 내용을 담고 있습니다. 특히 해양 오염 심각지역 실태조사 [카드뉴스] 팽팽한 찬반 논란의 '지역상권법'…뭐길래 [폴리뉴스 김미현 기자] ‘지역상권 상생 및 활성화에 관한 법률안(지역상권법)’제정을 놓고 찬반 의견이 팽팽하게 맞붙고 있습니다. 이 법은 지역상생구역이나 자율상권구역으로 지정된 지역에 스타벅스 같은 대기업 계열 점포의 출점을 제한하는 것이 골자입니다. 대상은 유통산업발전법(유통법)과 중소기업 적합업종제도 등에 포함되지 않아 규제를 받지 않는 대기업입니다. 법안이 시행될 경우대기업이 운영하는 직영 점포의 신규 매장을 열기 위해서는 지역상인의 동의를 받아야 합니다. 이는 임대료 상승에 따른 소상공인의 내몰림 현상(젠트리피케이션) 문제를 막고자 마련됐습니다. 복합 쇼핑몰이 들어오면 주변 임대료가 뛰는 경향이 있습니다. 하지만 이를 두고 유통업계는 소비자들의 편의성을 떨어뜨리는 과도한 중복 규제라고 반발에 나섰습니다. 또 재산권과 영업의 자유를 침해하는데다 대기업 프랜차이즈보다 자영업체의 고용률이 낮아질 가능성도 우려하고 있습니다. 하지만 지역상권의 특색을 유지하기 위해서는 해당 법안의 제정이 필요하다는 의견도 나옵니다. 소상공인과 대기업 모두'상생'을 이룰 수 있는정책이 절실한 때입니다. 트렌드&amp;토픽 더보기 [이슈] 전국 총경회의 자진철회로 정부와 극한갈등 피했지만…본격 여야 정쟁 격화 [폴리뉴스 한지희 기자] 유례없는 주말 ‘전국 14만 총경회의’를 열며 ‘경찰국’ 설치에 항명해오던 경찰이 27일 오전 자진철회를 결정했다. 전날 정부 시행령 개정안이 국무회의에서 통과되고 난 뒤다. 이에 정부와의 대립은 소강 국면에 들었지만 정치권 갈등 긴장은 고조되는 양상이다. 더불어민주당은 대책위 가동으로 ‘이상민 탄핵’과 '경찰국 권한쟁의심판 청구'등 투쟁을 예고 했고, 국민의힘은 논점이 정쟁화됐다고 맞대응하고 있다. 이번 ‘경찰국’ 신설은 문재인 전 정부에서 강행 입법한 ‘검수완박’ 검-경 수사권 조정으로 인해 비대해진 경찰 권한을 통제하려는 취지로 추진되었다. 이에 행안부 산하로 출범되는 ‘경찰국’은 경찰의 인사와 예산권을 거머쥐면서 경찰청 ‘옥상옥’이라는 우려와 동시에 이상민 행안부 장관 지휘권 남용에 관련하여 지적 되고 있다. 그럼에도 이상민 장관이 총경회의를 ’12.12쿠데타’와 비교하거나 ‘대기발령 조치’를 내리는 등 강경 태도를 보이며 시행령 개정으로 일방적 드라이브를 거는 정부에 대해 정치권이나 시민단체가 반발하며 문제 삼고 있다. 설상가상 행안부는 부처별 업무보고에서 ‘경찰국’ 신설에 이어 경찰대 카르텔 문제를 명분으로 ‘경찰대 개혁’ [대정부질문] ‘사실상 청문회’ 박순애 교육장관 “박사학위 논문 중복 게재, 당시 관행” [고승우 칼럼] 세금과 ‘카더라’가 심했던 두 사건 논란 그리고 통일부 행안부, 경찰국 신설 이어 경찰대까지…"경찰대 졸업후 바로 경위 임관 불공정" 김연철 전 통일부 장관 어제 귀국…"딸 만나기 위한 정례적 일정", '도피성 출국' 관측 일축 폴리TV 더보기 [폴리TV][스페셜 인터뷰]② 이용섭 전 광주시장 “국가균형발전 핵심 정책으로 초광역화 사업 반영돼야” [폴리TV][스페셜 인터뷰]① 이용섭 전 광주시장 “尹정부, 부자감세 비판 면하기 어려워… MB정부 낙수효과 실패 교훈 삼아야” [폴리TV][김능구의 정국진단]이원욱 의원② “윤석열 지지율 20%대까지 떨어질 것…사회적 대타협 국민통합 필요” [폴리TV][7월 좌담회④] “어대명 수순의 민주당 전당대회, 무엇을 확인해야 하나” 매체소개 이용약관 개인정보취급방침 청소년보호방침 (책임자 : 한유성) 기사제보 이메일 무단수집거부 (07327) 서울 영등포구 여의나루로 71 동화빌딩 1607호 | 대표전화 02-780-4392등록번호 : 서울아00050 | 등록일자 : 2005년 9월 12일 | 발행인 : (주)이윈컴 김능구 | 편집인 : 박혜경 폴리뉴스의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright © 2000 (주)이윈컴. All rights reserved. mail to polinews@polinews.co.kr UPDATE: 2022년 07월 27일 23시 18분 최상단으로</t>
   </si>
   <si>
-    <t>미주중앙일보 - 미주 최대 한인 뉴스 미디어 지역 홈 ENGLISH 미주중앙일보 - 미주 최대 한인 뉴스 미디어 지역별 뉴스를 확인하세요. 지역 홈 LA중앙일보 뉴욕중앙일보 애틀랜타중앙일보 시카고중앙일보 워싱턴중앙일보 덴버중앙일보 샌디에고중앙일보 밴쿠버중앙일보 토론토중앙일보 한국중앙일보 많이 본 뉴스 펼쳐보기 닫기 네이버, 16억불 '빅딜'…북미 1위 패션 플랫폼 인수-중고 거래 시장도 접수한다 네이버가 2조3000억원대 규모의 대규모 M&amp;A를 단행했다. 네이버는 미국 내 자회사를 통해 북미 최대 패션 C2C 커뮤니티 포쉬마크(Poshmark)의 지분 100%를 인수한다고 4일 공시했다. 취득금액은 2조3441억원이다. 내년 1분기 내 인수작업이 완료될 예정이다. 네이버는 이번 포쉬마크 인수를 통해 C2C 시장의 핵심지인 북미 지역을 거점으로 한국·일본·유럽을 잇는 글로벌 포트폴리오를 구축하게 된다. 양사는 북미 지역 MZ 세대를 중심으로 확산되고 있는 웹툰과 왓패드를 중심으로 한 스토리 및 엔터테인먼트 사업과 포쉬마크를 ... &lt;속보&gt;샌타모니카 칼리지 성폭행 사건 범인은 재학생 인플레법 우려 현실화…美서 현대차 아이오닉 판매 크게 감소했다 LA카운티 개솔린값 사상 최고가 경신 전자신문 문화센터 마켓세일 구인 맛집 산다라박, 아이유·이효리 이어 재산 3위..300억 보유설 밝힌다 밀피타스시 한글 창제 기념식…재외동포재단·SF총영사관 패턴부터 프로덕션까지 의류업계 무료 직업교육 "낙태 이슈는 판단보다 책임의 관점으로 접근해야" 기시다 일본 총리 "北미사일 발사는 폭거…강하게 비난" 北미사일 일본열도 통과…홋카이도에 피란 지시도 “코로나 치료제랑 같이 먹으면 안 돼요” 금기약 어떤 것 있나 CDC, 코로나19 관련 여행경보 공지 안한다…"데이터 부족" [영상] LA 챗스워스 지역 곰 출몰...집 마당에도 들어와 "여자축구 성추행 뿌리 깊은 악습"…조사 보고서 공개 해킹된 LA통합교육구 학생 학부모 정보, 해커들이 다크웹에 일부 공개 손태영, ♥권상우를 낳았네..14살에 183cm 父 닮아 듬직 ‘닥터 둠’도, 낙관론자도 "지금은 주식 살 때" 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 뉴욕증시, 10월 첫 거래일에 상승…다우 2.66%↑마감 평균 몸무게 90㎏인데…좁은 비행기 좌석 불만에 새 기준 검토 ‘재미교포♥’ 박은지, 밤 11시 30분 경비실 인터폰에 불쾌 “너무 무례한 거 맞죠?” 푸틴과 "만세" 안 외쳤다…병합선언 날 '무표정 관중들' 정체 ‘한국 거주자’ 되면 시민권자도 주택 비과세 은퇴후 드림 하우스 산다고? 꿈 깨라! 트럼프측에 넘어간 '바이든 아들의 급소'…11월 8일, 운명의 날 허리케인 생방중 카메라맨이 사라졌다..물에 뛰어든 이유 트럼프, CNN 명예훼손 소송…"히틀러 비유해 대선 출마 훼방" 칼 든 검사, 조종석엔 김건희...고등학생이 그린 '윤석열차' 논란 '안전한 무단횡단' 처벌 안 한다…내년부터 시행 플로리다, 허리케인 이언 사망자 100명 넘어…바이든 5일 방문 한국, 요양병원 대면면회 재개…외출·외박도 허용 킴 카다시안, 인스타에 이글 올렸다가…벌금 18억 폭탄 맞았다 "귀신같은 꿀빨러" 이준석 팬도 혀 내두른 이재명 심야트윗 유튜브 자동추천 없어지나…대법, 'SNS업체 면책권' 심리키로 비디오 [영상] 23년 만에 졌다고…축구장 난동에 125명 사망 참사 [영상] LA 챗스워스 지역 곰 출몰, 집 마당에도 들어와 [영상] WEST LA서 소화기로 여성 머리 가격하고 도망... [영상] '김치 품은 와플'…미국 K푸드 요리대회 우승 메뉴 보니 오피니언 [중앙칼럼] 달라지는 아시아계 이미지 장연화 사회부 부국장 [오픈 업] 조절 안되는 ‘감정의 병’ 수잔 정 소아정신과 전 문의 자바시장 한인 업주, 대낮 강도에 흉기 피살 "새차 샀다" 자랑 2주뒤…수퍼카+ 롤스로이스 400만불어치, 침수차 됐다 410만 가구 자녀세금크레딧 못 받았다 생리의학상 수상 페보, 2대째 노벨상 '가문의 영광' 인도네시아 축구장 참사에 아동·청소년도 참변…32명 숨져(종합) '설날'도 캘리포니아 명절 됐다…음력설 공휴일로 지정, 왜 "무게 170g" 이스라엘 유적지서 동로마시대 금화 와르르 오늘 새벽 요바린다서 3.1 지진 발생 푸틴 동원령에 20대 래퍼 극단선택 "누굴 죽일 준비 안됐다" "막내 아들뻘, 곱게 봐달라"…37세차 연상연하 유튜버 혼인신고 사회한미통일한마음포럼 외교안보 강연회 사람·커뮤니티인천상륙작전 72주년 기념식 사회"사람 대접 받으니 행복해" 학대 노인 옆서 11년, 미숙씨 소원 국제추락 소녀 구했더니…中영웅에 "엉덩이 만졌잖아" CCTV 발칵 국제최루탄 피하려다 뒤엉켜…지옥이 된 인도네시아 축구장 The Korea Daily ABOUT ADVERTISING SUBSCRIPTION PRIVACY POLICY TERMS OF SERVICE HELP &amp; CONTACT 윤리경영 고객센터 © Joongangilbo USA. All Rights Reserved. 690 Wilshire Place Los Angeles, CA 90005 TEL. (213) 368-2500 FAX. (213) 389-6196</t>
-  </si>
-  <si>
-    <t>[인사] 제주도관광협회 &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 [인사] 제주도관광협회 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 [인사] 제주도관광협회 기자명 문서현 기자 입력 2019.01.02 17:04 수정 2019.01.02 17:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ■승진▲제주종합관광안내센터장 양승필 ▲수도권홍보사무소장 문창보 ▲영남권홍보사무소장 신석민 ▲호남권홍보사무소장 강문기 ▲성산포안내소 팀장 함승훈 ▲경영지원실 시설관리팀장 권기운 ▲해외마케팅팀 주임 박유라　■전보▲회원지원국장 홍석균 ▲해외마케팅실장 김창효 ▲해외마케팅팀장 김종훈 ▲회원관리팀장 문경진 ▲회원지원팀장 문명호 ▲국내마케팅1팀 팀장 이태암 ▲종합관광안내센터 부소장 이지영 ▲온라인사업실 상품운영팀장 강현부 ▲조사연구실 기획팀장 현혜연 ▲회원지원팀 주임 박장성 ▲종합관광안내센터 주임 이영훈 ▲조사연구실 기획팀 주임 한유석 ▲국내마케팅1팀 김지현 ▲경영지원팀 고영민 ▲조사연구팀 함진실 ▲영남권홍보사무소 김태현 ▲해외마케팅팀 강근혁 ▲종합관광안내센터 권은혜 박기림 이연경 ▲성산포안내소 안선영 ▲경영지원실 장경연 현미선　■신규▲조사연구실장 부석현 ▲온라인사업실장 김철휘 ▲온라인사업실 금나라 이은민 유승태 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회 새해 입도 관광객 맞이 환영행사 &lt; 실시간뉴스 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 10:03 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 새해 입도 관광객 맞이 환영행사 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 실시간뉴스 제주도관광협회 새해 입도 관광객 맞이 환영행사 기자명 진기철 기자 입력 2019.01.02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회는 2019년 기해년(己亥年) 새해 첫날을 맞아 제주국제공항, 제주연안여객터미널에서 첫 입도 국내·외 관광객 환영행사를 개최했다.도 관광협회는 새해 첫날 제주를 방문한 관광객과 도민들을 대상으로 삼다수와 기념품(복주머니)를 제공하며 환영 메시지를 전달했다.특히 1일 제주공항 국내선을 이용해 새해 처음 제주에 입도한 김성주씨(서울), 국제선 왕훈씨(중국)를 비롯해 제주연안여객터미널 첫 입항객 김남희씨(광주광역시 광산구) 등에게 제주여행 상품권과 꽃다발 등의 기념품을 전달했다.또한 제주공항 국내선 도착 게이트에서는 ‘기해년 새해 첫 행운을 잡아라’ 이벤트 존을 운영해 분위기를 북돋았다.한편 제주도관광협회는 올해 빠르게 변화하는 관광트렌드에 걸맞은 다양한 콘텐츠 발굴에 전력을 기울여 나갈 계획이다. 진기철 기자 jjphoto@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 도내 미취업청년 8365명에 42억원 재난지원금 지급 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 2021년 제주관광수입 6조3402억 원 추계 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 코로나 빗장 풀리자 일본으로…제주 관광업계 ‘전전긍긍’ 포토뉴스 도내 미취업청년 8365명에 42억원 재난지원금 지급 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 2021년 제주관광수입 6조3402억 원 추계 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+    <t>미주중앙일보 - 미주 최대 한인 뉴스 미디어 지역 홈 ENGLISH 미주중앙일보 - 미주 최대 한인 뉴스 미디어 지역별 뉴스를 확인하세요. 지역 홈 LA중앙일보 뉴욕중앙일보 애틀랜타중앙일보 시카고중앙일보 워싱턴중앙일보 덴버중앙일보 샌디에고중앙일보 밴쿠버중앙일보 토론토중앙일보 한국중앙일보 많이 본 뉴스 펼쳐보기 닫기 美유통업계, 재고 부담에 '블프' 6주전부터 조기 세일 개시 올해 '블랙 프라이데이'(11월 25일)까지 6주 이상 남았지만, 미국 소매상들이 앞다퉈 할인행사를 하기 시작했다고 월스트리트저널(WSJ)이 10일(현지시간) 보도했다. 이는 최근 치솟는 인플레이션(물가 상승)과 세계 최대 전자상거래업체인 아마존과의 경쟁 등에 따른 것이라고 WSJ은 설명했다. 미국 대형 유통업체 타깃은 이날부터 블랙 프라이데이까지 일부 전자제품과 장난감을 50% 할인 판매하는 등 블랙 프라이데이 세일을 시작한다고 발표했으... 민간인을 향한 푸틴 보복에 우크라 12곳 도시가 불탔다. 아이폰 들고 놀이기구 탄 치과의사…잠금화면 알림 보고 당황 '베이조스 우주여행' 1년후 고백…"내가 본 것은 죽음, 장례식" 전자신문 문화센터 마켓세일 구인 맛집 북한 “사상 처음” 전투기 150대 다 끌어모아 무력시위 설문 ▶ LA시장 선거.. 당신의 선택은 누구? '음주측정 거부' 신혜성 체포…도난차량 타고 한복판서 잤다 '풀소유' 논란 후 사라진 혜민스님, 2년 만에 포착된 근황 JP모건 CEO "6∼9개월 내로 세계 경기침체 올 것" 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 선우은숙 재혼…4세 연하 유영재 아나운서와 새 출발 모두 전기차 올인할 때…도요타는 다른 차 키운다, 왜 "있을 수 없는 만행"…G7 오늘 젤렌스키와 화상회담 놀이터에 떨어진 미사일, 다시 일상 깨진 키이우 10대 떼강도에 아시안 업주 또 사망 [소셜연금 전략] 배우자연금·수령시기 조정해 극대화 가능 공효진 내일 품절녀 된다…10살 연하 케빈오와 뉴욕서 결혼 미국 공항 웹사이트, 러 해커 사이버 공격받았다 마이크로닷, '빚투' 부모 추방 후..베트남 활동→'복귀' "사우디는 美 속국 아니다, 다 바이든 탓" 트럼프 측근의 공격 드라마 주인공이 아이돌 출신이면 생기는 일 "3천만원 주얼리? 싸다" 엄지원, '건방' 너스레 '트럼프 픽' 92% 경선 통과...그런데 민주당 웃는 이유 미국 FDA, 임신 중 백일해 예방 백신 접종 승인 미사일 75발 '푸틴의 보복'...'삼성 건물'도 당했다 '암 키우는 습관' 먹고 눕기…식도·위·장 뒤집어져 최악 상태는 [건강한 우리집] 죽음 앞둔 아내의 첫사랑 찾는 여정…류승룡도 반한 명소는 가출신고 하라더니…'중학생딸과 성관계' 태권도 사범 "사랑해서" 스무살 김주형 또 우승, 우즈 이후 26년 만에 21세 이전 2승 모르고 내는 구독 서비스료 ‘눈덩이’ 광고비 준다는 유튜브, 상금 건 틱톡…몸값 치솟은 크리에이터 EPL 불평하는 스타 선수에게 손흥민이 한 말은 화장실 기어간 큰딸만 살았다…무주 일가족 5명 가스중독 참변 아마존, 1조여원 투자해 유럽서 배달용 EV 1만대로 확대 비디오 [영상] 1살 아들을 '인간방패'로..미국 사회 공분 [영상] '수업 어렵다'는 원성에.. 뉴욕대, 40년 경력 교수 해고 [영상] 방송서 갑자기 종적 감춘 조형기, 미국서 뜻밖의 근황 [영상] 납치된 일가족 모두 숨진 채로 발견돼 오피니언 [중앙 칼럼] 우려되는 ‘디지털 편식’ 김병일 뉴스랩 팀장· 부국장 [열린 광장] 10월을 노래한다 윤경중 연세목회자회 증경회장 "디스크 고쳤다" 난리 난 악어걸음…절대 하면 안 되는 사람 바이든, 러 미사일 공격 규탄…“푸틴의 잔인함 다시 보여줘” “전기차 구입 보조금 부유층이 내라” 물가 상승에 여행 일정 바꾼다 프로암 파티도 없는 제네시스 챔피언십…6개 브랜드 공 왜? 그리피스 파크 뺑소니 사망…언쟁 후 차로 치고 달아나 방탄유리에 총격 대비 훈련까지…중간선거 보안 강화 “표범 아니에요” 기네스북 오른 최장신 고양이 “온순한 성격” 유학생도 아닌데 비자가 있어?…흔한 대입 지원서 실수 80대 노모 생신 모였다가…사위·딸·손녀 5명 참변 사회차 없는 LA다운타운 쾌청한 하늘 경제한인 마켓 핼러윈 마케팅 사람·커뮤니티생명의 전화 창립 24주년 사람·커뮤니티필즈상 수상 허준이 교수, 한인과학자협회와 간담회 문화·예술해외문학상 시 부문 대상 나두섭 시인 The Korea Daily ABOUT ADVERTISING SUBSCRIPTION PRIVACY POLICY TERMS OF SERVICE HELP &amp; CONTACT 윤리경영 고객센터 © Joongangilbo USA. All Rights Reserved. 690 Wilshire Place Los Angeles, CA 90005 TEL. (213) 368-2500 FAX. (213) 389-6196</t>
+  </si>
+  <si>
+    <t>[인사] 제주도관광협회 &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 [인사] 제주도관광협회 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 [인사] 제주도관광협회 기자명 문서현 기자 입력 2019.01.02 17:04 수정 2019.01.02 17:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ■승진▲제주종합관광안내센터장 양승필 ▲수도권홍보사무소장 문창보 ▲영남권홍보사무소장 신석민 ▲호남권홍보사무소장 강문기 ▲성산포안내소 팀장 함승훈 ▲경영지원실 시설관리팀장 권기운 ▲해외마케팅팀 주임 박유라　■전보▲회원지원국장 홍석균 ▲해외마케팅실장 김창효 ▲해외마케팅팀장 김종훈 ▲회원관리팀장 문경진 ▲회원지원팀장 문명호 ▲국내마케팅1팀 팀장 이태암 ▲종합관광안내센터 부소장 이지영 ▲온라인사업실 상품운영팀장 강현부 ▲조사연구실 기획팀장 현혜연 ▲회원지원팀 주임 박장성 ▲종합관광안내센터 주임 이영훈 ▲조사연구실 기획팀 주임 한유석 ▲국내마케팅1팀 김지현 ▲경영지원팀 고영민 ▲조사연구팀 함진실 ▲영남권홍보사무소 김태현 ▲해외마케팅팀 강근혁 ▲종합관광안내센터 권은혜 박기림 이연경 ▲성산포안내소 안선영 ▲경영지원실 장경연 현미선　■신규▲조사연구실장 부석현 ▲온라인사업실장 김철휘 ▲온라인사업실 금나라 이은민 유승태 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
   </si>
   <si>
     <t>동해ㆍ울진ㆍ울릉도ㆍ제주도 ‘제2회 2019 국내관광 설명회’ 개최 TtL News 티티엘뉴스 Login | Join HOME. 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. News Category 뉴스 카테고리 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. Home 국내여행 | 레저 전체보기 여행지 테마|즐길거리 골프/레저 맛집 호텔/리조트 축제/공연/이벤트 국내여행팁 English news 목록 동해ㆍ울진ㆍ울릉도ㆍ제주도 ‘제2회 2019 국내관광 설명회’ 개최 한국관광협동조합, 동해시, 울진군, 한국드림관광, 제주글로벌여행 공동 주최 마포가든호텔에서 300여 명 참석해 성황 이뤄 2019-01-29 14:16:16							, 수정 : 2019-01-29 14:47:13							 | 이상인 선임기자 [티티엘뉴스] 수도권 관광객 여러분 “꿈결같은 낭만여행” 동해시, “숨 쉬는 땅 여유의 바다” 울진군, “신비의 섬” 울릉도·독도, “천혜의 자연경관을 자랑하는” 제주도로 놀러 오세요. ▲ ‘제2회 2019 국내관광 설명회’의 모습 한국관광협동조합(이사장 이정환), 동해시(시장 심규언), 울진군(군수 전찬걸), 한국드림관광(회장 이정환), 제주글로벌여행(대표 김석만)은 오늘(29일) 오전 11시 서울 마포 가든호텔 대 연회장에서 ‘제2회 2019 국내관광 설명회’를 공동 주최로 개최했다. ▲ ‘제2회 2019 국내관광 설명회’에서 환영사를 하고 있는 이정환 한국관광협동조합 이사장 ▲ ‘제2회 2019 국내관광 설명회’에서 축사를 하고 있는 김종문 동해시 부시장 ▲ ‘제2회 2019 국내관광 설명회’에서 축사를 하고 있는 권태인 울진군 부군수 ▲ ‘제2회 2019 국내관광 설명회’에서 권순천 동해시 관광과장이 동해시 홍보 영상을 설명하고 있다 ▲ ‘제2회 2019 국내관광 설명회’에서 박금용 울진군 관광문화과장이 울진 관광 홍보 영상을 설명하고 있다 ▲ ‘제2회 2019 국내관광 설명회’의 울진군 홍보영상 모습 ▲ ‘제2회 2019 국내관광 설명회’에서 울릉도, 독도에 관해 홍보를 하고 있는 이정환 한국드림관광 회장 ▲ ‘제2회 2019 국내관광 설명회’에서 울릉도, 독도를 홍보하는 한국드림관광의 홍보 영상 모습 ▲ ‘제2회 2019 국내관광 설명회’에서 제주도 홍보 영상을 설명하고 있는 제주글로벌여행 이태화 실장 ▲‘제2회 2019 국내관광 설명회’에서 제주도 홍보영상 모습 이날 설명회는 최영환 한국문화관광콘텐츠개발(주) 대표이사의 사회로 개회, 국민의례, 내빈소개, 이정환 한국관광협동조합 이사장(한국드림관광 회장) 환영사, 김종문 동해시 부시장 및 권태인 경북 울진군 부군수 축사, 오찬, 권순찬 동해시 관광과장의 강원도 동해시 영상 소개, 박금용 경북 울진군 관광문화과장의 울진군 영상 소개, 울릉도 소개, 제주도 소개순으로 진행됐다. ▲ ‘제2회 2019 국내관광 설명회’에서 함께 자리를 한 (좌로부터 이정환 회장, 김종문 동해시 부시장, 권태인 울진군 부군수) ▲ ‘제2회 2019 국내관광 설명회’에서 함께 자리를 한 김종문 동해시 부시장(좌로부터 네번째)을 비롯한 관광과 공무원 일동이 화이팅을 외치고 있다 ▲ ‘제2회 2019 국내관광 설명회’에서 함께 자리를 한 한국드림투어 직원 일동 ▲ ‘제2회 2019 국내관광 설명회’에서 인사말을 하고 있는 김석만 제주글로벌여행(주) 대표 한편, 이번 ‘제2회 2019 국내관광 설명회’에는 한국관광협동조합 회원사를 비롯한 여행업계 관계자, 시도 지자체 관계자, 관련 업계 임직원 및 언론사 등 약 300여 명이 참석해 성황을 이뤘다. 이상인 선임기자 lagolftime@ttlnews.com 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 관련기사 문체부, 2019-2020 한국관광 100선 선정 ‘2018 한국관광의 별’이 탄생했다 넌버벌 퍼포먼스 ‘플라잉’ 환호 속 울릉도 첫 공연 목록 엔터테인먼트 트렌드 이슈 관광항공인&amp;인터뷰 회사소개 ｜ 광고·제휴문의｜ 회원약관｜ 개인정보취급방침｜ 기사제보 | (주)여심 | 서울, 아03649 | 등록일자: 2015년 3월 25일 | 제호: 트래블투라이프(Travel to Lifestyle·티티엘뉴스) | 발행·편집인: 편성희 | 편집장: 정연비 | 청소년보호책임자: 편성희 | 발행일자: 2015년 1월 5일 편집/제작국: 02)6354-4608, ttlnews@ttlnews.com 광고/콘텐츠사업국: 02)6354-4609, ads@ttlnews.com 서울특별시 종로구 세종대로 149 광화문빌딩 20층 HJBC 2134호 티티엘뉴스는 인터넷신문위원회의 기사 및 광고부문 자율규약 준수를 동의한 서약사입니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정연비 02-6354-4608 ttlnews@ttlnews.com 티티엘뉴스의 모든 콘텐츠는 저작권법의 보호를 받은바, 무단 전재·복사·배포 등을 금합니다. Copyright by TtL news × 유투브 동영상 삽입 가이드 삽입하고자 하는 유투브 동영상의 페이지로 접속하신 후에, 동영상 밑에 있는 '공유' 버튼을 누릅니다. '공유'버튼을 누르면 나오는 탭들 중에 '소스코드'를 선택하시고 해당 소스코드를 복사하신 후 게시판에 붙여넣기 합니다. 닫기 × 뉴스 검색 닫기</t>
   </si>
   <si>
-    <t>‘관광지 된’ 이효리♥︎이상순 부부, 제주도 집 결국 이사 결정까지 하게 된 이유는? - 권미성 기자 - 톱스타뉴스 × 전체기사 엔터 전체 가요 방송 영화 셀럽 문화/예술 사회 전체 사건사고 충격사건 사건일지 주요일정 코로나19 환경 국제 전체 해외연예 분쟁 해외토픽 코인 증시 바이오 정치 전체 여당근황 야당근황 국방 북한 외교 연예가소식 전체 가요 방송 영화 경제 전체 기업 증시-코인-복권 부동산 코인 산업 전체 증시 바이오 문화 전체 스타SNS근황 방송정보 생활정보 가상화폐 정치인SNS 커뮤니티 바이오-헬스 이슈영상 라이프 전체 맛집-레시피 뷰티 스포츠 과학/IT 패션 전체 서울패션위크 인사/동정/부고 전체 인사 부고 동정 포토DB 뉴스 머니 전체 퀴즈 보도자료 전체 연예 경제 사회 스포츠 뉴시스 연합뉴스 전체 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 로고 UPDATED. 2022-10-04 10:17 (화) 인터넷신문위원회 윤리강령을 준수합니다 8월 27일 독자추천종합순위 1위 이찬원, 2위 영탁에 3,502표 앞서 가요 방송 영화 셀럽 인터뷰 현장리포트 무비포커스 기획 HD포토 HD동영상 F레터 이슈 리부트 이슈종합 공식입장 로그인 검색버튼 기사검색 검색 1[최고의앨범] 26일 하루 득표량 순위는 영탁(22.9%)·장민호(15.0%)·이승윤·송가인·김기태·김희재·갓세븐 뱀뱀·양준일·박서진·이찬원 순 2[빅데이터가수브랜드 랭킹] 영탁 77회째 1위(2관왕), 송가인·이찬원·이승윤·장민호 TOP5…김기태·김희재·임영웅·트와이스 나연·방탄소년단 지민 뒤이어(39주차) 3[최고의앨범] 25일 하루 득표량 순위는 영탁(20.6%)·장민호(13.0%)·이승윤·송가인·김기태·양준일·김희재·갓세븐 뱀뱀·박서진·이찬원 순 4[브랜드파워] 26일 하루 득표량 순위는 영탁(25.5%)·김기태(24.9%)·이승윤·장민호·송가인·진해성·김희재·김태연·박서진·이찬원 순 5[최고의앨범] 27일 하루 득표량 순위는 영탁(21.6%)·장민호(17.9%)·이승윤·김기태·송가인·김희재·박서진·양준일·갓세븐 뱀뱀·박창근 순 6'따뜻한 국민형아' 영탁, '편스토랑' 깜짝 영상편지…"우리 사랑하는 윤성이 잘 다녀오라고 형이 응원 메시지 보낸다" 7[댓글 순위] 영탁 198회째 1위, 김기태·이찬원·강혜연·김희재 TOP5…방탄소년단 지민·진해성·전유진·박창근·방탄소년단 진 뒤이어 8[브랜드파워] 10월 브랜드파워 투표 시작…현재순위는 영탁(26.0%)·김기태(16.2%)·이승윤·양준일·장민호·진해성·송가인·박창근·김희재·박서진 순 9[최고의앨범] 28일 하루 득표량 순위는 영탁(21.2%)·이승윤(19.6%)·장민호·김기태·송가인·갓세븐 뱀뱀·김희재·박서진·양준일·박창근 순 10영탁, 팬모임 '하우탁' 포항 침수 세대 도배, 장판 성금 기부…'선한 영향력 전해' 가요 방송 영화 셀럽 현장리포트 스타포커스 무비포커스 인터뷰 HD포토 HD동영상 시상식 쇼케이스 이슈종합 공식입장 단독취재 기획 이슈 리부트 스타화보 스타출근길 엔터테인먼트 스포츠 전체기사 정치 사회 경제 국제 콘텐츠 구매 문의 기사제보 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 닫기 [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [TOP이슈] “결단코 안 했다”…박유천, 싸늘한 반응 속 복귀 [TOP이슈] ‘은퇴 번복’ 박유천, 영화 ‘악에 바쳐’로 복귀…10월 개봉 ‘관광지 된’ 이효리♥︎이상순 부부, 제주도 집 결국 이사 결정까지 하게 된 이유는? 권미성 기자 승인 2019.01.23 01:44 댓글 제보하기 반론요청 이 기사를 공유합니다 × 이효리-이상순 부부가 JTBC ‘효리네 민박’으로 인해 제주도 집이 공개됐다. 하지만 이효리-이상순 부부는 결국 이사까지 결정한 것이다. 이사까지 결정하게 된 이유는 심각했던 사생활 침해 때문이다. 이효리-이상순 부부 / 채널A 방송캡처 이효리-이상순 부부 근황은 아이유 콘서트에 게스트로 참여하기도 하며, 사진가 김태은 씨 SNS에 이효리-이상순 부부의 모습이 공개돼 화제를 모은 바 있다.권미성 기자 reporter@topstarnews.co.kr &amp;lt뉴스를 무단으로 유튜브 영상을 제작하는 것을 금지합니다. 발견 즉시 민형사상 제소합니다.&amp;gt Tag #이효리이상순부부 #이효리이상순근황 #이효리 #이상순 #제주도집 #이효리제주도 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 카카오톡 URL복사 이 기사를 공유합니다 × 이 기사를 추천합니다. 0 모두에게 알리고 싶은 뉴스라면 ? ‘이 기사를 추천합니다’ 버튼을 눌러주세요.추천을 많이 받은 기사는 ‘독자 추천 뉴스’에 노출됩니다. 전체 기사 보기 기사를 추천하면 투표권을 받을 수 있습니다. If you recommend an article, you can get a voting ticket. PC페이지에서 추천하면 투표권을 2개 지급합니다. If you recommend an article on the PC page, you will receive two voting tickets. 모바일 모드로 보기 Go to the Mobile page. &amp;lt저작권자 © 톱스타뉴스 무단전재 및 재배포 금지&amp;gt 2019/01/23 01:44 송고&amp;nbsp&amp;nbsp|&amp;nbsp&amp;nbspreporter@topstarnews.co.kr 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 [F레터] 팬들의 사연을 보도합니다. 스타서베이 공지 보러 가기 [공지]독자추천·댓글순위·리트윗순위 독자추천뉴스 ㅣ 댓글많은뉴스 ㅣ 트위터 경력기자 ㅣ 신입기자 ㅣ 신문사소개 윤리강령 보도/편집 규약 불편신고 청소년보호정책 이메일무단수집거부 기사제보 광고문의 콘텐츠제휴문의 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 취재본부 : 02-3443-4662, 제보메일 reporter@topstarnews.co.kr 신문등록번호 : 서울 아 01403, 신문등록일 : 2010-11-09 발행소 : 서울특별시 강남구 학동로30길 14 이세빌딩 2층 추천기사 메이크업아티스트 홍현정, 이효리♥이상순 부부에게 감동받아 눈물 흘린 사연은? 이효리 “나 지금 57kg” 솔직 고백… ‘특유의 털털한 매력 선보여’ 이효리, 과거 김제동과 함께 찍은 등산 인증샷 눈길…‘둘의 나이 차이는?’ 이효리, 근황 공개돼…절친 유튜브 채널 출연까지 “나이 40대가 되면 모두 싫다” ‘효리네 민박2’ 이효리♥이상순, “윤아 없으면 민박집 어떻게 하냐” 아쉬움 토로 해외토픽 러시아와 전쟁중인 우크라이나 키이우 상공에 UFO 출현 인도 여성, 15개월 아이 구하려 맨손으로 호랑이와 사투 미국 미술전서 인공지능이 그린 그림이 1위…"이것도 예술인가" 논란 NASA 블랙홀 소리 공개…'지옥의 소리' '우주 호러' 독일서 여성 2명, 총리 앞 '상의 탈의' 시위…"러시아 가스 금수하라. 푸틴에게 돈을 주지 마라" 2배로 커진 칠레 미스터리 싱크홀…지름 50m 깊이 200m 미국 구치소에서 "男죄수들 女구치소 습격·집단 성폭행…1천달러에 교도관 매수" 미국 메가밀리언 복권 29회 동안 1등 없어, 다음 1등은 1조3천억원…복권 구매 줄이어 중국, 생방송 인플루언서 불붙여 살해한 전 남편 사형 집행 "빅토리아 시크릿과 성범죄자 엡스타인 추악한 연결 고리나와" F레터 F레터 공지 [F레터] 다산의 숨결이 느껴지는 그곳에 진해성 가수가 간다 [F레터] 김기태의 노래와 함께한 10개월…겨울 같은 마음에 봄날을 선물한 노래 [F레터] 해성사랑의 카리스마 진해성…메말라있는 감성이 살아날때 그의 향기가 펴진다 [F레터] 진해성 가수를 향한 그리움 가득한 노르웨이에서 온 편지 [F레터] 진해에 진해의 별이 떳어요…″합!합!합! 바람고개 진해성″ 독자 추천 뉴스 1 1280 [최고의앨범] 26일 하루 득표량 순위는 영탁(22.9%)·장민호(15.0%)·이승윤·송가인·김기태·김희재·갓세븐 뱀뱀·양준일·박서진·이찬원 순 2 1270 [빅데이터가수브랜드 랭킹] 영탁 77회째 1위(2관왕), 송가인·이찬원·이승윤·장민호 TOP5…김기태·김희재·임영웅·트와이스 나연·방탄소년단 지민 뒤이어(39주차) 3 1219 [최고의앨범] 25일 하루 득표량 순위는 영탁(20.6%)·장민호(13.0%)·이승윤·송가인·김기태·양준일·김희재·갓세븐 뱀뱀·박서진·이찬원 순 4 1205 [브랜드파워] 26일 하루 득표량 순위는 영탁(25.5%)·김기태(24.9%)·이승윤·장민호·송가인·진해성·김희재·김태연·박서진·이찬원 순 5 1185 [최고의앨범] 27일 하루 득표량 순위는 영탁(21.6%)·장민호(17.9%)·이승윤·김기태·송가인·김희재·박서진·양준일·갓세븐 뱀뱀·박창근 순 댓글많은뉴스 1 350 영탁, '신랑수업' 탁멍을 불러오는 나 홀로 촌캉스 즐기는 '귀여운 시골 삼촌'…'하와이 뺨치는 대야 물놀이 유행 조짐' 2 300 '또 우승' 김기태, "하고 싶은 이야기가 너무 많아" 팬들에게 꺼낸 진심 3 288 '따뜻한 국민형아' 영탁, '편스토랑' 깜짝 영상편지…"우리 사랑하는 윤성이 잘 다녀오라고 형이 응원 메시지 보낸다" 4 286 [스타포커스] 가수 김기태, 오랜 무명 생활 끝→‘싱어게인2’로 맞이한 전성기 5 257 "이 맛이 영탁 라거다" 영탁, '신랑수업' 촌캉스 풀빌라 룸서비스 즐기는 살림 9단의 영탁의 맛 Instagram에서 이 게시물 보기 톱스타뉴스(@topstarnews)님의 공유 게시물 이슈 1 "와이프-엄마도 몰랐나" 돈스파이크, 과거 대마로 징역형 '대중 기만 논란' 2 [TOP이슈] ‘마약 혐의’ 돈스파이크, 와이프→여동생-어머니까지…가족 공개 어쩌나 3 [TOP이슈] '마약 투약 혐의' 이상보, 무혐의 처분…"처방내역 분석" 4 배우 박민영, 강씨와 결별→친언니 사외이사 사임 발표…‘이미지 타격’ 불가피 5 "이미 이별" 박민영, 강종현과 열애설 이틀만에 '손절' 이유 6 이정재-정우성 측 '박민영 열애설' 재력가 회사 투자? "전혀 관련없다" 7 [2년 전 오늘] 블락비 박경, '학폭' 논란 인정→군 입대…최근 근황은? 8 [TOP이슈] ‘필로폰 혐의’ 돈스파이크, ‘오은영의 금쪽상담소’ 출연 이유도 의심 9 의문은 계속…배우 박민영, 강종현과 열애설 ‘이틀째 침묵’ 10 배우 박민영 측, “재력가와 열애? 확인 중” 11 [TOP이슈] 탑-박유천-정일훈 등, 연예계 마약 파문 계속 12 [TOP이슈] 용준형-로이킴, '정준영 단톡방' 파문→나란히 컴백…사건 다시 보니? 13 남궁민♥진아름, 10월 결혼한다…나이차-애칭 '재조명' 14 "와이프 어쩌나" 돈스파이크, 호텔서 남녀 필로폰 파티…방송가 '손절' [TOP이슈] 15 [TOP이슈] 배우 김선호, '사생활 논란' 이후 연극 복귀→12월 팬미팅 이슈영상 1 코로나 봉쇄로 외출 못하게 대문까지 용접한 중국, 한달 지나서 공개된 용접 영상 집가다 방역 요원에게 봉변까지 이슈종합 [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '연습생 출신' 한서희, 3번째 마약 혐의도 모르쇠…선고 당일 항소 [이슈종합] ‘음주운전’ 배우 곽도원, 차기작 빨간불…‘소방관’ ‘빌런즈’ 어쩌나 [이슈종합] '프듀101' 출신 정중지 여동생, 고인 인스타 계정 공개…생전 모습 눈길 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] 유승준, 비자 재소송 2심 첫 재판…法 "재외동포인가?" 지적 ‘지숙 남편’ 이두희 측, 메타콩즈 임금 미지급 논란→법적 대응 검토 [이슈종합] [이슈종합] 가수 양준일, '엉터리 라벨' 선캡…결국 행정조치 받는다 [이슈종합] ‘살림남’ 제작진, “포경 수술? 자발적 의사결정…제작진 개입 없어” 해명문 기획 [TOP초점] 방탄소년단(BTS) 부산 콘서트, 10만명 운집 괜찮을까 [TOP초점] 먹방으로 흥한 성훈, '줄 서는 식당' 매너 논란으로 '뭇매' [TOP리뷰] 힐링 드라마라던 '우영우', 길 잃은 자폐 설정-'갑분' 러브라인에 발목 [내돈내산⑦] "기자도 사봤다" 영탁 17년 만의 첫 번째 단독 콘서트! 'TAK SHOW' 네번째 이야기 ″쏘스윗 실버보이스″ 방탄소년단 진, '믿고 듣는 실버보이스' 베니 블랑코•스눕독 협업곡 '배드 디시전스' 공개 중요기사 [종합] ‘오은영 리포트’ 김응수X하하, 선 넘은 남편의 눈물에 아빠 공감…오은영은 “게임 중독 아니고 우울증” 솔루션은? [종합] ‘프리한19’ 전현무X오상진X한석준, 과학적 저주-소변 참으면 거짓말 잘한다?-롤러코스터 결석 제거?-아세트 아미노펜 마음 진통제 [종합] ‘안다행’ 리헤이, 제주도 출신 비 온 뒤 바다에서 낙지-광어 맨손으로 잡아 붐X안정환은 모니카 밖에서는 애기 같아 [종합] '구해줘! 홈즈' 오마이걸 미미, 배우 이정현 상대로 승리…7호선 매매 매물 찾기, '철산역 대단지 아파트' 우승 [종합] ‘SBS 스페셜-국과수-첫방’ 죽음의 추적자, 시신 냄새-화재 현장-혈흔 가득 사건 현장… 6개월 밀착 취재 충격사건 등굣길 초등생 집으로 끌고가 성폭행한 80대, 징역 20년 구형…"사전에 비아그라 준비" 30대 남성 인천공항서 중요부위 자해…승객들 큰 충격 미성년자 꾀어 성착취물 찍게 한 초등교사, 항소심 '징역 18년' ↑…피해자 120여 명 여친 목졸라 살해하고 시신 옆서 영화보며 식사하고 이틀 지낸 20대 징역 30년 미성년 처조카와 처남댁 강제 추행하고 성폭행한 40대 공무원, 항소심도 징역 10년 노예처럼 산 유흥업소 감금·폭행 여종업원들, 속옷만 입은 채 쇠사슬과 개 목줄 몸에 감고 꼼짝 못해 폭행 신고했다고 사실혼 아내 입에 소변 본 남편, 보복상해·보복협박·보복폭행 혐의로 징역 3년 제주서 초등생 어린 조카 상대 10년 동안 성폭행 50대 징역 7년 7년간 미성년 의붓딸 21차례 성폭행한 40대 징역 20년…첫 범행 당시 의붓딸은 9세 "엄마한테 말하면 죽어" 의붓딸 7년간 상습 성폭행, 징역 20년 페이스북 트위터 네이버 인스타그램 카카오스토리 유튜브 웨이보 취재본부 : 02-3443-4662 매체소개 광고안내 콘텐츠 구매 문의 기사제보 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. (주)소셜미디어네트웍스 신문등록번호 : 서울 아 01403 신문등록일 : 2010-11-09 제호 : 톱스타뉴스 발행인 : 장영권 편집인 : 김명수 발행일자 : 2010-09-06 발행소 : 서울특별시 강남구 학동로30길 14 (두원건설빌딩) 2층 (우) 06105 주사무소 또는 발행소의 전화번호 : 02-3443-4662 팩스 : 02-525-4661 청소년보호책임자 : 최규석 [열린보도원칙] “당 매체는 독자와 취재원 등 뉴스이용자의 권리보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. reporter@topstarnews.co.kr, *제보하기 *반론요청 윤리강령 보도/편집 규약 청소년보호정책 개인정보취급방침 이메일무단수집거부 독자투고 고충처리/불편신고 Copyright © 2010 - 2022 톱스타뉴스 (TOPSTARNEWS.NET) 제휴통신사</t>
-  </si>
-  <si>
-    <t>[스마트여행] JTBC ‘효리네민박’ 이후 애월해안도로 등 제주도에 관광객 급증! - 스포츠Q(큐) × 전체기사 스포츠일반 전체 아마스포츠 농구 배구 골프 e스포츠‧게임 당구 테니스 격투기 경마·승마 미식축구 장애인스포츠 야구 전체 프로야구 해외야구 아마야구 리틀야구 축구 전체 K리그 대표팀 해외축구 아마축구 스포츠산업 전체 스포츠포럼 스포츠경영 스포츠정책 엔터테인먼트 전체 영화·드라마 가요 예능 방송·TV 문화일반 핫&amp;쿨Q 라이프 전체 식품‧음료 패션‧뷰티 유통‧물류 가전‧리빙 교육‧육아 의료‧건강 여행‧레저 금융·부동산 IT·자동차 대회·행사 산업일반 뉴스&amp;이슈 전체 시사Q 이코노Q 토픽세상 오피니언 포토 전체 야구 축구 스포츠일반 스포츠산업 컬처Q 글쓰는 사진기자 tvQ 전체 민기홍의 머니뭐니 랭킹 겸 차트 혹은 밸붕방지톡 UPDATED. 2022-10-04 10:28 (화) 기사검색 검색 스포츠 아마스포츠 농구 배구 골프 테니스 미식축구 격투기 장애인스포츠 e스포츠 경마 당구 야구 프로야구 해외야구 아마야구 리틀야구 축구 K리그 대표팀 해외축구 아마축구 스포츠산업 스포츠포럼 스포츠경영 스포츠정책 엔터 영화·드라마 가요 예능 방송·TV 문화일반 핫&amp;쿨Q 라이프 식품‧음료 패션‧뷰티 유통‧물류 가전‧리빙 교육‧육아 의료‧건강 재테크·주거 대회·행사 뉴스&amp;이슈 시사Q 이코노Q 토픽세상 오피니언 포토 야구 축구 스포츠일반 스포츠산업 컬처Q 글쓰는 사진기자 로그인 회원가입 RSS SNS 트위터 페이스북 블로그 스포츠Q 포스트 카카오스토리 플러스친구 매거진SQ 포스트 유튜브 네이버TV 이전 다음 [스마트여행] JTBC ‘효리네민박’ 이후 애월해안도로 등 제주도에 관광객 급증! 페이스북 트위터 카카오스토리 기사공유하기 상태바 HOME 라이프 [스마트여행] JTBC ‘효리네민박’ 이후 애월해안도로 등 제주도에 관광객 급증! 이두영 기자 승인 2019.01.09 00:35 댓글 0 기사공유하기 페이스북 트위터 카카오스토리 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [스포츠Q(큐) 이두영 기자] JTBC 일상생활 공개형 프로그램 ‘효리네민박’ 방영이 제주도 관광객을 100만 명 이상 늘렸다는 뉴스가 방영되면서 해당 숙소가 있던 제주시 애월읍과 제주도 서해안 일대 여행지들이 새삼 높은 관심을 끈다.효리네민박이 있던 위치는 경마공원인 렛츠런파크제주가 위치한 한라산 서쪽 중산간 마을이다. 제주시내에서 서귀포 대정읍 모슬포항으로 이어지는 간선도로 근처다.인근의 가볼만한 곳으로는 고려 대 삼별초가 몽골군에 저항해서 끝까지 싸웠던 항파두리 항몽유적지가 있다. 제주도 드라이브 코스로 유명해진 애월해안도로의 겨울 풍경. [사진=비짓제주]  애월은 제주올레 16코스로, 고내포구에서 시작된 올레길은 바다에서 육지로 쑥 들어간 애월읍 광령리로 이어졌다가 다시 외도포구로 나가서 이호테우해수욕장과 이호항, 도두항, 제주카페거리를 거처 횟집과 카페 등이 몰려 있는 탑동으로 연결된다.그러나 렌터카를 이용해 제주도 곳곳을 즐기는 여행자라면 해월해안도로 드라이브를 간과할 수 없다. 애월 해안 구엄·신엄포구에는 바다와노을, 밀포소펜션,남또리별장 등 분위기 좋은 숙소와 맛집이 즐비하며 펜션이나 게스트하우스 등에서 낙조를 보며 하루를 마칠 수도 있다.애월항에서 곽지해수욕장,한림항을 지나면 협재해수욕장과 금능석물원 등 명소가 나타나고 경사가 완만한 바다 앞에서는 화산섬 ‘비양도’가 다소곳한 표정으로 육지를 바라보고 있다.근처 한림읍 명월리에는 특이한 볼거리인 수백 년 묵은 팽나무 군락지(천연기념물 제19호)가 있다. 팽나무는 느티나무처럼 덩치가 큰 수종으로 폭낭,퐁낭 등 방언으로도 불린다. 더운 여름날 시원한 그늘을 선사하는 존재다. 명월리 중동마을에 흐르는 건천에는 팽나무 90여 그루를 비롯해 푸조나무,산유자나무,보리밥나무 등 노거수들이 무리지어 크고 있다. 1월에 개화 절정 시기인 제주도의 동백꽃. [사진=제주허브동산]한편 시기적으로 겨울의 한가운데인 요즘 제주도에는 곳곳에서 동백꽃이 만발해 1월 추위를 잊게 한다. 한림읍 ‘한림공원’, 서귀포시 안덕면 상창리의 ‘카멜리아힐’, 서귀포시 남원읍의 ‘동백포레스트’, 최고의 동백나무 군락지로 알려진 위미리 ‘제주동백수목원’과 ‘애기동백농원’, 조천읍 선흘리의 ‘동백동산’, '제주허브동산' 등에서는 지금 동백꽃 개화가 한창이다. 특히 선흘리 동백동산은 동백나무 10만여 그루가 자라는 거대한 상록활엽수 천연림으로 이달 말까지 동백축제가 벌어지고 있는 남원읍의 휴애리자연생활공원과 카멜리아힐 등 인공적인 동백숲에 비해 자연의 깊은 숨결을 흠뻑 느낄 수 있다. 한편 이효리-이상순 부부가 살던 애월읍 소길리의 한 전원주택은 JTBC 소유가 됐으며, 두 부부는 경기도의 모처로 주거지를 옮겼다. 방송 이후 효리네민박에 관광객들이 시도 때도 없이 방문하는 바람에 사생활 침해가 심해, 방송사 측에서 출연자의 일상과 콘텐츠 보호를 위해 민박집 부지를 아예 사들였고 이효리 부부는 아예 제주도를 떠난 것으로 전해지고 있다. Tag #효리네민박 #제주가볼만한곳 #제주도애월가볼만한곳 #애월맛집 #애월카페 #애월해안도로 #카멜리아힐 #제주동백군락지 #위미리동백군락지 #휴애리동백축제 도전과 열정, 위로와 영감 그리고 스포츠큐(Q) 저작권자 © 스포츠Q(큐) 무단전재 및 재배포 금지 트윗하기 이두영 기자 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기 인기기사 채팅 만남 男에게 수면제 먹이고 코인 빼돌린 간큰 女 대통령의 관심사, 토르티야 가격 내년 건강보험료율 인상, 직장인 얼마나 더 내나 지구는 대체 얼마나 아픈 걸까? 기후변화 심각 'TV 필수'라 생각하는 국민 비율 얼마나 될까 관련기사 [스마트여행]한국관광 100선에 충남 서해안의 안면도 꽃지, 서천국립생태원 등 꼽혀 [스마트여행]강원도 원주 소금산출렁다리와 인제 자작나무숲 '추천할만한 국내 겨울여행지!' [스마트여행]전남 해남 달마산미황사와 광주무등산도 한국관광 100선에 선정 [스마트여행]강원도 철원 한탄강얼음트레킹 1월19일 열려 얼음 위 걸으며 주상절리 감상 얼음나라 화천산천어축제, 평창송어축제엔 추위예방에 신경을! 이번 주말 홍천 등 강원권 날씨는 최저 –5~6도, 최고 5~6도로 예상돼 가볼만한 곳으로 유혹 경남 김해의 최고여행지인 가야테마파크에 4월 익사이팅사이클 개장! 김해 낙동강레일파크의 레일바이크·카페·와인동굴, 롯데워터파크, 화포천습지생태공원 등 가볼만한 곳 많아 1월18일~2월3일 태백산눈축제 열릴 당골광장, 강원도의 가볼만한 곳! 스키·보드·눈썰매장 갖춰진 오투리조트와 태백시내 한우·닭고기·두루치기 맛집 및 민박촌도 굿! 상록수와 난대림의 고장 전남 완도수목원, 겨울에도 가볼만한 곳으로 추천! 장도청해진유적지와 해신드라마세트장, 해남 땅끝마을 전망대, 두륜산 대흥사 및 사하촌 맛집도 엄지척 카메라 들고 가볼만한 광주의 여행지 양림동 펭귄마을, 골목 곳곳에 고물과 조형물 등 볼거리 풍성! 식당·카페·게스트하우스도 많고 무등산과 전남화순 도곡온천도 근처 겨울방학에 추천할만한 국내겨울 여행지는 역시 눈·얼음축제장! 얼음나라화천산천어축제,평창송어축제,홍천강꽁꽁축제, 대관령눈꽃축제 등 강원도의 설경이 유혹 주요기사 염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 오재원 은퇴, 두산 왕조와 함께 지다 [프로야구] 오재원 은퇴, 두산 왕조와 함께 지다 [프로야구] 만족한 벤투, 9월 평가전 득과 실은? [SQ포커스] 만족한 벤투, 9월 평가전 득과 실은? [SQ포커스] 또 '이강인 패싱', 벤투에게 라리가 도움 1위란? [한국 카메룬] 또 '이강인 패싱', 벤투에게 라리가 도움 1위란? [한국 카메룬] 김주형 김시우 임성재 이경훈, '코리안 브라더스' 밝은 미래 [PGA] 김주형 김시우 임성재 이경훈, '코리안 브라더스' 밝은 미래 [PGA] [K3 베테랑(1)] 울산 박진포, 축구가 간절한 '투잡러' [K3 베테랑(1)] 울산 박진포, 축구가 간절한 '투잡러' 포토Q [포토Q] 최진혁 '논란 후 첫 공식 석상' [포토Q] 최진혁 '논란 후 첫 공식 석상' [포토Q] 나나 '시선 끄는 타투' [포토Q] 나나 '시선 끄는 타투' [포토Q] 드라마 '옷소매 붉은 끝동' 함께한 이월연 PD-정지인 감독 [포토Q] 드라마 '옷소매 붉은 끝동' 함께한 이월연 PD-정지인 감독 [포토Q] 아이유 '여의도 뜬 국힙원탑' [포토Q] 아이유 '여의도 뜬 국힙원탑' [포토Q] 이준호 '멋진 슈트 자태' [포토Q] 이준호 '멋진 슈트 자태' [포토Q] 이준호 '눈빛 속에 풍덩' [포토Q] 이준호 '눈빛 속에 풍덩' 오늘의 인기기사 스포츠 연예 라이프 1KBL 컵대회 개막, 변화에 주목하라 [프로농구] 2돌아온 정현, 권순우와 그릴 설레는 미래 [코리아오픈 테니스대회] 3[포토Q] 여의도에서 개최된 2022 '뉴발란스 런온 서울' 4[포토Q] 김연아 '러너들과 함께해요' 5[포토Q] 김연아 '런온 서울 응원 왔어요' 6넷마블, 블록체인 신작 '킹 오브 파이터 아레나' 사전 등록 실시 7[포토Q] 김연아 '여신 등장' 8'TOKEN2049' 개막, 위메이드 메인넷-스테이블코인 키노트 발표 9[포토Q] 김연아 '미모의 예비 신부' 10[포토Q] 김연아 '러너 여러분 조심하세요!' 1안성기 투병 소식에 연예계도 눈시울 2정직한후보2, 김진태 도지사 글 때문에 '난감' 3염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 4지코, '새삥'으로 음원차트 독주 시작 [Q차트] 5'BTS 병역특례' 개정안 발의, 여론 타고 속도 낼까 6평창·강릉 다음은 부천? 사라지는 지역영화제 7예능·드라마 공세…디즈니+, 구독자 몰이 나선다 8윤종빈 감독, 수리남 정부 반응에 "노코멘트" 9'첫 걸그룹 제작' 임창정 "여자 임창정 5명 모았다" [스몰톡Q] 10[인디Q리뷰] 밴드구나 (BandGUNA) '구력'을 증명한 새앨범 'Lost in Universe' 1조성호 공영홈쇼핑 대표이사, '2022 최고경영자상' 수상 2허경환 기업, BBQ와 손잡았다 3광양 아파트 분양, 용강지구 푸르지오 센터파크 4'안전지향' 우아한청년들, 배민라이더스쿨 교육 자문단 출범 5CJ프레시웨이, 학교 급식에 '고기 없는 버거' 도입 6반도건설, 힘펠과 MOU... "화재 인명피해 줄인다" 7슈퍼주니어 이특·신동, 쿠팡라이브 출연…제품 개발 참여까지 8롯데칠성음료, 파트너사와 ESG 상생 협약 9"우영우처럼 한국음료 마셔볼까" 밀키스, 대만서 인기 몰이 10"미래성장동력 육성" 콜마그룹, 2500억원 투자 펀드 참여 최신뉴스 남궁민이 치트키…'천원짜리 변호사' OTT도 1위 남궁민이 치트키…'천원짜리 변호사' OTT도 1위 제니 '사생활 유출' 40여일만에… YG 칼 뽑았다 제니 '사생활 유출' 40여일만에… YG 칼 뽑았다 프로야구 신인 계약금, 김서현 윤영철 김범석 얼마? 프로야구 신인 계약금, 김서현 윤영철 김범석 얼마? [포토Q] 아이유 '일분 일초가 달콤해' [포토Q] 아이유 '일분 일초가 달콤해' [포토Q] 아이유 '러너들과 함께' [포토Q] 아이유 '러너들과 함께' [포토Q] 아이유 '해맑은 미소' [포토Q] 아이유 '해맑은 미소' [포토Q] 아이유 '여의도 뜬 국힙원탑' [포토Q] 아이유 '여의도 뜬 국힙원탑' 포토뉴스 남궁민이 치트키…'천원짜리 변호사' OTT도 1위 제니 '사생활 유출' 40여일만에… YG 칼 뽑았다 프로야구 신인 계약금, 김서현 윤영철 김범석 얼마? [포토Q] 아이유 '일분 일초가 달콤해' 남궁민이 치트키…'천원짜리 변호사' OTT도 1위 제니 '사생활 유출' 40여일만에… YG 칼 뽑았다 프로야구 신인 계약금, 김서현 윤영철 김범석 얼마? [포토Q] 아이유 '일분 일초가 달콤해' 회사소개 취재요청 독자투고 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 금천구 서부샛길 606 (대성디폴리스지식산업센터) A-1702호 대표전화 : 02-6959-1222 청소년보호책임자 : 이두영 법인명 : (주)와이케이미디어 제호 : 스포츠Q(큐) 등록번호 : 서울 아 02891 등록일 : 2013-11-18 발행일 : 2013-11-18 발행·편집인 : 이두영 스포츠Q(큐) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 스포츠Q(큐). All rights reserved. 기사문의 · 제보 : webmaster@sportsq.co.kr 광고문의 : biz@sportsq.co.kr 위로</t>
-  </si>
-  <si>
-    <t>'효리네 민박' 방송에…제주도 관광객 100만명 더 늘었다 - 이투데이 속보창 구독신청 RSS 경제 경제 정책 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 경제 경제 '효리네 민박' 방송에…제주도 관광객 100만명 더 늘었다 입력 2019-01-08 12:00 김남현 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 생산유발 6251억·부가가치유발 3034억·취업유발 8693명..제주도 경제 연간 2% 끌어올려 ‘효리네 민박’ 방송이 인기를 끌면서 제주도를 찾는 관광객수가 100만명 더 늘었다는 분석결과가 나왔다. 이에 따라 창출된 생산·부가가치·취업유발 효과는 제주도 경제를 연간 2% 가량 끌어올린 것으로 분석됐다.8일 한국은행 제주지역본부에 따르면 2017년 3분기(7~9월)부터 2018년 2분기까지 방영된 효리네 민박으로 늘어난 제주도 관광객은 총 100만7000명(분기평균 25만2000명)에 달했다(내국인 순수관광객 기준). 이는 같은기간 내국인 제주관광객 수의 7.4%에 달하는 것이다. 시즌1(2017년 3분기~4분기) 방영당시 평균은 30만8000명이었고, 시즌2(2018년 1분기~2분기) 당시는 19만6000명이었다. (한국은행)이에 따라 제주지역 경제에 미친 파급효과는 생산유발효과만 6251억원에 달했다. 부가가치유발효과는 3034억원이었고, 취업유발효과도 8693명이었다. 이는 각각 제주지역 연간 총산출액(30조3000억원, 2016년 기준)의 2.1%, 총부가가치(16조4000억원, 2017년 기준)의 1.8%, 연간 취업자(37만4000명, 2017년 기준)의 2.3% 수준이다.생산유발계수와 부가가치유발계수, 취업유발계수란 어떤 산업의 최종수요가 한단위(취업의 경우 보통 10억원) 증가했을 때 각 산업부문에서 직·간접적으로 유발되는 생산액 내지 부가가치, 취업자수를 말한다. 관련 뉴스 [전문] 이주열 한국은행 총재 송년만찬 간담회 [2보] 한국은행 연간(2018년·2019년) 통화신용정책 운영방향 문구 변화(표) 한국은행 물가안정목표제 변화(표) 업종별로는 음식업 및 주점업(생산유발효과 1644억원, 부가가치유발효과 671억원)과 숙박업(각각 1334억원, 894억원)에 미친 영향이 가장 컸다. 두 업종에 대한 취업유발효과는 5173명이었다.또 ‘한담해안산책로’와 ‘사려니숲길’ 등은 방송 직후 검색빈도가 급증한 후 방송이전보다 높은 검색빈도를 유지했으며, 그간 인지도가 낮았던 ‘궷물오름’과 ‘금오름’ 등 일부 장소의 경우 전국적 인지도가 크게 상승한 것도 효과중 하나였다.한은 관계자는 “효리네 민박은 제주에서의 일상과 예능이 결합된 스토리텔링 방식의 방송으로 제주에 대한 긍정적 이미지를 재창조했다”며 “제주여행에 대한 시청자의 호기심과 감성을 자극했고 실제 관광객 증가로 이어지는 등 지역경제에도 크게 기여했다”고 말했다. 그는 또 “방송을 통한 마케팅 효과는 시간이 지나면서 점차 약화되거나 소멸되는 만큼 자연과 어우러진 제주만의 독특한 관광적 가치를 제고하고 제주 재방문을 유도할 수 있는 종합적인 정책노력이 필요하다”고 덧붙였다.한편 효리네 민박은 최고시청률 10.75%를 기록하는 등 평균시청률이 7%대(시즌1 7.5%, 시즌2 7.0%)를 보이면서 종편프로그램 중 동시간대 최고 수준의 시청률을 기록한 바 있다. #효리네민박 #한국은행 #제주 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” 08 [이투데이 말투데이] 좌고우면(左顧右眄)/애프터마켓 (10월4일) 09 벤처투자 혹한기…몸집보다 수익으로 내실 다진 ‘켄타우로스’ 뜬다 10 '베이비 슬럼프 시대'...아기 발자국을 늘려라 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 경제 최신 뉴스 [코로나19 현황] 국내 확진자 ‘총 2484만8184명’ 1만6423명 추가…추가 사망자 19명- 10월 4일 0시 "재정준칙 없으면 2060년 국민 1인당 국가채무 1억 넘어" [종합] 코로나19 신규 확진자 이틀째 1만 명대…유행 감소세 지속 속보 코로나19 신규 확진자 1만6423명…국내발생 1만6317명ㆍ해외유입 106명 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 분만실 없는 시군구 63곳…“애 낳으러 차 타고 40분” 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 데드크로스 현실화..사회 곳곳 저출산 위기 경고음 30ㆍ40 미혼남녀 10명 중 1명만 "자녀 꼭 있어야" 30ㆍ40 절반 “결혼해 아이 낳으려면 부부 합산 4억은 있어야” 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 발언하는 주호영 국힘 원내대표 마켓 뉴스 특징주 투자전략 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 칩스앤미디어, 인텔 자회사 모빌아이 상장 신청에 강세 F&amp;F, 증권가 호실적 전망에 '상승세' [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 10:11 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.삼성출판사 4,150 3.디아이씨 615 4.KR모터스 94 5.에이프로젠제약 68 1.라닉스 1,520 2.오픈엣지테크놀로지 3,150 3.칩스앤미디어 2,950 4.유안타제7호스팩 645 5.에이디테크놀로지 2,600 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,180,000 +1.09% 이더리움 1,906,000 +1.44% 비트코인 캐시 167,000 -0.71% 리플 656 -0.41% 위믹스 2,593 +1.85% 에이다 613.8 -0.2% 이오스 1,699 -0.06% 트론 88.21 -0.9% 스텔라루멘 166.8 -3.97% 비트코인에스브이 69,400 -0.5% 체인링크 10,720 +2.98% 샌드박스 1,193 +0.85% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
-  </si>
-  <si>
-    <t>2019년 기해년 새해, 일출 명소에 관광객 북적…제주도 제외 전국서 해돋이 관측 - 이투데이 속보창 구독신청 RSS 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 사회 일반 2019년 기해년 새해, 일출 명소에 관광객 북적…제주도 제외 전국서 해돋이 관측 입력 2019-01-01 09:42 수정 2019-01-01 17:59 유정선 기자																								dwt84@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 2019년 기해년 새해, 전국 일출 명소에는 해돋이를 보기 위해 관광객들이 모여들었다. 1일 오전 경북 포항 호미곶, 부산 해운대 해수욕장, 광안대교, 강원 정동진 등 전국 해돋이 명소에는 해맞이객들로 북적였다.이날 전국 대부분 지역에서 맑은 날씨가 이어져 선명한 해돋이를 관측할 수 있었다. 관련 뉴스 [포토] 가장 높은 곳에서 바라본 기해년 첫 일출 [포토] 서울에 떠오른 기해년 첫 태양 [포토] 서울에 떠오른 기해년 첫 태양 기해년 첫날 해뜨는 시간은 가장 동쪽 독도 7시 26분을 시작으로, 서울 오전 7시 47분, 인천 오전 7시 48분, 강릉 오전 7시 40분, 포항 오전 7시 33분, 울산 오전 7시 32분, 해남 오전 7시 40분 등이다.제주의 새해 첫 일출 시간은 오전 7시 38분이었으나, 구름 많고 흐린 날씨 탓에 해돋이를 볼 수 없었다.한편 오늘 미세먼지 농도는 전 지역에서 '보통' 또는 '좋음'을 보이겠다. #해돋이 #기해년 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” 08 [이투데이 말투데이] 좌고우면(左顧右眄)/애프터마켓 (10월4일) 09 벤처투자 혹한기…몸집보다 수익으로 내실 다진 ‘켄타우로스’ 뜬다 10 '베이비 슬럼프 시대'...아기 발자국을 늘려라 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 사회 최신 뉴스 속보 ‘채널A 사건’ 최강욱 의원 1심 무죄 ‘스토킹범죄’ 경찰이 구속영장 신청해도 검사‧판사가 32.6% 기각 8차선 도로에 누워 잔 남성 발견…“누구 인생 망치려고” 서대문구 '영 케어러' 돌봄·경제·취업·학습 지원 전장연, 지하철 4호선 출근길 시위…“지연우려” 오후 9시까지 신규 확진자 1만5725명 …전날보다 4053명 늘어 속보 오후 9시까지 전국 1만5725명 확진…전날보다 4000여명 늘어 개천절 세종대로에 보수단체 3만명 운집…물리적 충돌은 없어 경찰위, ‘경찰국 신설 규칙’ 헌재에 권한쟁의심판 청구 여수 앞바다 폐유 유출에 8시간 긴급방제…오염 원인 파악 중 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 발언하는 주호영 국힘 원내대표 마켓 뉴스 특징주 투자전략 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 칩스앤미디어, 인텔 자회사 모빌아이 상장 신청에 강세 F&amp;F, 증권가 호실적 전망에 '상승세' [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 10:11 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.삼성출판사 4,150 3.디아이씨 615 4.KR모터스 94 5.에이프로젠제약 68 1.라닉스 1,520 2.오픈엣지테크놀로지 3,150 3.칩스앤미디어 2,950 4.유안타제7호스팩 645 5.에이디테크놀로지 2,600 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,180,000 +1.09% 이더리움 1,906,000 +1.44% 비트코인 캐시 167,000 -0.71% 리플 656 -0.41% 위믹스 2,593 +1.85% 에이다 613.8 -0.2% 이오스 1,699 -0.06% 트론 88.21 -0.9% 스텔라루멘 166.8 -3.97% 비트코인에스브이 69,400 -0.5% 체인링크 10,720 +2.98% 샌드박스 1,193 +0.85% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+    <t>제주도관광협회, 새해 입도 관광객 맞이 환영행사 &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 새해 입도 관광객 맞이 환영행사 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 제주도관광협회, 새해 입도 관광객 맞이 환영행사 기자명 문서현 기자 입력 2019.01.02 10:57 수정 2019.01.02 11:03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 제주도관광협회(회장 김영진)는 2019년 기해년(己亥年) 새해 첫날을 맞이해 제주를 방문하는 국내·외 관광객을 대상으로 입도 환영행사를 개최했다.1일 제주국제공항 제주연안여객터미널에서 건강과 행복을 기원하고 제주방문 감사의 마음을 담아 진행했다.제주공항 국내선을 이용해 새해 처음 제주에 입도한 김성주씨(서울시), 국제선 왕훈씨(중국)와 제주연안여객터미널 첫 입항객 김남희씨(광주광역시 광산구)에게 제주여행 상품권, 꽃다발 등의 기념품을 증정했다.새해 첫날 제주를 방문한 관광객과 도민들을 대상으로 환영현수막 게첩, 삼다수, 기념품(복주머니)를 제공하며 환영 메세지를 전달했다.특히 제주공항 국내선 도착 게이트에서 “기해년 새해 첫 행운을 잡아라” 이벤트존을 운영하여 관광객들이 직접 참여하여 각종 게임 등을 즐기며 제주 특산품을 받아가는 즐거운 분위기가 이어졌다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 새해 입도 관광객 맞이 환영행사 &lt; 실시간뉴스 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 11:33 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 새해 입도 관광객 맞이 환영행사 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 실시간뉴스 제주도관광협회 새해 입도 관광객 맞이 환영행사 기자명 진기철 기자 입력 2019.01.02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회는 2019년 기해년(己亥年) 새해 첫날을 맞아 제주국제공항, 제주연안여객터미널에서 첫 입도 국내·외 관광객 환영행사를 개최했다.도 관광협회는 새해 첫날 제주를 방문한 관광객과 도민들을 대상으로 삼다수와 기념품(복주머니)를 제공하며 환영 메시지를 전달했다.특히 1일 제주공항 국내선을 이용해 새해 처음 제주에 입도한 김성주씨(서울), 국제선 왕훈씨(중국)를 비롯해 제주연안여객터미널 첫 입항객 김남희씨(광주광역시 광산구) 등에게 제주여행 상품권과 꽃다발 등의 기념품을 전달했다.또한 제주공항 국내선 도착 게이트에서는 ‘기해년 새해 첫 행운을 잡아라’ 이벤트 존을 운영해 분위기를 북돋았다.한편 제주도관광협회는 올해 빠르게 변화하는 관광트렌드에 걸맞은 다양한 콘텐츠 발굴에 전력을 기울여 나갈 계획이다. 진기철 기자 jjphoto@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주 한림 목조 펜션서 불…인명피해 없어 JDC, 투자희망 기업 대상 파트너스데이 개최 도내 주유소 가격 투명성·안정에 ‘안간힘’ 제주도내 고용상황 회복세 기조 유지 전기료 인상에 광어 업계 속 타는데 제주어류양식수협은 ‘수수방관’ 포토뉴스 제주 한림 목조 펜션서 불…인명피해 없어 JDC, 투자희망 기업 대상 파트너스데이 개최 도내 주유소 가격 투명성·안정에 ‘안간힘’ 제주도내 고용상황 회복세 기조 유지 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 4 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>‘관광지 된’ 이효리♥︎이상순 부부, 제주도 집 결국 이사 결정까지 하게 된 이유는? - 권미성 기자 - 톱스타뉴스 × 전체기사 엔터 전체 가요 방송 영화 셀럽 문화/예술 사회 전체 사건사고 충격사건 사건일지 주요일정 코로나19 환경 국제 전체 해외연예 분쟁 해외토픽 코인 증시 바이오 정치 전체 여당근황 야당근황 국방 북한 외교 연예가소식 전체 가요 방송 영화 경제 전체 기업 증시-코인-복권 부동산 코인 산업 전체 증시 바이오 문화 전체 스타SNS근황 방송정보 생활정보 가상화폐 정치인SNS 커뮤니티 바이오-헬스 이슈영상 라이프 전체 맛집-레시피 뷰티 스포츠 과학/IT 패션 전체 서울패션위크 인사/동정/부고 전체 인사 부고 동정 포토DB 뉴스 머니 전체 퀴즈 보도자료 전체 연예 경제 사회 스포츠 뉴시스 연합뉴스 전체 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 로고 UPDATED. 2022-10-11 12:47 (화) 인터넷신문위원회 윤리강령을 준수합니다 8월 27일 독자추천종합순위 1위 이찬원, 2위 영탁에 3,502표 앞서 가요 방송 영화 셀럽 인터뷰 현장리포트 무비포커스 기획 HD포토 HD동영상 F레터 이슈 리부트 이슈종합 공식입장 로그인 검색버튼 기사검색 검색 1[최고의앨범] 2일 하루 득표량 순위는 영탁(9.0%)·장민호(6.9%)·이승윤·김기태·송가인·양준일·김희재·이찬원·박창근·박서진 순 2[최고의앨범] 3일 하루 득표량 순위는 영탁(6.6%)·장민호(4.9%)·이승윤·송가인·김기태·양준일·김희재·이찬원·라포엠·박서진 순 3[최고의앨범] 4일 하루 득표량 순위는 영탁(4.8%)·장민호(3.7%)·이승윤·송가인·김기태·김희재·양준일·이찬원·박서진·라포엠 순 4[브랜드파워] 3일 하루 득표량 순위는 영탁(27.3%)·김기태(23.0%)·이승윤·장민호·송가인·양준일·진해성·김희재·이찬원·박서진 순 5'울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 6[브랜드파워] 4일 하루 득표량 순위는 영탁(25.4%)·김기태(23.2%)·이승윤·장민호·송가인·김희재·진해성·이찬원·박서진·양준일 순 7[댓글 순위] 영탁 200회째 1위, 김기태·이찬원·강혜연·방탄소년단 진 TOP5…진해성·김희재·방탄소년단 지민·김다현·방탄소년단 뷔 뒤이어 8[최고의앨범] 6일 하루 득표량 순위는 영탁(3.2%)·장민호(2.1%)·이승윤·송가인·김기태·양준일·김희재·박서진·이찬원·박창근 순 9[최고의앨범] 5일 하루 득표량 순위는 영탁(3.9%)·장민호(2.6%)·이승윤·송가인·김기태·김희재·이찬원·양준일·박서진·박창근 순 10[브랜드파워] 5일 하루 득표량 순위는 영탁(26.3%)·김기태(24.0%)·이승윤·장민호·송가인·김희재·이찬원·진해성·박서진·박창근 순 가요 방송 영화 셀럽 현장리포트 스타포커스 무비포커스 인터뷰 HD포토 HD동영상 시상식 쇼케이스 이슈종합 공식입장 단독취재 기획 이슈 리부트 스타화보 스타출근길 엔터테인먼트 스포츠 전체기사 정치 사회 경제 국제 콘텐츠 구매 문의 기사제보 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 닫기 [이슈종합] '이적설→왕따설' 이달의 소녀 츄, '금쪽상담소' 출연 이유가…충격 자해 고백 "멤버 단톡방서 제외?"…이달의 소녀 츄, '소속사 갈등설' 재수면 이달의 소녀 츄, '스테이지 업' 공연 MC 발탁 [이슈종합] 아이브 VS 경북대, 축제 취소에 팽팽한 입장 차…국적 논란 번지나 스타쉽, 아이브(IVE) 공연 취소 경북대 측 주장에 추가 입장…“계약금 전달된 바 없어” (전문) '출장 십오야', 스타쉽 협업 성사…아이브→이동욱 출연할까 ‘관광지 된’ 이효리♥︎이상순 부부, 제주도 집 결국 이사 결정까지 하게 된 이유는? 권미성 기자 승인 2019.01.23 01:44 댓글 제보하기 반론요청 이 기사를 공유합니다 × 이효리-이상순 부부가 JTBC ‘효리네 민박’으로 인해 제주도 집이 공개됐다. 하지만 이효리-이상순 부부는 결국 이사까지 결정한 것이다. 이사까지 결정하게 된 이유는 심각했던 사생활 침해 때문이다. 이효리-이상순 부부 / 채널A 방송캡처 이효리-이상순 부부 근황은 아이유 콘서트에 게스트로 참여하기도 하며, 사진가 김태은 씨 SNS에 이효리-이상순 부부의 모습이 공개돼 화제를 모은 바 있다.권미성 기자 reporter@topstarnews.co.kr &amp;lt뉴스를 무단으로 유튜브 영상을 제작하는 것을 금지합니다. 발견 즉시 민형사상 제소합니다.&amp;gt Tag #이효리이상순부부 #이효리이상순근황 #이효리 #이상순 #제주도집 #이효리제주도 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 카카오톡 URL복사 이 기사를 공유합니다 × 이 기사를 추천합니다. 0 모두에게 알리고 싶은 뉴스라면 ? ‘이 기사를 추천합니다’ 버튼을 눌러주세요.추천을 많이 받은 기사는 ‘독자 추천 뉴스’에 노출됩니다. 전체 기사 보기 기사를 추천하면 투표권을 받을 수 있습니다. If you recommend an article, you can get a voting ticket. PC페이지에서 추천하면 투표권을 2개 지급합니다. If you recommend an article on the PC page, you will receive two voting tickets. 모바일 모드로 보기 Go to the Mobile page. &amp;lt저작권자 © 톱스타뉴스 무단전재 및 재배포 금지&amp;gt 2019/01/23 01:44 송고&amp;nbsp&amp;nbsp|&amp;nbsp&amp;nbspreporter@topstarnews.co.kr 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 [F레터] 팬들의 사연을 보도합니다. 스타서베이 공지 보러 가기 [공지]독자추천·댓글순위·리트윗순위 독자추천뉴스 ㅣ 댓글많은뉴스 ㅣ 트위터 경력기자 ㅣ 신입기자 ㅣ 신문사소개 윤리강령 보도/편집 규약 불편신고 청소년보호정책 이메일무단수집거부 기사제보 광고문의 콘텐츠제휴문의 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 취재본부 : 02-3443-4662, 제보메일 reporter@topstarnews.co.kr 신문등록번호 : 서울 아 01403, 신문등록일 : 2010-11-09 발행소 : 서울특별시 강남구 학동로30길 14 이세빌딩 2층 추천기사 메이크업아티스트 홍현정, 이효리♥이상순 부부에게 감동받아 눈물 흘린 사연은? 이효리 “나 지금 57kg” 솔직 고백… ‘특유의 털털한 매력 선보여’ 이효리, 과거 김제동과 함께 찍은 등산 인증샷 눈길…‘둘의 나이 차이는?’ 이효리, 근황 공개돼…절친 유튜브 채널 출연까지 “나이 40대가 되면 모두 싫다” ‘효리네 민박2’ 이효리♥이상순, “윤아 없으면 민박집 어떻게 하냐” 아쉬움 토로 해외토픽 러시아와 전쟁중인 우크라이나 키이우 상공에 UFO 출현 인도 여성, 15개월 아이 구하려 맨손으로 호랑이와 사투 미국 미술전서 인공지능이 그린 그림이 1위…"이것도 예술인가" 논란 NASA 블랙홀 소리 공개…'지옥의 소리' '우주 호러' 독일서 여성 2명, 총리 앞 '상의 탈의' 시위…"러시아 가스 금수하라. 푸틴에게 돈을 주지 마라" 2배로 커진 칠레 미스터리 싱크홀…지름 50m 깊이 200m 미국 구치소에서 "男죄수들 女구치소 습격·집단 성폭행…1천달러에 교도관 매수" 미국 메가밀리언 복권 29회 동안 1등 없어, 다음 1등은 1조3천억원…복권 구매 줄이어 중국, 생방송 인플루언서 불붙여 살해한 전 남편 사형 집행 "빅토리아 시크릿과 성범죄자 엡스타인 추악한 연결 고리나와" F레터 F레터 공지 [F레터] 진해성 가수의 콘서트 직관후기 ‘내눈에 너만보여’ [F레터] 주접은 행복…김기태 가수에게 우리들의 노래를 들려주다 [F레터] 오늘은 특별한 날…내 삶에 스며든 별을 만나러 가는 날 ‘진해성’이 있다 [F레터] 진해성 가수와 함께하는 트롯전국체전 성남콘서트 [F레터] 진해성의 판타지 만약에…귀한 찰라, 귀한 경험을 순간 완전무결한 환상의 결과이고 진해성의 판타지다 독자 추천 뉴스 1 1010 [최고의앨범] 2일 하루 득표량 순위는 영탁(9.0%)·장민호(6.9%)·이승윤·김기태·송가인·양준일·김희재·이찬원·박창근·박서진 순 2 992 [최고의앨범] 3일 하루 득표량 순위는 영탁(6.6%)·장민호(4.9%)·이승윤·송가인·김기태·양준일·김희재·이찬원·라포엠·박서진 순 3 955 [최고의앨범] 4일 하루 득표량 순위는 영탁(4.8%)·장민호(3.7%)·이승윤·송가인·김기태·김희재·양준일·이찬원·박서진·라포엠 순 4 933 [브랜드파워] 3일 하루 득표량 순위는 영탁(27.3%)·김기태(23.0%)·이승윤·장민호·송가인·양준일·진해성·김희재·이찬원·박서진 순 5 884 '울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 댓글많은뉴스 1 468 '울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 2 251 영탁, 신사답게 원더케이 뮤직비디오 200만 뷰…"말이 필요 없는 최고의 퍼포먼스 가창력" 3 240 '박지의 귀환' 영탁, 부산 콘서트에서 '영혼의단짝' 광민이 형이 밝힌 영탁이의 '장점과 담점' 4 174 '공연 역사의 새로운 역사를 쓴 위대한 탁쇼' 영탁, 서울 앙코르 콘서트 개최 확정…초광속 매진 행렬에 '티켓 대란'예상 5 165 '또 우승' 김기태, "하고 싶은 이야기가 너무 많아" 팬들에게 꺼낸 진심 Instagram에서 이 게시물 보기 톱스타뉴스(@topstarnews)님의 공유 게시물 이슈 1 신화 신혜성, 음주운전 혐의에…과거 전진 ‘면허 100일 정지’ 재조명 2 [TOP이슈] 신화 신혜성, 도난차량서 음주 측정 거부→체포…음주운전만 두 번째 3 [TOP이슈] "안타깝고 속상해"…이채연 측, 데뷔 앨범 디자인 유사성 논란 해명 4 남우현도 울림 떠난다…인피니트 멤버 전원 계약 종료 5 “코로나 후유증으로 컨디션 난조”…BAE173 남도현, 활동 중단 6 [TOP이슈] 영화는 2편…‘7년째 불륜’ 홍상수-김민희, 부국제 불참 7 “미련 못 버려”…아이브 VS 경북대 축제 갈등, 섭외 담당 에이전시 공식 사과 8 “구두 확답-출연료 송금 완료” 경북대 측, 대동제 아이브 공연 취소→스타쉽 주장에 반박 9 [TOP이슈] '친부 폭행' 박수홍, 와이프와 안정 중…'미우새' 댓글창 비난 폭주 10 "흉기로 XX"…박수홍, 친부에게 폭행 당해→병원으로 긴급 후송 11 [TOP이슈] "호주서 골프하고 싶다고"…박연수, 딸 송지아 음해에 분노→아들 송지욱 반응 언급 12 "와이프-엄마도 몰랐나" 돈스파이크, 과거 대마로 징역형 '대중 기만 논란' 13 [TOP이슈] ‘마약 혐의’ 돈스파이크, 와이프→여동생-어머니까지…가족 공개 어쩌나 14 [TOP이슈] '마약 투약 혐의' 이상보, 무혐의 처분…"처방내역 분석" 15 배우 박민영, 강씨와 결별→친언니 사외이사 사임 발표…‘이미지 타격’ 불가피 이슈영상 1 코로나 봉쇄로 외출 못하게 대문까지 용접한 중국, 한달 지나서 공개된 용접 영상 집가다 방역 요원에게 봉변까지 이슈종합 [이슈종합] '이적설→왕따설' 이달의 소녀 츄, '금쪽상담소' 출연 이유가…충격 자해 고백 [이슈종합] 아이브 VS 경북대, 축제 취소에 팽팽한 입장 차…국적 논란 번지나 '필로폰 투약' 돈스파이크, 오늘(5일) 검찰 송치…母 가슴에 대못 박아 [이슈종합] [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '연습생 출신' 한서희, 3번째 마약 혐의도 모르쇠…선고 당일 항소 [이슈종합] ‘음주운전’ 배우 곽도원, 차기작 빨간불…‘소방관’ ‘빌런즈’ 어쩌나 [이슈종합] '프듀101' 출신 정중지 여동생, 고인 인스타 계정 공개…생전 모습 눈길 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] 유승준, 비자 재소송 2심 첫 재판…法 "재외동포인가?" 지적 기획 [TOP초점] 방탄소년단(BTS) 부산 콘서트, 10만명 운집 괜찮을까 [TOP초점] 먹방으로 흥한 성훈, '줄 서는 식당' 매너 논란으로 '뭇매' [TOP리뷰] 힐링 드라마라던 '우영우', 길 잃은 자폐 설정-'갑분' 러브라인에 발목 [내돈내산⑦] "기자도 사봤다" 영탁 17년 만의 첫 번째 단독 콘서트! 'TAK SHOW' 네번째 이야기 ″쏘스윗 실버보이스″ 방탄소년단 진, '믿고 듣는 실버보이스' 베니 블랑코•스눕독 협업곡 '배드 디시전스' 공개 중요기사 [종합] ‘더 플레이어 케이팝 퀘스트-최종회’ 펠라즈 2기, 플레이어 더보이즈 스릴 라이드 ‘승’…데뷔곡 ‘도깨비집’ 최초 공개 [종합] '구해줘! 홈즈' 소유진, 김호영, 2PM 닉쿤 '무승부'…대형정원부터 테라스 주택까지, 7억원대 경기남부 매물 총출동 [종합] '작은 아씨들' 최종화 김고은, 300억의 주인공 됐다…추자현 "엄지원이 살인했다" 폭로⟶빌런 엄지원 사망 [종합] '뭉쳐야찬다2' 위례 FC를 상대로 완벽한 승리, 류은규 MOM 등극…이형택, '폭풍 성장'에 감탄 [종합] '도시어부4' 이태곤, '감성돔' 1인자 등극…구본승 "꼴찌하면 커피차, 사무장하겠다" 공약 충격사건 등굣길 초등생 집으로 끌고가 성폭행한 80대, 징역 20년 구형…"사전에 비아그라 준비" 30대 남성 인천공항서 중요부위 자해…승객들 큰 충격 미성년자 꾀어 성착취물 찍게 한 초등교사, 항소심 '징역 18년' ↑…피해자 120여 명 여친 목졸라 살해하고 시신 옆서 영화보며 식사하고 이틀 지낸 20대 징역 30년 미성년 처조카와 처남댁 강제 추행하고 성폭행한 40대 공무원, 항소심도 징역 10년 노예처럼 산 유흥업소 감금·폭행 여종업원들, 속옷만 입은 채 쇠사슬과 개 목줄 몸에 감고 꼼짝 못해 폭행 신고했다고 사실혼 아내 입에 소변 본 남편, 보복상해·보복협박·보복폭행 혐의로 징역 3년 제주서 초등생 어린 조카 상대 10년 동안 성폭행 50대 징역 7년 7년간 미성년 의붓딸 21차례 성폭행한 40대 징역 20년…첫 범행 당시 의붓딸은 9세 "엄마한테 말하면 죽어" 의붓딸 7년간 상습 성폭행, 징역 20년 페이스북 트위터 네이버 인스타그램 카카오스토리 유튜브 웨이보 취재본부 : 02-3443-4662 매체소개 광고안내 콘텐츠 구매 문의 기사제보 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. (주)소셜미디어네트웍스 신문등록번호 : 서울 아 01403 신문등록일 : 2010-11-09 제호 : 톱스타뉴스 발행인 : 장영권 편집인 : 김명수 발행일자 : 2010-09-06 발행소 : 서울특별시 강남구 학동로30길 14 (두원건설빌딩) 2층 (우) 06105 주사무소 또는 발행소의 전화번호 : 02-3443-4662 팩스 : 02-525-4661 청소년보호책임자 : 최규석 [열린보도원칙] “당 매체는 독자와 취재원 등 뉴스이용자의 권리보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. reporter@topstarnews.co.kr, *제보하기 *반론요청 윤리강령 보도/편집 규약 청소년보호정책 개인정보취급방침 이메일무단수집거부 독자투고 고충처리/불편신고 Copyright © 2010 - 2022 톱스타뉴스 (TOPSTARNEWS.NET) 제휴통신사</t>
+  </si>
+  <si>
+    <t>'효리네 민박' 방송에…제주도 관광객 100만명 더 늘었다 - 이투데이 속보창 구독신청 RSS 경제 경제 정책 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 경제 경제 '효리네 민박' 방송에…제주도 관광객 100만명 더 늘었다 입력 2019-01-08 12:00 김남현 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 생산유발 6251억·부가가치유발 3034억·취업유발 8693명..제주도 경제 연간 2% 끌어올려 ‘효리네 민박’ 방송이 인기를 끌면서 제주도를 찾는 관광객수가 100만명 더 늘었다는 분석결과가 나왔다. 이에 따라 창출된 생산·부가가치·취업유발 효과는 제주도 경제를 연간 2% 가량 끌어올린 것으로 분석됐다.8일 한국은행 제주지역본부에 따르면 2017년 3분기(7~9월)부터 2018년 2분기까지 방영된 효리네 민박으로 늘어난 제주도 관광객은 총 100만7000명(분기평균 25만2000명)에 달했다(내국인 순수관광객 기준). 이는 같은기간 내국인 제주관광객 수의 7.4%에 달하는 것이다. 시즌1(2017년 3분기~4분기) 방영당시 평균은 30만8000명이었고, 시즌2(2018년 1분기~2분기) 당시는 19만6000명이었다. (한국은행)이에 따라 제주지역 경제에 미친 파급효과는 생산유발효과만 6251억원에 달했다. 부가가치유발효과는 3034억원이었고, 취업유발효과도 8693명이었다. 이는 각각 제주지역 연간 총산출액(30조3000억원, 2016년 기준)의 2.1%, 총부가가치(16조4000억원, 2017년 기준)의 1.8%, 연간 취업자(37만4000명, 2017년 기준)의 2.3% 수준이다.생산유발계수와 부가가치유발계수, 취업유발계수란 어떤 산업의 최종수요가 한단위(취업의 경우 보통 10억원) 증가했을 때 각 산업부문에서 직·간접적으로 유발되는 생산액 내지 부가가치, 취업자수를 말한다. 관련 뉴스 [전문] 이주열 한국은행 총재 송년만찬 간담회 [2보] 한국은행 연간(2018년·2019년) 통화신용정책 운영방향 문구 변화(표) 한국은행 물가안정목표제 변화(표) 업종별로는 음식업 및 주점업(생산유발효과 1644억원, 부가가치유발효과 671억원)과 숙박업(각각 1334억원, 894억원)에 미친 영향이 가장 컸다. 두 업종에 대한 취업유발효과는 5173명이었다.또 ‘한담해안산책로’와 ‘사려니숲길’ 등은 방송 직후 검색빈도가 급증한 후 방송이전보다 높은 검색빈도를 유지했으며, 그간 인지도가 낮았던 ‘궷물오름’과 ‘금오름’ 등 일부 장소의 경우 전국적 인지도가 크게 상승한 것도 효과중 하나였다.한은 관계자는 “효리네 민박은 제주에서의 일상과 예능이 결합된 스토리텔링 방식의 방송으로 제주에 대한 긍정적 이미지를 재창조했다”며 “제주여행에 대한 시청자의 호기심과 감성을 자극했고 실제 관광객 증가로 이어지는 등 지역경제에도 크게 기여했다”고 말했다. 그는 또 “방송을 통한 마케팅 효과는 시간이 지나면서 점차 약화되거나 소멸되는 만큼 자연과 어우러진 제주만의 독특한 관광적 가치를 제고하고 제주 재방문을 유도할 수 있는 종합적인 정책노력이 필요하다”고 덧붙였다.한편 효리네 민박은 최고시청률 10.75%를 기록하는 등 평균시청률이 7%대(시즌1 7.5%, 시즌2 7.0%)를 보이면서 종편프로그램 중 동시간대 최고 수준의 시청률을 기록한 바 있다. #효리네민박 #한국은행 #제주 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 03 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 04 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 05 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 06 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 07 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 08 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 09 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 10 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 경제 최신 뉴스 고용보험 가입자 증가 폭 10개월 만에 최소…20대 이하는 '마이너스' 전환 KDI "경기 회복세 약화...반도체ㆍ대중수출 부진 경기하방 위험↑" 이창용 한은 총재, 15일 피터슨 국제경제연구소서 ‘한국의 통화정책’ 강연 정부 "김장철·연말에 182억 상당 농축수산물 쿠폰 배포" 박일준 산업차관 "미래형 태양광으로 산업생태계 경쟁력 강화" 국감장 선 '적자 늪' 한전 "비장한 각오로 임하고 있다" 내년부터 전기차 배터리 등 ESS로 안전하게 재사용한다 국도 23호선 장흥 대덕~용산면ㆍ국도 3호선 거창~김천 구간 개통 [국감 핫이슈] "해양진흥공사, HMM 2025년 말 민영화 완료 정부 보고" [코로나19 현황] 국내 확진자 ‘총 2499만5246명’ 1만5476명 추가…추가 사망자 10명- 10월 11일 0시 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '비에니끄' 의류 선보이는 모델들 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 12:33 20분지연 코스피 코스닥 1.다이나믹디자인 3,200 2.화천기계 1,260 3.베트남개발1 67 4.유니온머티리얼 345 5.제이준코스메틱 43 1.테라셈 31 2.코아스템 2,680 3.코디엠 174 4.동국알앤에스 780 5.해성산업1우 2,500 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,373,000 -1.29% 이더리움 1,837,000 -2.6% 비트코인 캐시 159,000 -4.85% 리플 707.8 -6.38% 위믹스 2,408 -4.82% 에이다 568.4 -5.89% 이오스 1,485 -7.42% 트론 88.56 -1.2% 스텔라루멘 176.8 -2.86% 비트코인에스브이 68,000 -3.2% 체인링크 10,350 -4.87% 샌드박스 1,131 -5.28% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+  </si>
+  <si>
+    <t>[스마트여행] JTBC ‘효리네민박’ 이후 애월해안도로 등 제주도에 관광객 급증! - 스포츠Q(큐) × 전체기사 스포츠일반 전체 아마스포츠 농구 배구 골프 e스포츠‧게임 당구 테니스 격투기 경마·승마 미식축구 장애인스포츠 야구 전체 프로야구 해외야구 아마야구 리틀야구 축구 전체 K리그 대표팀 해외축구 아마축구 스포츠산업 전체 스포츠포럼 스포츠경영 스포츠정책 엔터테인먼트 전체 영화·드라마 가요 예능 방송·TV 문화일반 핫&amp;쿨Q 라이프 전체 식품‧음료 패션‧뷰티 유통‧물류 가전‧리빙 교육‧육아 의료‧건강 여행‧레저 금융·부동산 IT·자동차 대회·행사 산업일반 뉴스&amp;이슈 전체 시사Q 이코노Q 토픽세상 오피니언 포토 전체 야구 축구 스포츠일반 스포츠산업 컬처Q 글쓰는 사진기자 tvQ 전체 민기홍의 머니뭐니 랭킹 겸 차트 혹은 밸붕방지톡 UPDATED. 2022-10-11 12:44 (화) 기사검색 검색 스포츠 아마스포츠 농구 배구 골프 테니스 미식축구 격투기 장애인스포츠 e스포츠 경마 당구 야구 프로야구 해외야구 아마야구 리틀야구 축구 K리그 대표팀 해외축구 아마축구 스포츠산업 스포츠포럼 스포츠경영 스포츠정책 엔터 영화·드라마 가요 예능 방송·TV 문화일반 핫&amp;쿨Q 라이프 식품‧음료 패션‧뷰티 유통‧물류 가전‧리빙 교육‧육아 의료‧건강 재테크·주거 대회·행사 뉴스&amp;이슈 시사Q 이코노Q 토픽세상 오피니언 포토 야구 축구 스포츠일반 스포츠산업 컬처Q 글쓰는 사진기자 로그인 회원가입 RSS SNS 트위터 페이스북 블로그 스포츠Q 포스트 카카오스토리 플러스친구 매거진SQ 포스트 유튜브 네이버TV 이전 다음 [스마트여행] JTBC ‘효리네민박’ 이후 애월해안도로 등 제주도에 관광객 급증! 페이스북 트위터 카카오스토리 기사공유하기 상태바 HOME 라이프 [스마트여행] JTBC ‘효리네민박’ 이후 애월해안도로 등 제주도에 관광객 급증! 이두영 기자 승인 2019.01.09 00:35 댓글 0 기사공유하기 페이스북 트위터 카카오스토리 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [스포츠Q(큐) 이두영 기자] JTBC 일상생활 공개형 프로그램 ‘효리네민박’ 방영이 제주도 관광객을 100만 명 이상 늘렸다는 뉴스가 방영되면서 해당 숙소가 있던 제주시 애월읍과 제주도 서해안 일대 여행지들이 새삼 높은 관심을 끈다.효리네민박이 있던 위치는 경마공원인 렛츠런파크제주가 위치한 한라산 서쪽 중산간 마을이다. 제주시내에서 서귀포 대정읍 모슬포항으로 이어지는 간선도로 근처다.인근의 가볼만한 곳으로는 고려 대 삼별초가 몽골군에 저항해서 끝까지 싸웠던 항파두리 항몽유적지가 있다. 제주도 드라이브 코스로 유명해진 애월해안도로의 겨울 풍경. [사진=비짓제주]  애월은 제주올레 16코스로, 고내포구에서 시작된 올레길은 바다에서 육지로 쑥 들어간 애월읍 광령리로 이어졌다가 다시 외도포구로 나가서 이호테우해수욕장과 이호항, 도두항, 제주카페거리를 거처 횟집과 카페 등이 몰려 있는 탑동으로 연결된다.그러나 렌터카를 이용해 제주도 곳곳을 즐기는 여행자라면 해월해안도로 드라이브를 간과할 수 없다. 애월 해안 구엄·신엄포구에는 바다와노을, 밀포소펜션,남또리별장 등 분위기 좋은 숙소와 맛집이 즐비하며 펜션이나 게스트하우스 등에서 낙조를 보며 하루를 마칠 수도 있다.애월항에서 곽지해수욕장,한림항을 지나면 협재해수욕장과 금능석물원 등 명소가 나타나고 경사가 완만한 바다 앞에서는 화산섬 ‘비양도’가 다소곳한 표정으로 육지를 바라보고 있다.근처 한림읍 명월리에는 특이한 볼거리인 수백 년 묵은 팽나무 군락지(천연기념물 제19호)가 있다. 팽나무는 느티나무처럼 덩치가 큰 수종으로 폭낭,퐁낭 등 방언으로도 불린다. 더운 여름날 시원한 그늘을 선사하는 존재다. 명월리 중동마을에 흐르는 건천에는 팽나무 90여 그루를 비롯해 푸조나무,산유자나무,보리밥나무 등 노거수들이 무리지어 크고 있다. 1월에 개화 절정 시기인 제주도의 동백꽃. [사진=제주허브동산]한편 시기적으로 겨울의 한가운데인 요즘 제주도에는 곳곳에서 동백꽃이 만발해 1월 추위를 잊게 한다. 한림읍 ‘한림공원’, 서귀포시 안덕면 상창리의 ‘카멜리아힐’, 서귀포시 남원읍의 ‘동백포레스트’, 최고의 동백나무 군락지로 알려진 위미리 ‘제주동백수목원’과 ‘애기동백농원’, 조천읍 선흘리의 ‘동백동산’, '제주허브동산' 등에서는 지금 동백꽃 개화가 한창이다. 특히 선흘리 동백동산은 동백나무 10만여 그루가 자라는 거대한 상록활엽수 천연림으로 이달 말까지 동백축제가 벌어지고 있는 남원읍의 휴애리자연생활공원과 카멜리아힐 등 인공적인 동백숲에 비해 자연의 깊은 숨결을 흠뻑 느낄 수 있다. 한편 이효리-이상순 부부가 살던 애월읍 소길리의 한 전원주택은 JTBC 소유가 됐으며, 두 부부는 경기도의 모처로 주거지를 옮겼다. 방송 이후 효리네민박에 관광객들이 시도 때도 없이 방문하는 바람에 사생활 침해가 심해, 방송사 측에서 출연자의 일상과 콘텐츠 보호를 위해 민박집 부지를 아예 사들였고 이효리 부부는 아예 제주도를 떠난 것으로 전해지고 있다. Tag #효리네민박 #제주가볼만한곳 #제주도애월가볼만한곳 #애월맛집 #애월카페 #애월해안도로 #카멜리아힐 #제주동백군락지 #위미리동백군락지 #휴애리동백축제 도전과 열정, 위로와 영감 그리고 스포츠큐(Q) 저작권자 © 스포츠Q(큐) 무단전재 및 재배포 금지 트윗하기 이두영 기자 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기 인기기사 채팅 만남 男에게 수면제 먹이고 코인 빼돌린 간큰 女 대통령의 관심사, 토르티야 가격 내년 건강보험료율 인상, 직장인 얼마나 더 내나 지구는 대체 얼마나 아픈 걸까? 기후변화 심각 'TV 필수'라 생각하는 국민 비율 얼마나 될까 관련기사 [스마트여행]한국관광 100선에 충남 서해안의 안면도 꽃지, 서천국립생태원 등 꼽혀 [스마트여행]강원도 원주 소금산출렁다리와 인제 자작나무숲 '추천할만한 국내 겨울여행지!' [스마트여행]전남 해남 달마산미황사와 광주무등산도 한국관광 100선에 선정 [스마트여행]강원도 철원 한탄강얼음트레킹 1월19일 열려 얼음 위 걸으며 주상절리 감상 얼음나라 화천산천어축제, 평창송어축제엔 추위예방에 신경을! 이번 주말 홍천 등 강원권 날씨는 최저 –5~6도, 최고 5~6도로 예상돼 가볼만한 곳으로 유혹 경남 김해의 최고여행지인 가야테마파크에 4월 익사이팅사이클 개장! 김해 낙동강레일파크의 레일바이크·카페·와인동굴, 롯데워터파크, 화포천습지생태공원 등 가볼만한 곳 많아 1월18일~2월3일 태백산눈축제 열릴 당골광장, 강원도의 가볼만한 곳! 스키·보드·눈썰매장 갖춰진 오투리조트와 태백시내 한우·닭고기·두루치기 맛집 및 민박촌도 굿! 상록수와 난대림의 고장 전남 완도수목원, 겨울에도 가볼만한 곳으로 추천! 장도청해진유적지와 해신드라마세트장, 해남 땅끝마을 전망대, 두륜산 대흥사 및 사하촌 맛집도 엄지척 카메라 들고 가볼만한 광주의 여행지 양림동 펭귄마을, 골목 곳곳에 고물과 조형물 등 볼거리 풍성! 식당·카페·게스트하우스도 많고 무등산과 전남화순 도곡온천도 근처 겨울방학에 추천할만한 국내겨울 여행지는 역시 눈·얼음축제장! 얼음나라화천산천어축제,평창송어축제,홍천강꽁꽁축제, 대관령눈꽃축제 등 강원도의 설경이 유혹 주요기사 이대호라서... 이런 은퇴식 또 있을까? 이대호라서... 이런 은퇴식 또 있을까? '오재원 땡큐', 두산 팬들 간절한 소망 [SQ현장] '오재원 땡큐', 두산 팬들 간절한 소망 [SQ현장] 최국희 감독이 밝힌 '인생은 아름다워' 비하인드 [인터뷰Q] 최국희 감독이 밝힌 '인생은 아름다워' 비하인드 [인터뷰Q] 김광현+노경은, 완벽했던 신구조화 [랜더스 우승] 김광현+노경은, 완벽했던 신구조화 [랜더스 우승] [랜더스 우승] 정용진+인천팬, 퍼펙트 2022 [랜더스 우승] 정용진+인천팬, 퍼펙트 2022 염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 포토Q [포토Q] 최진혁 '논란 후 첫 공식 석상' [포토Q] 최진혁 '논란 후 첫 공식 석상' [포토Q] 영탁 '품격있는 인사' [포토Q] 영탁 '품격있는 인사' [포토Q] 나나 '시선 끄는 타투' [포토Q] 나나 '시선 끄는 타투' [포토Q] 영탁 '댄스 퍼포먼스 슬쩍' [포토Q] 영탁 '댄스 퍼포먼스 슬쩍' [포토Q] 아이유 '여의도 뜬 국힙원탑' [포토Q] 아이유 '여의도 뜬 국힙원탑' [포토Q] 드라마 '옷소매 붉은 끝동' 함께한 이월연 PD-정지인 감독 [포토Q] 드라마 '옷소매 붉은 끝동' 함께한 이월연 PD-정지인 감독 오늘의 인기기사 스포츠 연예 라이프 1'피겨왕자' 차준환, 챌린저 쇼트 1위보다 기쁜 건? 21픽 신호진, OK금융이 그리는 미래는? [프로배구] 3넥슨 '블루 아카이브' 아트북, 일본 아마존 도서 흥행 돌풍 4엔씨소프트, '2022 글로벌 리크루팅' 온라인 설명회 진행 5넷마블, 2022년 3분기 '대한민국 100대 브랜드' 선정 6컴투스 '서머너즈 워' 뉴욕 코믹콘 출격, 글로벌 팬 만난다 7위메이드 'Gold Club' 온보딩 계약, 위믹스 생태계 확장 본격화 8위메이드, 단기 금융거래 플랫폼 CLST 전략적 시드 투자 9우즈 오버랩 김주형, 얼마나 대단하냐면 [PGA] 10컴투스 글로벌 콘텐츠문학상, 선호 장르-대세 주제는? 1염정아, 알 수 없기에 아름다운 인생 [인터뷰Q] 2정직한후보2, 김진태 도지사 글 때문에 '난감' 3남궁민 '치트키', 천원짜리 변호사 OTT도 1위! 4지코, '새삥'으로 음원차트 독주 시작 [Q차트] 5세븐틴 이어 블랙핑크도… '더블 밀리언셀러' 시대 온다 6평창·강릉 다음은 부천? 사라지는 지역영화제 7예능·드라마 공세…디즈니+, 구독자 몰이 나선다 8당당함 무기로, '4세대 걸그룹' 10월 컴백 대전 9'경북대 축제 논란' 아이브, 전말 밝혀졌다 10"안 할 이유 없었다" 김혜수는 왜 '슈룹'을 택했을까 [SQ현장] 1광양 아파트 분양, 용강지구 푸르지오 센터파크 2슈퍼주니어 이특·신동, 쿠팡라이브 출연…제품 개발 참여까지 3롯데건설, 지능형 스마트 계측기술 개발한다 4CJ올리브영 '즐거운 동행', K뷰티 유망주 찾는다 5"미래성장동력 육성" 콜마그룹, 2500억원 투자 펀드 참여 6배스킨라빈스 플래그십 스토어, 부산행 7식품업계 트렌드, 가심비 잡는 프리미엄화 8교원그룹 '데모데이' 성료, 유망 스타트업 8곳 소개 9'백해무익' 담배, 태워서 발생하는 문제점은? 10BBQ, 오클라호마 진출... 미국 20번째 주 최신뉴스 작은 아씨들→글리치, 워맨스 릴레이ing 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 [포토Q] 인사말 전하는 이기훈 회장 [포토Q] 파퀴아오-DK YOO 매치 성사시킨 이건애 대표 [포토Q] 파퀴아오-DK YOO 매치 성사시킨 이건애 대표 [포토Q] 디케이 유 '훈남 무술가' [포토Q] 디케이 유 '훈남 무술가' [포토Q] 파퀴아오 '여유 넘치는 필리핀 영웅' [포토Q] 파퀴아오 '여유 넘치는 필리핀 영웅' 포토뉴스 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 작은 아씨들→글리치, 워맨스 릴레이ing 오산시, 11년 만에 한풀이! '김우승 우승' [리틀야구] '축제의 바다' 부산, BTS 콘서트 준비로 분주 [포토Q] 인사말 전하는 이기훈 회장 회사소개 취재요청 독자투고 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 금천구 서부샛길 606 (대성디폴리스지식산업센터) A-1702호 대표전화 : 02-6959-1222 청소년보호책임자 : 이두영 법인명 : (주)와이케이미디어 제호 : 스포츠Q(큐) 등록번호 : 서울 아 02891 등록일 : 2013-11-18 발행일 : 2013-11-18 발행·편집인 : 이두영 스포츠Q(큐) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 스포츠Q(큐). All rights reserved. 기사문의 · 제보 : webmaster@sportsq.co.kr 광고문의 : biz@sportsq.co.kr 위로</t>
+  </si>
+  <si>
+    <t>2019년 기해년 새해, 일출 명소에 관광객 북적…제주도 제외 전국서 해돋이 관측 - 이투데이 속보창 구독신청 RSS 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 사회 일반 2019년 기해년 새해, 일출 명소에 관광객 북적…제주도 제외 전국서 해돋이 관측 입력 2019-01-01 09:42 수정 2019-01-01 17:59 유정선 기자																								dwt84@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 2019년 기해년 새해, 전국 일출 명소에는 해돋이를 보기 위해 관광객들이 모여들었다. 1일 오전 경북 포항 호미곶, 부산 해운대 해수욕장, 광안대교, 강원 정동진 등 전국 해돋이 명소에는 해맞이객들로 북적였다.이날 전국 대부분 지역에서 맑은 날씨가 이어져 선명한 해돋이를 관측할 수 있었다. 관련 뉴스 [포토] 가장 높은 곳에서 바라본 기해년 첫 일출 [포토] 서울에 떠오른 기해년 첫 태양 [포토] 서울에 떠오른 기해년 첫 태양 기해년 첫날 해뜨는 시간은 가장 동쪽 독도 7시 26분을 시작으로, 서울 오전 7시 47분, 인천 오전 7시 48분, 강릉 오전 7시 40분, 포항 오전 7시 33분, 울산 오전 7시 32분, 해남 오전 7시 40분 등이다.제주의 새해 첫 일출 시간은 오전 7시 38분이었으나, 구름 많고 흐린 날씨 탓에 해돋이를 볼 수 없었다.한편 오늘 미세먼지 농도는 전 지역에서 '보통' 또는 '좋음'을 보이겠다. #해돋이 #기해년 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 03 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 04 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 05 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 06 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 07 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 08 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 09 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 10 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 사회 최신 뉴스 [국감 핫잇슈] 교육부 등 소속기관 등 5년간 사이버 공격 21만 건 50대 남성, 서울 공원서 총상…극단 선택 추정 [포토] 2022 하이서울패션쇼 개막 [포토] 한국패션 미래를 한자리에 '하이서울패션쇼 2022' [포토] 하이서울패션쇼 2022, 3년만에 개최 “통통한 새우젓 알뜰 구매”…3년 만에 마포나루 ‘새우젓 축제’ 열린다 [포토] '내가 가고싶은 회사에서 만드는 제품은' [포토] '붐비는 2022 한국제약바이오 채용박람회' [포토] '내가 가고싶은 제약바이오기업은' [포토] '제약바이오 채용설명회장 열기' 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '비에니끄' 의류 선보이는 모델들 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 12:33 20분지연 코스피 코스닥 1.다이나믹디자인 3,200 2.화천기계 1,260 3.베트남개발1 67 4.유니온머티리얼 345 5.제이준코스메틱 43 1.테라셈 31 2.코아스템 2,680 3.코디엠 174 4.동국알앤에스 780 5.해성산업1우 2,500 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,373,000 -1.29% 이더리움 1,837,000 -2.6% 비트코인 캐시 159,000 -4.85% 리플 707.8 -6.38% 위믹스 2,408 -4.82% 에이다 568.4 -5.89% 이오스 1,485 -7.42% 트론 88.56 -1.2% 스텔라루멘 176.8 -2.86% 비트코인에스브이 68,000 -3.2% 체인링크 10,350 -4.87% 샌드박스 1,131 -5.28% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
   </si>
 </sst>
 </file>
@@ -437,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +708,331 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
